--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,30 +928,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.32</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Pour éliminer les mojitos 😜</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44242.25395833332</v>
+        <v>44241.64487268519</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="17">
@@ -964,26 +964,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.32</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pour éliminer les mojitos 😜</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44241.64487268519</v>
+        <v>44241.65402777777</v>
       </c>
       <c r="H17" t="n">
-        <v>26.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -996,26 +996,26 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>2.91</v>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Il en manque un bout</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44241.65402777777</v>
+        <v>44241.65872685185</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="19">
@@ -1024,30 +1024,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.91</v>
+        <v>20.8</v>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Il en manque un bout</t>
+          <t>Activité dans l'après-midi</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44241.65872685185</v>
+        <v>44241.58082175926</v>
       </c>
       <c r="H19" t="n">
-        <v>14.55</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="20">
@@ -1056,30 +1056,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20.8</v>
+        <v>7.17</v>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Mari On</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Activité dans l'après-midi</t>
+          <t>Minière</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44241.58082175926</v>
+        <v>44241.48925925926</v>
       </c>
       <c r="H20" t="n">
-        <v>41.6</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="21">
@@ -1092,26 +1092,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.17</v>
+        <v>10.41</v>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mari On</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Minière</t>
+          <t>Course à pied du midi</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44241.48925925926</v>
+        <v>44241.49078703704</v>
       </c>
       <c r="H21" t="n">
-        <v>71.7</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="22">
@@ -1120,30 +1120,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10.41</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Course à pied du midi</t>
+          <t>VCMB 109 GR2</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44241.49078703704</v>
+        <v>44241.34190972222</v>
       </c>
       <c r="H22" t="n">
-        <v>104.1</v>
+        <v>149.48</v>
       </c>
     </row>
     <row r="23">
@@ -1156,26 +1156,26 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Promenade</t>
+          <t>Balade de la meute 🦊🐻🐶</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44241.5121875</v>
+        <v>44241.36550925926</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="24">
@@ -1184,30 +1184,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>74.73999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="D24" t="n">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VCMB 109 GR2</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44241.34190972222</v>
+        <v>44241.41025462963</v>
       </c>
       <c r="H24" t="n">
-        <v>149.48</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="25">
@@ -1216,30 +1216,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.42</v>
+        <v>6.67</v>
       </c>
       <c r="D25" t="n">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Balade de la meute 🦊🐻🐶</t>
+          <t>Course à pied le midi</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44241.36550925926</v>
+        <v>44241.41815972222</v>
       </c>
       <c r="H25" t="n">
-        <v>22.1</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="26">
@@ -1248,30 +1248,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.5</v>
+        <v>7.04</v>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44241.41025462963</v>
+        <v>44241.320625</v>
       </c>
       <c r="H26" t="n">
-        <v>12.5</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1284,26 +1284,26 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.67</v>
+        <v>9.4</v>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Course à pied le midi</t>
+          <t>14/02/21</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44241.41815972222</v>
+        <v>44241.31958333333</v>
       </c>
       <c r="H27" t="n">
-        <v>66.7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -1316,26 +1316,26 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.04</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Jogg du dimanche</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44241.320625</v>
+        <v>44241.32162037037</v>
       </c>
       <c r="H28" t="n">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1344,30 +1344,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.4</v>
+        <v>1.21</v>
       </c>
       <c r="D29" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14/02/21</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44241.31958333333</v>
+        <v>44241.22037037037</v>
       </c>
       <c r="H29" t="n">
-        <v>94</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="30">
@@ -1380,26 +1380,26 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Jogg du dimanche</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44241.32162037037</v>
+        <v>44240.68465277777</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1408,30 +1408,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4.81</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>ballade dans le froid 🥶</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44241.27222222222</v>
+        <v>44240.64438657407</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="32">
@@ -1444,26 +1444,26 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.21</v>
+        <v>8.15</v>
       </c>
       <c r="D32" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44241.22037037037</v>
+        <v>44240.61172453704</v>
       </c>
       <c r="H32" t="n">
-        <v>6.05</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="33">
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>7.51</v>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>La montre qui s'arrête alors qu'il reste 3km 🙄</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44240.68465277777</v>
+        <v>44240.62813657407</v>
       </c>
       <c r="H33" t="n">
-        <v>30</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1504,14 +1504,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.81</v>
+        <v>16.8</v>
       </c>
       <c r="D34" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ballade dans le froid 🥶</t>
+          <t>Sortie à vélo dans l'après-midi</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44240.64438657407</v>
+        <v>44240.57457175926</v>
       </c>
       <c r="H34" t="n">
-        <v>24.05</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="35">
@@ -1540,14 +1540,14 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.15</v>
+        <v>7.77</v>
       </c>
       <c r="D35" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1556,10 +1556,10 @@
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44240.61172453704</v>
+        <v>44240.51672453704</v>
       </c>
       <c r="H35" t="n">
-        <v>40.75</v>
+        <v>38.84999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1568,30 +1568,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.51</v>
+        <v>5.36</v>
       </c>
       <c r="D36" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>La montre qui s'arrête alors qu'il reste 3km 🙄</t>
+          <t>Enjoy the sun</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44240.62813657407</v>
+        <v>44240.46696759259</v>
       </c>
       <c r="H36" t="n">
-        <v>75.09999999999999</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="37">
@@ -1600,30 +1600,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>16.8</v>
+        <v>1.86</v>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sortie à vélo dans l'après-midi</t>
+          <t>Cours sur parcours compact de golf</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44240.57457175926</v>
+        <v>44240.43086805557</v>
       </c>
       <c r="H37" t="n">
-        <v>33.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1636,26 +1636,26 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7.77</v>
+        <v>4.07</v>
       </c>
       <c r="D38" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44240.51672453704</v>
+        <v>44240.43643518518</v>
       </c>
       <c r="H38" t="n">
-        <v>38.84999999999999</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="39">
@@ -1664,30 +1664,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.36</v>
+        <v>4.15</v>
       </c>
       <c r="D39" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Enjoy the sun</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44240.46696759259</v>
+        <v>44240.26467592592</v>
       </c>
       <c r="H39" t="n">
-        <v>26.8</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="40">
@@ -1700,26 +1700,26 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.86</v>
+        <v>0.74</v>
       </c>
       <c r="D40" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cours sur parcours compact de golf</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44240.43086805557</v>
+        <v>44240.19385416667</v>
       </c>
       <c r="H40" t="n">
-        <v>9.300000000000001</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="41">
@@ -1728,30 +1728,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.07</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44240.43643518518</v>
+        <v>44239.75694444445</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1760,30 +1760,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.15</v>
+        <v>7.9</v>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>12/02/21</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44240.26467592592</v>
+        <v>44239.63627314815</v>
       </c>
       <c r="H42" t="n">
-        <v>41.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="43">
@@ -1792,30 +1792,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Promenade enneigée</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44240.25</v>
+        <v>44239.58208333332</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="44">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.74</v>
+        <v>6.73</v>
       </c>
       <c r="D44" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Vent frais, vent du midi 🥶</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44240.19385416667</v>
+        <v>44239.45570601852</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>67.30000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1860,26 +1860,26 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Activité le midi</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44239.75694444445</v>
+        <v>44239.44210648148</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1888,30 +1888,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7.9</v>
+        <v>25.91</v>
       </c>
       <c r="D46" t="n">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>12/02/21</t>
+          <t>20 min à FTP puis calme</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44239.63627314815</v>
+        <v>44238.85311342592</v>
       </c>
       <c r="H46" t="n">
-        <v>39.5</v>
+        <v>51.82</v>
       </c>
     </row>
     <row r="47">
@@ -1920,30 +1920,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.06</v>
+        <v>11.4</v>
       </c>
       <c r="D47" t="n">
         <v>45</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Promenade enneigée</t>
+          <t>11/02/21</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44239.58208333332</v>
+        <v>44238.71231481482</v>
       </c>
       <c r="H47" t="n">
-        <v>15.3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
@@ -1952,14 +1952,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6.73</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1968,14 +1968,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vent frais, vent du midi 🥶</t>
+          <t>Balade</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44239.45570601852</v>
+        <v>44238.68119212963</v>
       </c>
       <c r="H48" t="n">
-        <v>67.30000000000001</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="49">
@@ -1984,30 +1984,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.5</v>
+        <v>1.31</v>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Activité le midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44239.44210648148</v>
+        <v>44238.63715277778</v>
       </c>
       <c r="H49" t="n">
-        <v>30</v>
+        <v>6.550000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -2016,30 +2016,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>24.54</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>10-12wk FTP Builder Week 8 Day 3</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44239.22313657407</v>
+        <v>44237.86130787037</v>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="51">
@@ -2052,26 +2052,26 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25.91</v>
+        <v>13.3</v>
       </c>
       <c r="D51" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>20 min à FTP puis calme</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44238.85311342592</v>
+        <v>44237.79754629629</v>
       </c>
       <c r="H51" t="n">
-        <v>51.82</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="52">
@@ -2084,26 +2084,26 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>11/02/21</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44238.71231481482</v>
+        <v>44237.72222222222</v>
       </c>
       <c r="H52" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2112,30 +2112,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Ça fait frais ... avec les copines et les enfants</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44238.73611111111</v>
+        <v>44237.67486111111</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="54">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.5</v>
+        <v>5.58</v>
       </c>
       <c r="D54" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2160,14 +2160,14 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Balade</t>
+          <t>Footing dans la neige ❄️</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44238.68119212963</v>
+        <v>44237.67539351852</v>
       </c>
       <c r="H54" t="n">
-        <v>17.5</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="55">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.31</v>
+        <v>46.71</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>10-12wk FTP Builder Week 7 Day 4</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44238.63715277778</v>
+        <v>44236.82131944445</v>
       </c>
       <c r="H55" t="n">
-        <v>6.550000000000001</v>
+        <v>93.42</v>
       </c>
     </row>
     <row r="56">
@@ -2208,30 +2208,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>5.92</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Pas mieux qu'hier 🧊</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44238.25858796296</v>
+        <v>44236.671875</v>
       </c>
       <c r="H56" t="n">
-        <v>10</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="57">
@@ -2240,30 +2240,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>24.54</v>
+        <v>6.81</v>
       </c>
       <c r="D57" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 8 Day 3</t>
+          <t>Frisquet 🥶</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44237.86130787037</v>
+        <v>44235.67013888889</v>
       </c>
       <c r="H57" t="n">
-        <v>49.08</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -2276,26 +2276,26 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13.3</v>
+        <v>2.24</v>
       </c>
       <c r="D58" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>Afternoon Ride</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44237.79754629629</v>
+        <v>44235.67065972222</v>
       </c>
       <c r="H58" t="n">
-        <v>26.6</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="59">
@@ -2304,30 +2304,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44237.72222222222</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="60">
@@ -2340,26 +2340,26 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3.93</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ça fait frais ... avec les copines et les enfants</t>
+          <t>Marche nocturne</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44237.67486111111</v>
+        <v>44234.84722222222</v>
       </c>
       <c r="H60" t="n">
-        <v>19.65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -2375,23 +2375,23 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Raffermissement ....abdominal</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44237.70802083334</v>
+        <v>44234.70833333334</v>
       </c>
       <c r="H61" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
@@ -2400,30 +2400,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="D62" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sous la neige...</t>
+          <t>Marche avec les copines</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44237.68630787037</v>
+        <v>44234.63688657407</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="63">
@@ -2432,30 +2432,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5.58</v>
+        <v>2.41</v>
       </c>
       <c r="D63" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Footing dans la neige ❄️</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44237.67539351852</v>
+        <v>44234.6003587963</v>
       </c>
       <c r="H63" t="n">
-        <v>55.8</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="64">
@@ -2468,10 +2468,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>46.71</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2480,14 +2480,14 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 7 Day 4</t>
+          <t>VCMB 119 GR2</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44236.82131944445</v>
+        <v>44234.33590277778</v>
       </c>
       <c r="H64" t="n">
-        <v>93.42</v>
+        <v>150.3</v>
       </c>
     </row>
     <row r="65">
@@ -2496,30 +2496,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Pas mieux qu'hier 🧊</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44236.671875</v>
+        <v>44234.45177083334</v>
       </c>
       <c r="H65" t="n">
-        <v>59.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -2528,30 +2528,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Velo elliptique</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44235.72916666666</v>
+        <v>44234.44129629631</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="67">
@@ -2564,26 +2564,26 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6.81</v>
+        <v>3.64</v>
       </c>
       <c r="D67" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>corentin paya</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Frisquet 🥶</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44235.67013888889</v>
+        <v>44234.38502314815</v>
       </c>
       <c r="H67" t="n">
-        <v>68.09999999999999</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="68">
@@ -2592,30 +2592,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.24</v>
+        <v>5.72</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Afternoon Ride</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44235.67065972222</v>
+        <v>44234.37035879631</v>
       </c>
       <c r="H68" t="n">
-        <v>4.48</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="69">
@@ -2624,30 +2624,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44234.33081018519</v>
       </c>
       <c r="H69" t="n">
-        <v>13.1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -2656,30 +2656,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>07/02/21</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44235.27083333334</v>
+        <v>44234.29206018519</v>
       </c>
       <c r="H70" t="n">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71">
@@ -2688,30 +2688,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="D71" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Marche nocturne</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44234.84722222222</v>
+        <v>44234.31880787037</v>
       </c>
       <c r="H71" t="n">
-        <v>20</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="72">
@@ -2720,30 +2720,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="D72" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Raffermissement ....abdominal</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44234.70833333334</v>
+        <v>44233.67482638889</v>
       </c>
       <c r="H72" t="n">
-        <v>45</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="73">
@@ -2752,30 +2752,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5.41</v>
+        <v>10.07</v>
       </c>
       <c r="D73" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Marche avec les copines</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44234.63688657407</v>
+        <v>44233.62342592593</v>
       </c>
       <c r="H73" t="n">
-        <v>27.05</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="74">
@@ -2784,30 +2784,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="D74" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Entraînement Foot sous la pluie</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44234.6003587963</v>
+        <v>44233.60083333333</v>
       </c>
       <c r="H74" t="n">
-        <v>12.05</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="75">
@@ -2816,30 +2816,30 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>75.15000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="D75" t="n">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>VCMB 119 GR2</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44234.33590277778</v>
+        <v>44233.58560185185</v>
       </c>
       <c r="H75" t="n">
-        <v>150.3</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="76">
@@ -2848,30 +2848,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>33.71</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Temps idéal (c'est faux)</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44234.45177083334</v>
+        <v>44233.44824074074</v>
       </c>
       <c r="H76" t="n">
-        <v>10</v>
+        <v>67.42</v>
       </c>
     </row>
     <row r="77">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.89</v>
+        <v>0.61</v>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Velo elliptique</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44234.44129629631</v>
+        <v>44233.47493055555</v>
       </c>
       <c r="H77" t="n">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="78">
@@ -2912,30 +2912,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3.64</v>
+        <v>1.37</v>
       </c>
       <c r="D78" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>corentin paya</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44234.38502314815</v>
+        <v>44233.4447337963</v>
       </c>
       <c r="H78" t="n">
-        <v>36.4</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -2944,30 +2944,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5.72</v>
+        <v>28.63</v>
       </c>
       <c r="D79" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>10-12wk FTP Builder Week 7 Day 3</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44234.37035879631</v>
+        <v>44233.41396990741</v>
       </c>
       <c r="H79" t="n">
-        <v>28.6</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="80">
@@ -2976,14 +2976,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2992,14 +2992,14 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44234.33081018519</v>
+        <v>44233.4012037037</v>
       </c>
       <c r="H80" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -3008,30 +3008,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>10.8</v>
+        <v>4.92</v>
       </c>
       <c r="D81" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>07/02/21</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44234.29206018519</v>
+        <v>44233.32486111111</v>
       </c>
       <c r="H81" t="n">
-        <v>108</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="82">
@@ -3040,30 +3040,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3.71</v>
+        <v>4.9</v>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Balade de toutous</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44234.31880787037</v>
+        <v>44233.31291666667</v>
       </c>
       <c r="H82" t="n">
-        <v>37.1</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="83">
@@ -3072,30 +3072,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>6.31</v>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44234.28898148148</v>
+        <v>44233.25414351852</v>
       </c>
       <c r="H83" t="n">
-        <v>10</v>
+        <v>63.09999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -3108,26 +3108,26 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5.22</v>
+        <v>10.6</v>
       </c>
       <c r="D84" t="n">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>05/02/21</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44233.67482638889</v>
+        <v>44232.64491898148</v>
       </c>
       <c r="H84" t="n">
-        <v>26.1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85">
@@ -3136,30 +3136,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10.07</v>
+        <v>6.01</v>
       </c>
       <c r="D85" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44233.62342592593</v>
+        <v>44232.66780092593</v>
       </c>
       <c r="H85" t="n">
-        <v>100.7</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="86">
@@ -3168,30 +3168,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.25</v>
+        <v>2.86</v>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Entraînement Foot sous la pluie</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44233.60083333333</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H86" t="n">
-        <v>22.5</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="87">
@@ -3204,26 +3204,26 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="D87" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44233.58560185185</v>
+        <v>44232.63561342594</v>
       </c>
       <c r="H87" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="88">
@@ -3232,30 +3232,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>33.71</v>
+        <v>1.28</v>
       </c>
       <c r="D88" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Temps idéal (c'est faux)</t>
+          <t>Je vous en mets un peu plus</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44233.44824074074</v>
+        <v>44232.62511574074</v>
       </c>
       <c r="H88" t="n">
-        <v>67.42</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="89">
@@ -3268,26 +3268,26 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.61</v>
+        <v>7.34</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Retour à Trégastel : un vrai plaisir</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44233.47493055555</v>
+        <v>44232.51474537037</v>
       </c>
       <c r="H89" t="n">
-        <v>3.05</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="90">
@@ -3296,30 +3296,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.37</v>
+        <v>15.14</v>
       </c>
       <c r="D90" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>La routourne va tourner</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44233.4447337963</v>
+        <v>44232.45350694445</v>
       </c>
       <c r="H90" t="n">
-        <v>6.850000000000001</v>
+        <v>151.4</v>
       </c>
     </row>
     <row r="91">
@@ -3332,26 +3332,26 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>28.63</v>
+        <v>5.59</v>
       </c>
       <c r="D91" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 7 Day 3</t>
+          <t>Lunch Ride</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44233.41396990741</v>
+        <v>44232.47916666666</v>
       </c>
       <c r="H91" t="n">
-        <v>57.26</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="92">
@@ -3364,26 +3364,26 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="D92" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Bof</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44233.4012037037</v>
+        <v>44232.47024305557</v>
       </c>
       <c r="H92" t="n">
-        <v>10</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -3392,30 +3392,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Que de la route, on va plus loin</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44233.77083333334</v>
+        <v>44232.40537037037</v>
       </c>
       <c r="H93" t="n">
-        <v>4</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="94">
@@ -3424,30 +3424,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4.92</v>
+        <v>5.91</v>
       </c>
       <c r="D94" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Morning Ride</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44233.32486111111</v>
+        <v>44232.41337962963</v>
       </c>
       <c r="H94" t="n">
-        <v>24.6</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="95">
@@ -3456,30 +3456,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4.9</v>
+        <v>43.3</v>
       </c>
       <c r="D95" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Balade de toutous</t>
+          <t>10-12wk FTP Builder Week 6 Day 4</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44233.31291666667</v>
+        <v>44231.83375</v>
       </c>
       <c r="H95" t="n">
-        <v>24.5</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -3488,30 +3488,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6.31</v>
+        <v>1.87</v>
       </c>
       <c r="D96" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Evening Hike</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44233.25414351852</v>
+        <v>44231.74266203704</v>
       </c>
       <c r="H96" t="n">
-        <v>63.09999999999999</v>
+        <v>9.350000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -3520,30 +3520,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>17.36</v>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Tregastel et vallée du Traouïéro</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44233.26210648148</v>
+        <v>44231.38483796296</v>
       </c>
       <c r="H97" t="n">
-        <v>10</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="98">
@@ -3556,26 +3556,26 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="D98" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Marche de nuit</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44232.85324074074</v>
+        <v>44231.60041666667</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="99">
@@ -3588,26 +3588,26 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>10.6</v>
+        <v>2.99</v>
       </c>
       <c r="D99" t="n">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>05/02/21</t>
+          <t>Promenons nous dans les bois ...</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44232.64491898148</v>
+        <v>44231.4877662037</v>
       </c>
       <c r="H99" t="n">
-        <v>53</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="100">
@@ -3623,23 +3623,23 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Satya Wiplier</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Activité du matin</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44233.09722222222</v>
+        <v>44231.42361111111</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -3652,10 +3652,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6.01</v>
+        <v>5.03</v>
       </c>
       <c r="D101" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3664,14 +3664,14 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44232.66780092593</v>
+        <v>44231.36285879631</v>
       </c>
       <c r="H101" t="n">
-        <v>30.05</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="102">
@@ -3680,30 +3680,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="D102" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44231.24442129629</v>
       </c>
       <c r="H102" t="n">
-        <v>14.3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.3</v>
+        <v>3.04</v>
       </c>
       <c r="D103" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3732,10 +3732,10 @@
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44232.63561342594</v>
+        <v>44230.63672453703</v>
       </c>
       <c r="H103" t="n">
-        <v>6.5</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="104">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.28</v>
+        <v>7.24</v>
       </c>
       <c r="D104" t="n">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3760,14 +3760,14 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Je vous en mets un peu plus</t>
+          <t>Ile Grande</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44232.62511574074</v>
+        <v>44230.53835648148</v>
       </c>
       <c r="H104" t="n">
-        <v>6.4</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="105">
@@ -3776,30 +3776,30 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7.34</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Retour à Trégastel : un vrai plaisir</t>
+          <t>1ere sortie running avec la petite mamie</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44232.51474537037</v>
+        <v>44230.45893518518</v>
       </c>
       <c r="H105" t="n">
-        <v>36.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
@@ -3812,10 +3812,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>15.14</v>
+        <v>8.85</v>
       </c>
       <c r="D106" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3824,14 +3824,14 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>La routourne va tourner</t>
+          <t>Ensoleillé mais (très) mouillé</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44232.45350694445</v>
+        <v>44230.44480324074</v>
       </c>
       <c r="H106" t="n">
-        <v>151.4</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="107">
@@ -3840,14 +3840,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5.59</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3856,14 +3856,14 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Lunch Ride</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44232.47916666666</v>
+        <v>44230.42997685185</v>
       </c>
       <c r="H107" t="n">
-        <v>11.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.44</v>
+        <v>3.75</v>
       </c>
       <c r="D108" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3888,14 +3888,14 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bof</t>
+          <t>Trebeurden</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44232.47024305557</v>
+        <v>44230.39664351852</v>
       </c>
       <c r="H108" t="n">
-        <v>7.199999999999999</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="109">
@@ -3908,10 +3908,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4.99</v>
+        <v>9.34</v>
       </c>
       <c r="D109" t="n">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3920,14 +3920,14 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Que de la route, on va plus loin</t>
+          <t>Retour de Perros en passant par Trestrignel</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44232.40537037037</v>
+        <v>44229.49413194445</v>
       </c>
       <c r="H109" t="n">
-        <v>24.95</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="110">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5.91</v>
+        <v>8.59</v>
       </c>
       <c r="D110" t="n">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Morning Ride</t>
+          <t>Aller à Perros</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44232.41337962963</v>
+        <v>44229.37037037037</v>
       </c>
       <c r="H110" t="n">
-        <v>11.82</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="111">
@@ -3968,30 +3968,30 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="D111" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Découverte de Ploumanac'h</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44232.26736111111</v>
+        <v>44228.64439814815</v>
       </c>
       <c r="H111" t="n">
-        <v>10</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="112">
@@ -4000,30 +4000,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>43.3</v>
+        <v>1.29</v>
       </c>
       <c r="D112" t="n">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 6 Day 4</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44231.83375</v>
+        <v>44228.63753472222</v>
       </c>
       <c r="H112" t="n">
-        <v>86.59999999999999</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="113">
@@ -4032,30 +4032,30 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>16.49</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44232.10069444445</v>
+        <v>44227.42353009258</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>164.9</v>
       </c>
     </row>
     <row r="114">
@@ -4064,30 +4064,30 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.87</v>
+        <v>78.02</v>
       </c>
       <c r="D114" t="n">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Evening Hike</t>
+          <t>VCMB 113 GR2</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44231.74266203704</v>
+        <v>44227.33418981481</v>
       </c>
       <c r="H114" t="n">
-        <v>9.350000000000001</v>
+        <v>156.04</v>
       </c>
     </row>
     <row r="115">
@@ -4096,30 +4096,30 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>6.44</v>
       </c>
       <c r="D115" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Marie Leger</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44231.67361111111</v>
+        <v>44227.41608796296</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4128,30 +4128,30 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>17.36</v>
+        <v>0.88</v>
       </c>
       <c r="D116" t="n">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tregastel et vallée du Traouïéro</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44231.38483796296</v>
+        <v>44227.36313657407</v>
       </c>
       <c r="H116" t="n">
-        <v>86.8</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4160,14 +4160,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
       <c r="D117" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4176,14 +4176,14 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44231.60041666667</v>
+        <v>44227.34079861111</v>
       </c>
       <c r="H117" t="n">
-        <v>12.25</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="118">
@@ -4192,30 +4192,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2.99</v>
+        <v>1.47</v>
       </c>
       <c r="D118" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Promenons nous dans les bois ...</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44231.4877662037</v>
+        <v>44227.33324074074</v>
       </c>
       <c r="H118" t="n">
-        <v>14.95</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="119">
@@ -4224,30 +4224,30 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="D119" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Marche</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44231.4375</v>
+        <v>44227.32197916666</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="120">
@@ -4256,30 +4256,30 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="D120" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Satya Wiplier</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Activité du matin</t>
+          <t>Sortie à vélo le soir</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44231.42361111111</v>
+        <v>44226.7087962963</v>
       </c>
       <c r="H120" t="n">
-        <v>10</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="121">
@@ -4292,26 +4292,26 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5.03</v>
+        <v>5.22</v>
       </c>
       <c r="D121" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Sous la flotte</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44231.36285879631</v>
+        <v>44226.62849537037</v>
       </c>
       <c r="H121" t="n">
-        <v>25.15</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="122">
@@ -4320,30 +4320,30 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="D122" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Afternoon Ride</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44231.34027777778</v>
+        <v>44226.61844907407</v>
       </c>
       <c r="H122" t="n">
-        <v>10</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="123">
@@ -4352,30 +4352,30 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3.2</v>
+        <v>25.62</v>
       </c>
       <c r="D123" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Velo-conso</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44231.24442129629</v>
+        <v>44226.56037037037</v>
       </c>
       <c r="H123" t="n">
-        <v>32</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="124">
@@ -4384,30 +4384,30 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3.04</v>
+        <v>27.95</v>
       </c>
       <c r="D124" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
         </is>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44230.63672453703</v>
+        <v>44226.37979166668</v>
       </c>
       <c r="H124" t="n">
-        <v>15.2</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="125">
@@ -4416,30 +4416,30 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7.24</v>
+        <v>8.5</v>
       </c>
       <c r="D125" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Ile Grande</t>
+          <t>Course à pied de nuit</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44230.53835648148</v>
+        <v>44226.37561342592</v>
       </c>
       <c r="H125" t="n">
-        <v>36.2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126">
@@ -4452,26 +4452,26 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>5.01</v>
       </c>
       <c r="D126" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1ere sortie running avec la petite mamie</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44230.45893518518</v>
+        <v>44226.26634259259</v>
       </c>
       <c r="H126" t="n">
-        <v>40</v>
+        <v>50.09999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4480,30 +4480,30 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8.85</v>
+        <v>2.25</v>
       </c>
       <c r="D127" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ensoleillé mais (très) mouillé</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44230.44480324074</v>
+        <v>44225.60737268518</v>
       </c>
       <c r="H127" t="n">
-        <v>88.5</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="128">
@@ -4516,10 +4516,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="D128" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4528,14 +4528,14 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44230.42997685185</v>
+        <v>44225.34206018518</v>
       </c>
       <c r="H128" t="n">
-        <v>10</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -4548,26 +4548,26 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3.75</v>
+        <v>1.34</v>
       </c>
       <c r="D129" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Trebeurden</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44230.39664351852</v>
+        <v>44225.32385416667</v>
       </c>
       <c r="H129" t="n">
-        <v>18.75</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="130">
@@ -4576,30 +4576,30 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>9.34</v>
+        <v>24.66</v>
       </c>
       <c r="D130" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Retour de Perros en passant par Trestrignel</t>
+          <t>Zwift - 10-12wk FTP Builder Week 8 Day 3</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44229.49413194445</v>
+        <v>44223.87483796296</v>
       </c>
       <c r="H130" t="n">
-        <v>46.7</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="131">
@@ -4608,30 +4608,30 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8.59</v>
+        <v>41.82</v>
       </c>
       <c r="D131" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Aller à Perros</t>
+          <t>Zwift - 10-12wk FTP Builder Week 8 Day 4</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44229.37037037037</v>
+        <v>44222.87342592593</v>
       </c>
       <c r="H131" t="n">
-        <v>42.95</v>
+        <v>83.64</v>
       </c>
     </row>
     <row r="132">
@@ -4640,30 +4640,30 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2.87</v>
+        <v>11.72</v>
       </c>
       <c r="D132" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Découverte de Ploumanac'h</t>
+          <t>Bonne bouillasse 😁</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44228.64439814815</v>
+        <v>44222.67177083333</v>
       </c>
       <c r="H132" t="n">
-        <v>14.35</v>
+        <v>117.2</v>
       </c>
     </row>
     <row r="133">
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="D133" t="n">
         <v>12</v>
@@ -4692,10 +4692,10 @@
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44228.63753472222</v>
+        <v>44222.63873842593</v>
       </c>
       <c r="H133" t="n">
-        <v>6.45</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="134">
@@ -4704,30 +4704,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5.32</v>
+        <v>1.42</v>
       </c>
       <c r="D134" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Bread run</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44227.63116898148</v>
+        <v>44222.25640046296</v>
       </c>
       <c r="H134" t="n">
-        <v>26.6</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="135">
@@ -4740,26 +4740,26 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>16.49</v>
+        <v>2.66</v>
       </c>
       <c r="D135" t="n">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Passage de relai et baptême de la boue</t>
+          <t>1st lap with Raïkô</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44227.42353009258</v>
+        <v>44222.23939814815</v>
       </c>
       <c r="H135" t="n">
-        <v>164.9</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="136">
@@ -4768,30 +4768,30 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>78.02</v>
+        <v>8.01</v>
       </c>
       <c r="D136" t="n">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>VCMB 113 GR2</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44227.33418981481</v>
+        <v>44220.59336805555</v>
       </c>
       <c r="H136" t="n">
-        <v>156.04</v>
+        <v>40.05</v>
       </c>
     </row>
     <row r="137">
@@ -4800,30 +4800,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6.44</v>
+        <v>4.33</v>
       </c>
       <c r="D137" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Marie Leger</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44227.41608796296</v>
+        <v>44220.6040162037</v>
       </c>
       <c r="H137" t="n">
-        <v>64.40000000000001</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="138">
@@ -4832,30 +4832,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.88</v>
+        <v>80.28</v>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>VCMB 107 GR2</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44227.36313657407</v>
+        <v>44220.3353587963</v>
       </c>
       <c r="H138" t="n">
-        <v>8.800000000000001</v>
+        <v>160.56</v>
       </c>
     </row>
     <row r="139">
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="D139" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44227.34079861111</v>
+        <v>44220.32298611111</v>
       </c>
       <c r="H139" t="n">
-        <v>17.8</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="140">
@@ -4896,30 +4896,30 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.47</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44227.33324074074</v>
+        <v>44219.60003472222</v>
       </c>
       <c r="H140" t="n">
-        <v>14.7</v>
+        <v>40.55</v>
       </c>
     </row>
     <row r="141">
@@ -4932,26 +4932,26 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2.01</v>
+        <v>15.9</v>
       </c>
       <c r="D141" t="n">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44227.32197916666</v>
+        <v>44219.38112268518</v>
       </c>
       <c r="H141" t="n">
-        <v>20.1</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142">
@@ -4964,26 +4964,26 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>9.4</v>
+        <v>38.31</v>
       </c>
       <c r="D142" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Sortie à vélo le soir</t>
+          <t>Zwift - 10-12wk FTP Builder Week 7 Day 3</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44226.7087962963</v>
+        <v>44218.74016203704</v>
       </c>
       <c r="H142" t="n">
-        <v>18.8</v>
+        <v>76.62</v>
       </c>
     </row>
     <row r="143">
@@ -4996,10 +4996,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5.22</v>
+        <v>7.26</v>
       </c>
       <c r="D143" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5008,14 +5008,14 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sous la flotte</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44226.62849537037</v>
+        <v>44218.66010416668</v>
       </c>
       <c r="H143" t="n">
-        <v>26.1</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="144">
@@ -5024,14 +5024,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11.24</v>
+        <v>1.67</v>
       </c>
       <c r="D144" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5040,14 +5040,14 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Afternoon Ride</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44226.61844907407</v>
+        <v>44216.46258101852</v>
       </c>
       <c r="H144" t="n">
-        <v>22.48</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="145">
@@ -5056,14 +5056,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>25.62</v>
+        <v>6.29</v>
       </c>
       <c r="D145" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5072,14 +5072,14 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Velo-conso</t>
+          <t>Même si tu te perds (respire)</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44226.56037037037</v>
+        <v>44216.44635416667</v>
       </c>
       <c r="H145" t="n">
-        <v>51.24</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="146">
@@ -5088,30 +5088,30 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>27.95</v>
+        <v>7.34</v>
       </c>
       <c r="D146" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
+          <t>Quand rien n'est facile (respire)</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44226.37979166668</v>
+        <v>44215.47685185185</v>
       </c>
       <c r="H146" t="n">
-        <v>55.9</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="147">
@@ -5124,26 +5124,26 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>8.5</v>
+        <v>4.55</v>
       </c>
       <c r="D147" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Course à pied de nuit</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44226.37561342592</v>
+        <v>44215.23921296297</v>
       </c>
       <c r="H147" t="n">
-        <v>85</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="148">
@@ -5152,30 +5152,30 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5.01</v>
+        <v>5.46</v>
       </c>
       <c r="D148" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44226.26634259259</v>
+        <v>44214.42790509259</v>
       </c>
       <c r="H148" t="n">
-        <v>50.09999999999999</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="149">
@@ -5184,30 +5184,30 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2.25</v>
+        <v>17.13</v>
       </c>
       <c r="D149" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Courir après l'heure</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44225.60737268518</v>
+        <v>44213.67655092593</v>
       </c>
       <c r="H149" t="n">
-        <v>11.25</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="150">
@@ -5216,30 +5216,30 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.37</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Morning Hike</t>
+          <t>Sortie solitaire</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44225.34206018518</v>
+        <v>44213.58501157408</v>
       </c>
       <c r="H150" t="n">
-        <v>6.850000000000001</v>
+        <v>129.42</v>
       </c>
     </row>
     <row r="151">
@@ -5252,26 +5252,26 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.34</v>
+        <v>8.24</v>
       </c>
       <c r="D151" t="n">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Morning Hike</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44225.32385416667</v>
+        <v>44213.56055555555</v>
       </c>
       <c r="H151" t="n">
-        <v>6.7</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="152">
@@ -5280,30 +5280,30 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>24.66</v>
+        <v>9.83</v>
       </c>
       <c r="D152" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 8 Day 3</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>44223.87483796296</v>
+        <v>44213.51118055556</v>
       </c>
       <c r="H152" t="n">
-        <v>49.32</v>
+        <v>49.15</v>
       </c>
     </row>
     <row r="153">
@@ -5312,30 +5312,30 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>41.82</v>
+        <v>2.82</v>
       </c>
       <c r="D153" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 8 Day 4</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>44222.87342592593</v>
+        <v>44213.45940972222</v>
       </c>
       <c r="H153" t="n">
-        <v>83.64</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="154">
@@ -5344,30 +5344,30 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>11.72</v>
+        <v>1.46</v>
       </c>
       <c r="D154" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bonne bouillasse 😁</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>44222.67177083333</v>
+        <v>44213.42925925926</v>
       </c>
       <c r="H154" t="n">
-        <v>117.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="155">
@@ -5376,30 +5376,30 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.33</v>
+        <v>3.4</v>
       </c>
       <c r="D155" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44222.63873842593</v>
+        <v>44213.33986111111</v>
       </c>
       <c r="H155" t="n">
-        <v>6.65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.42</v>
+        <v>3.42</v>
       </c>
       <c r="D156" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5424,14 +5424,14 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Bread run</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>44222.25640046296</v>
+        <v>44213.31975694445</v>
       </c>
       <c r="H156" t="n">
-        <v>14.2</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="157">
@@ -5440,30 +5440,30 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2.66</v>
+        <v>6.01</v>
       </c>
       <c r="D157" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1st lap with Raïkô</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>44222.23939814815</v>
+        <v>44212.58018518519</v>
       </c>
       <c r="H157" t="n">
-        <v>26.6</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="158">
@@ -5472,30 +5472,30 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>8.01</v>
+        <v>6.24</v>
       </c>
       <c r="D158" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>44220.59336805555</v>
+        <v>44212.25228009259</v>
       </c>
       <c r="H158" t="n">
-        <v>40.05</v>
+        <v>62.40000000000001</v>
       </c>
     </row>
     <row r="159">
@@ -5504,30 +5504,30 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4.33</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>T'as le souffle court (respire)</t>
         </is>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44220.6040162037</v>
+        <v>44211.45436342592</v>
       </c>
       <c r="H159" t="n">
-        <v>21.65</v>
+        <v>86.19999999999999</v>
       </c>
     </row>
     <row r="160">
@@ -5536,30 +5536,30 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>80.28</v>
+        <v>2.83</v>
       </c>
       <c r="D160" t="n">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>VCMB 107 GR2</t>
+          <t>Course à pied l'après-midi</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44220.3353587963</v>
+        <v>44209.69403935185</v>
       </c>
       <c r="H160" t="n">
-        <v>160.56</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="161">
@@ -5572,26 +5572,26 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2.05</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Le corps engourdi, toujours endormi, miroir, salle de bain</t>
         </is>
       </c>
       <c r="G161" s="2" t="n">
-        <v>44220.32298611111</v>
+        <v>44209.45825231481</v>
       </c>
       <c r="H161" t="n">
-        <v>20.5</v>
+        <v>99.60000000000001</v>
       </c>
     </row>
     <row r="162">
@@ -5600,30 +5600,30 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>8.109999999999999</v>
+        <v>16.35</v>
       </c>
       <c r="D162" t="n">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Sortie à vélo l'après-midi</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>44219.60003472222</v>
+        <v>44207.60842592592</v>
       </c>
       <c r="H162" t="n">
-        <v>40.55</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="163">
@@ -5632,30 +5632,30 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>15.9</v>
+        <v>16.23</v>
       </c>
       <c r="D163" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Sortie à vélo matinale</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44219.38112268518</v>
+        <v>44207.26508101852</v>
       </c>
       <c r="H163" t="n">
-        <v>159</v>
+        <v>32.46</v>
       </c>
     </row>
     <row r="164">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>38.31</v>
+        <v>5.07</v>
       </c>
       <c r="D164" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5680,14 +5680,14 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 7 Day 3</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44218.74016203704</v>
+        <v>44243.52668981482</v>
       </c>
       <c r="H164" t="n">
-        <v>76.62</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="165">
@@ -5700,26 +5700,26 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>7.26</v>
+        <v>1.94</v>
       </c>
       <c r="D165" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
-        <v>44218.66010416668</v>
+        <v>44243.50453703704</v>
       </c>
       <c r="H165" t="n">
-        <v>36.3</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="166">
@@ -5728,30 +5728,30 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.67</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
-        <v>44216.46258101852</v>
+        <v>44243.44688657407</v>
       </c>
       <c r="H166" t="n">
-        <v>8.35</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="167">
@@ -5760,30 +5760,30 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6.29</v>
+        <v>4.18</v>
       </c>
       <c r="D167" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Même si tu te perds (respire)</t>
+          <t>Vélo matinale</t>
         </is>
       </c>
       <c r="G167" s="2" t="n">
-        <v>44216.44635416667</v>
+        <v>44243.39987268519</v>
       </c>
       <c r="H167" t="n">
-        <v>62.9</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="168">
@@ -5792,30 +5792,30 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>7.34</v>
+        <v>2.73</v>
       </c>
       <c r="D168" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Quand rien n'est facile (respire)</t>
+          <t>Fort des rousses</t>
         </is>
       </c>
       <c r="G168" s="2" t="n">
-        <v>44215.47685185185</v>
+        <v>44243.38622685185</v>
       </c>
       <c r="H168" t="n">
-        <v>73.40000000000001</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="169">
@@ -5824,30 +5824,30 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4.55</v>
+        <v>2.01</v>
       </c>
       <c r="D169" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44215.23921296297</v>
+        <v>44242.68881944445</v>
       </c>
       <c r="H169" t="n">
-        <v>45.5</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="170">
@@ -5860,26 +5860,26 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5.46</v>
+        <v>2.99</v>
       </c>
       <c r="D170" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Marche en normandie</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44214.42790509259</v>
+        <v>44242.643125</v>
       </c>
       <c r="H170" t="n">
-        <v>27.3</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="171">
@@ -5888,30 +5888,30 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>17.13</v>
+        <v>4.81</v>
       </c>
       <c r="D171" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Courir après l'heure</t>
+          <t>ballade dans le froid 🥶</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44213.67655092593</v>
+        <v>44240.64438657407</v>
       </c>
       <c r="H171" t="n">
-        <v>34.26</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="172">
@@ -5920,30 +5920,30 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>64.70999999999999</v>
+        <v>7.77</v>
       </c>
       <c r="D172" t="n">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Sortie solitaire</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44213.58501157408</v>
+        <v>44240.51672453704</v>
       </c>
       <c r="H172" t="n">
-        <v>129.42</v>
+        <v>38.84999999999999</v>
       </c>
     </row>
     <row r="173">
@@ -5956,26 +5956,26 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>8.24</v>
+        <v>3.93</v>
       </c>
       <c r="D173" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Ça fait frais ... avec les copines et les enfants</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44213.56055555555</v>
+        <v>44237.67486111111</v>
       </c>
       <c r="H173" t="n">
-        <v>41.2</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="174">
@@ -5988,26 +5988,26 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.87</v>
+        <v>2.62</v>
       </c>
       <c r="D174" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44213.59319444445</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H174" t="n">
-        <v>9.350000000000001</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="175">
@@ -6020,26 +6020,26 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>9.83</v>
+        <v>5.72</v>
       </c>
       <c r="D175" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44213.51118055556</v>
+        <v>44234.3703587963</v>
       </c>
       <c r="H175" t="n">
-        <v>49.15</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="176">
@@ -6052,26 +6052,26 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2.82</v>
+        <v>5.22</v>
       </c>
       <c r="D176" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44213.45940972222</v>
+        <v>44233.67482638889</v>
       </c>
       <c r="H176" t="n">
-        <v>14.1</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="177">
@@ -6084,14 +6084,14 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="D177" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44213.42925925926</v>
+        <v>44233.4447337963</v>
       </c>
       <c r="H177" t="n">
-        <v>7.3</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="178">
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3.4</v>
+        <v>6.31</v>
       </c>
       <c r="D178" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6132,10 +6132,10 @@
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44213.33986111111</v>
+        <v>44233.25414351852</v>
       </c>
       <c r="H178" t="n">
-        <v>34</v>
+        <v>63.09999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -6144,30 +6144,30 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3.42</v>
+        <v>6.01</v>
       </c>
       <c r="D179" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44213.31975694445</v>
+        <v>44232.66780092593</v>
       </c>
       <c r="H179" t="n">
-        <v>34.2</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="180">
@@ -6180,26 +6180,26 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6.01</v>
+        <v>2.86</v>
       </c>
       <c r="D180" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44212.58018518519</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H180" t="n">
-        <v>30.05</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="181">
@@ -6208,30 +6208,30 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6.24</v>
+        <v>4.99</v>
       </c>
       <c r="D181" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Que de la route, on va plus loin</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44212.25228009259</v>
+        <v>44232.40537037037</v>
       </c>
       <c r="H181" t="n">
-        <v>62.40000000000001</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="182">
@@ -6240,30 +6240,30 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>8.619999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="D182" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>T'as le souffle court (respire)</t>
+          <t>Promenons nous dans les bois ...</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44211.45436342592</v>
+        <v>44231.4877662037</v>
       </c>
       <c r="H182" t="n">
-        <v>86.19999999999999</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="183">
@@ -6272,30 +6272,30 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2.83</v>
+        <v>5.03</v>
       </c>
       <c r="D183" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Course à pied l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44209.69403935185</v>
+        <v>44231.3628587963</v>
       </c>
       <c r="H183" t="n">
-        <v>28.3</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="184">
@@ -6304,30 +6304,30 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>9.960000000000001</v>
+        <v>2.87</v>
       </c>
       <c r="D184" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Le corps engourdi, toujours endormi, miroir, salle de bain</t>
+          <t>Découverte de Ploumanac'h</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44209.45825231481</v>
+        <v>44228.64439814815</v>
       </c>
       <c r="H184" t="n">
-        <v>99.60000000000001</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="185">
@@ -6336,30 +6336,30 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>16.35</v>
+        <v>16.49</v>
       </c>
       <c r="D185" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Sortie à vélo l'après-midi</t>
+          <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44207.60842592592</v>
+        <v>44227.42353009259</v>
       </c>
       <c r="H185" t="n">
-        <v>32.7</v>
+        <v>164.9</v>
       </c>
     </row>
     <row r="186">
@@ -6368,14 +6368,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>16.23</v>
+        <v>2.01</v>
       </c>
       <c r="D186" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6384,19 +6384,19 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Sortie à vélo matinale</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44207.26508101852</v>
+        <v>44227.32197916666</v>
       </c>
       <c r="H186" t="n">
-        <v>32.46</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6404,63 +6404,63 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2.01</v>
+        <v>5.22</v>
       </c>
       <c r="D187" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Sous la flotte</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44242.68881944445</v>
+        <v>44226.62849537037</v>
       </c>
       <c r="H187" t="n">
-        <v>10.05</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2.99</v>
+        <v>5.01</v>
       </c>
       <c r="D188" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Marche en normandie</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44242.643125</v>
+        <v>44226.26634259259</v>
       </c>
       <c r="H188" t="n">
-        <v>14.95</v>
+        <v>50.09999999999999</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6468,1690 +6468,26 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>6.57</v>
+        <v>1.37</v>
       </c>
       <c r="D189" t="n">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Activité dans l'après-midi</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
-        <v>44242.57248842593</v>
+        <v>44225.34206018518</v>
       </c>
       <c r="H189" t="n">
-        <v>32.85</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D190" t="n">
-        <v>21</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Lunch Walk</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="n">
-        <v>44242.49038194444</v>
-      </c>
-      <c r="H190" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D191" t="n">
-        <v>32</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Alain Seguy</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Marche le midi</t>
-        </is>
-      </c>
-      <c r="G191" s="2" t="n">
-        <v>44242.42783564814</v>
-      </c>
-      <c r="H191" t="n">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
-        <v>10</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>44242.25395833333</v>
-      </c>
-      <c r="H192" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>6</v>
-      </c>
-      <c r="D193" t="n">
-        <v>49</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Christophe Dehillotte</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Marche dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="n">
-        <v>44241.65402777777</v>
-      </c>
-      <c r="H193" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>3</v>
-      </c>
-      <c r="D194" t="n">
-        <v>18</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Course à pied dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="n">
-        <v>44240.68465277777</v>
-      </c>
-      <c r="H194" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="D195" t="n">
-        <v>64</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>virginy pilloud</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>ballade dans le froid 🥶</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="n">
-        <v>44240.64438657407</v>
-      </c>
-      <c r="H195" t="n">
-        <v>24.05</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="D196" t="n">
-        <v>66</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Christophe Dehillotte</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Marche dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>44240.51672453704</v>
-      </c>
-      <c r="H196" t="n">
-        <v>38.84999999999999</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D197" t="n">
-        <v>31</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Cours sur parcours compact de golf</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="n">
-        <v>44240.43086805556</v>
-      </c>
-      <c r="H197" t="n">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D198" t="n">
-        <v>54</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Cathy BOGNON</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Marche le midi</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="n">
-        <v>44240.43643518518</v>
-      </c>
-      <c r="H198" t="n">
-        <v>20.35</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="n">
-        <v>44239.75694444445</v>
-      </c>
-      <c r="H199" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D200" t="n">
-        <v>45</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Promenade enneigée</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>44239.58208333333</v>
-      </c>
-      <c r="H200" t="n">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>25.91</v>
-      </c>
-      <c r="D201" t="n">
-        <v>50</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>20 min à FTP puis calme</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="n">
-        <v>44238.85311342592</v>
-      </c>
-      <c r="H201" t="n">
-        <v>51.82</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D202" t="n">
-        <v>54</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Cathy BOGNON</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Ça fait frais ... avec les copines et les enfants</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="n">
-        <v>44237.67486111111</v>
-      </c>
-      <c r="H202" t="n">
-        <v>19.65</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" t="n">
-        <v>10</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="n">
-        <v>44237.70802083334</v>
-      </c>
-      <c r="H203" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="n">
-        <v>44235.72916666666</v>
-      </c>
-      <c r="H204" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D205" t="n">
-        <v>35</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Marche le midi</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="n">
-        <v>44235.4794675926</v>
-      </c>
-      <c r="H205" t="n">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>10</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>44235.27083333334</v>
-      </c>
-      <c r="H206" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" t="n">
-        <v>45</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>jean-charles roussel</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Raffermissement ....abdominal</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="n">
-        <v>44234.70833333334</v>
-      </c>
-      <c r="H207" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D208" t="n">
-        <v>11</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Elodie Lefèvre</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Velo elliptique</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="n">
-        <v>44234.4412962963</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D209" t="n">
-        <v>46</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Christophe Dehillotte</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Marche matinale</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="n">
-        <v>44234.3703587963</v>
-      </c>
-      <c r="H209" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="D210" t="n">
-        <v>42</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Christophe Dehillotte</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Marche dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="n">
-        <v>44233.67482638889</v>
-      </c>
-      <c r="H210" t="n">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D211" t="n">
-        <v>23</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Alain Seguy</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Marche le midi</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="n">
-        <v>44233.4447337963</v>
-      </c>
-      <c r="H211" t="n">
         <v>6.850000000000001</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>4</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="n">
-        <v>44233.77083333334</v>
-      </c>
-      <c r="H212" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D213" t="n">
-        <v>38</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="n">
-        <v>44233.25414351852</v>
-      </c>
-      <c r="H213" t="n">
-        <v>63.09999999999999</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D214" t="n">
-        <v>66</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Cathy BOGNON</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Marche l'après-midi</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="n">
-        <v>44232.66780092593</v>
-      </c>
-      <c r="H214" t="n">
-        <v>30.05</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="D215" t="n">
-        <v>47</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="n">
-        <v>44232.63219907408</v>
-      </c>
-      <c r="H215" t="n">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D216" t="n">
-        <v>12</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Afternoon Hike</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="n">
-        <v>44232.63561342593</v>
-      </c>
-      <c r="H216" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="D217" t="n">
-        <v>17</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Lunch Ride</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="n">
-        <v>44232.47916666666</v>
-      </c>
-      <c r="H217" t="n">
-        <v>11.18</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="D218" t="n">
-        <v>20</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Bof</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="n">
-        <v>44232.47024305556</v>
-      </c>
-      <c r="H218" t="n">
-        <v>7.199999999999999</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D219" t="n">
-        <v>73</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Que de la route, on va plus loin</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="n">
-        <v>44232.40537037037</v>
-      </c>
-      <c r="H219" t="n">
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
-        <v>4</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="n">
-        <v>44232.10069444445</v>
-      </c>
-      <c r="H220" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="D221" t="n">
-        <v>40</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Promenons nous dans les bois ...</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="n">
-        <v>44231.4877662037</v>
-      </c>
-      <c r="H221" t="n">
-        <v>14.95</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="D222" t="n">
-        <v>50</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Cathy BOGNON</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Marche matinale</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="n">
-        <v>44231.3628587963</v>
-      </c>
-      <c r="H222" t="n">
-        <v>25.15</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D223" t="n">
-        <v>18</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="n">
-        <v>44231.24442129629</v>
-      </c>
-      <c r="H223" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D224" t="n">
-        <v>30</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Afternoon Hike</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="n">
-        <v>44230.63672453703</v>
-      </c>
-      <c r="H224" t="n">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="D225" t="n">
-        <v>48</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Découverte de Ploumanac'h</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="n">
-        <v>44228.64439814815</v>
-      </c>
-      <c r="H225" t="n">
-        <v>14.35</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D226" t="n">
-        <v>86</v>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Thomas Mrt</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Passage de relai et baptême de la boue</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="n">
-        <v>44227.42353009259</v>
-      </c>
-      <c r="H226" t="n">
-        <v>164.9</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>78.02</v>
-      </c>
-      <c r="D227" t="n">
-        <v>179</v>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>VCMB 113 GR2</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="n">
-        <v>44227.33418981481</v>
-      </c>
-      <c r="H227" t="n">
-        <v>156.04</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D228" t="n">
-        <v>15</v>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="n">
-        <v>44227.32197916666</v>
-      </c>
-      <c r="H228" t="n">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="D229" t="n">
-        <v>65</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sous la flotte</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="n">
-        <v>44226.62849537037</v>
-      </c>
-      <c r="H229" t="n">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>27.95</v>
-      </c>
-      <c r="D230" t="n">
-        <v>62</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="n">
-        <v>44226.37979166667</v>
-      </c>
-      <c r="H230" t="n">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>56</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Course à pied de nuit</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="n">
-        <v>44226.37561342592</v>
-      </c>
-      <c r="H231" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D232" t="n">
-        <v>29</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="n">
-        <v>44226.26634259259</v>
-      </c>
-      <c r="H232" t="n">
-        <v>50.09999999999999</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D233" t="n">
-        <v>12</v>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Morning Hike</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="n">
-        <v>44225.34206018518</v>
-      </c>
-      <c r="H233" t="n">
-        <v>6.850000000000001</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D234" t="n">
-        <v>78</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Marche dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="n">
-        <v>44218.66010416667</v>
-      </c>
-      <c r="H234" t="n">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D235" t="n">
-        <v>25</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="n">
-        <v>44215.23921296297</v>
-      </c>
-      <c r="H235" t="n">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>64.70999999999999</v>
-      </c>
-      <c r="D236" t="n">
-        <v>156</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sortie solitaire</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="n">
-        <v>44213.58501157408</v>
-      </c>
-      <c r="H236" t="n">
-        <v>129.42</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D237" t="n">
-        <v>17</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Afternoon Hike</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="n">
-        <v>44213.59319444445</v>
-      </c>
-      <c r="H237" t="n">
-        <v>9.350000000000001</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="D238" t="n">
-        <v>23</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="n">
-        <v>44213.31975694445</v>
-      </c>
-      <c r="H238" t="n">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D239" t="n">
-        <v>53</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Afternoon Hike</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="n">
-        <v>44212.58018518519</v>
-      </c>
-      <c r="H239" t="n">
-        <v>30.05</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="D240" t="n">
-        <v>35</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="n">
-        <v>44212.25228009259</v>
-      </c>
-      <c r="H240" t="n">
-        <v>62.40000000000001</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="D241" t="n">
-        <v>42</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Thomas Mrt</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>T'as le souffle court (respire)</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="n">
-        <v>44211.45436342592</v>
-      </c>
-      <c r="H241" t="n">
-        <v>86.19999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5828,26 +5828,26 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2.01</v>
+        <v>7.23</v>
       </c>
       <c r="D169" t="n">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44242.68881944445</v>
+        <v>44243.56285879629</v>
       </c>
       <c r="H169" t="n">
-        <v>10.05</v>
+        <v>36.15000000000001</v>
       </c>
     </row>
     <row r="170">
@@ -5856,30 +5856,30 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="D170" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Marche en normandie</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44242.643125</v>
+        <v>44243.66832175926</v>
       </c>
       <c r="H170" t="n">
-        <v>14.95</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="171">
@@ -5892,26 +5892,26 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>4.81</v>
+        <v>7.23</v>
       </c>
       <c r="D171" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>ballade dans le froid 🥶</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44240.64438657407</v>
+        <v>44243.56285879629</v>
       </c>
       <c r="H171" t="n">
-        <v>24.05</v>
+        <v>36.15000000000001</v>
       </c>
     </row>
     <row r="172">
@@ -5924,26 +5924,26 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>7.77</v>
+        <v>2.01</v>
       </c>
       <c r="D172" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44240.51672453704</v>
+        <v>44242.68881944445</v>
       </c>
       <c r="H172" t="n">
-        <v>38.84999999999999</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="173">
@@ -5956,26 +5956,26 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3.93</v>
+        <v>2.99</v>
       </c>
       <c r="D173" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Ça fait frais ... avec les copines et les enfants</t>
+          <t>Marche en normandie</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44237.67486111111</v>
+        <v>44242.643125</v>
       </c>
       <c r="H173" t="n">
-        <v>19.65</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="174">
@@ -5988,26 +5988,26 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2.62</v>
+        <v>4.81</v>
       </c>
       <c r="D174" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>ballade dans le froid 🥶</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44240.64438657407</v>
       </c>
       <c r="H174" t="n">
-        <v>13.1</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="175">
@@ -6020,10 +6020,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>5.72</v>
+        <v>7.77</v>
       </c>
       <c r="D175" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6032,14 +6032,14 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44234.3703587963</v>
+        <v>44240.51672453704</v>
       </c>
       <c r="H175" t="n">
-        <v>28.6</v>
+        <v>38.84999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -6052,26 +6052,26 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>5.22</v>
+        <v>3.93</v>
       </c>
       <c r="D176" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Ça fait frais ... avec les copines et les enfants</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44233.67482638889</v>
+        <v>44237.67486111111</v>
       </c>
       <c r="H176" t="n">
-        <v>26.1</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="177">
@@ -6084,14 +6084,14 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="D177" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44233.4447337963</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H177" t="n">
-        <v>6.850000000000001</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="178">
@@ -6112,30 +6112,30 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6.31</v>
+        <v>5.72</v>
       </c>
       <c r="D178" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44233.25414351852</v>
+        <v>44234.3703587963</v>
       </c>
       <c r="H178" t="n">
-        <v>63.09999999999999</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="179">
@@ -6148,26 +6148,26 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6.01</v>
+        <v>5.22</v>
       </c>
       <c r="D179" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44232.66780092593</v>
+        <v>44233.67482638889</v>
       </c>
       <c r="H179" t="n">
-        <v>30.05</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="180">
@@ -6180,26 +6180,26 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2.86</v>
+        <v>1.37</v>
       </c>
       <c r="D180" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44233.4447337963</v>
       </c>
       <c r="H180" t="n">
-        <v>14.3</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="181">
@@ -6208,30 +6208,30 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4.99</v>
+        <v>6.31</v>
       </c>
       <c r="D181" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Que de la route, on va plus loin</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44232.40537037037</v>
+        <v>44233.25414351852</v>
       </c>
       <c r="H181" t="n">
-        <v>24.95</v>
+        <v>63.09999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -6244,26 +6244,26 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2.99</v>
+        <v>6.01</v>
       </c>
       <c r="D182" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Promenons nous dans les bois ...</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44231.4877662037</v>
+        <v>44232.66780092593</v>
       </c>
       <c r="H182" t="n">
-        <v>14.95</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="183">
@@ -6276,26 +6276,26 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5.03</v>
+        <v>2.86</v>
       </c>
       <c r="D183" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44231.3628587963</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H183" t="n">
-        <v>25.15</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="184">
@@ -6308,10 +6308,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2.87</v>
+        <v>4.99</v>
       </c>
       <c r="D184" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -6320,14 +6320,14 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Découverte de Ploumanac'h</t>
+          <t>Que de la route, on va plus loin</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44228.64439814815</v>
+        <v>44232.40537037037</v>
       </c>
       <c r="H184" t="n">
-        <v>14.35</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="185">
@@ -6336,30 +6336,30 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>16.49</v>
+        <v>2.99</v>
       </c>
       <c r="D185" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Passage de relai et baptême de la boue</t>
+          <t>Promenons nous dans les bois ...</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44227.42353009259</v>
+        <v>44231.4877662037</v>
       </c>
       <c r="H185" t="n">
-        <v>164.9</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="186">
@@ -6368,30 +6368,30 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2.01</v>
+        <v>5.03</v>
       </c>
       <c r="D186" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44227.32197916666</v>
+        <v>44231.3628587963</v>
       </c>
       <c r="H186" t="n">
-        <v>20.1</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="187">
@@ -6404,10 +6404,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>5.22</v>
+        <v>2.87</v>
       </c>
       <c r="D187" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6416,14 +6416,14 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Sous la flotte</t>
+          <t>Découverte de Ploumanac'h</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44226.62849537037</v>
+        <v>44228.64439814815</v>
       </c>
       <c r="H187" t="n">
-        <v>26.1</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="188">
@@ -6436,26 +6436,26 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5.01</v>
+        <v>16.49</v>
       </c>
       <c r="D188" t="n">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44226.26634259259</v>
+        <v>44227.42353009259</v>
       </c>
       <c r="H188" t="n">
-        <v>50.09999999999999</v>
+        <v>164.9</v>
       </c>
     </row>
     <row r="189">
@@ -6464,29 +6464,125 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C189" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>44227.32197916666</v>
+      </c>
+      <c r="H189" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="D190" t="n">
+        <v>65</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Colette VAUCHEL</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sous la flotte</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>44226.62849537037</v>
+      </c>
+      <c r="H190" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D191" t="n">
+        <v>29</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>44226.26634259259</v>
+      </c>
+      <c r="H191" t="n">
+        <v>50.09999999999999</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
         <v>1.37</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D192" t="n">
         <v>12</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>Morning Hike</t>
         </is>
       </c>
-      <c r="G189" s="2" t="n">
+      <c r="G192" s="2" t="n">
         <v>44225.34206018518</v>
       </c>
-      <c r="H189" t="n">
+      <c r="H192" t="n">
         <v>6.850000000000001</v>
       </c>
     </row>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5888,30 +5888,30 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>7.23</v>
+        <v>2.05</v>
       </c>
       <c r="D171" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Course à pied l'après-midi</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44243.56285879629</v>
+        <v>44243.67107638889</v>
       </c>
       <c r="H171" t="n">
-        <v>36.15000000000001</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="172">
@@ -5924,26 +5924,26 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Promenade digestive en bord de Chers</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44242.68881944445</v>
+        <v>44243.52417824074</v>
       </c>
       <c r="H172" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5952,30 +5952,30 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2.99</v>
+        <v>4.18</v>
       </c>
       <c r="D173" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Marche en normandie</t>
+          <t>Vélo matinale</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44242.643125</v>
+        <v>44243.39987268519</v>
       </c>
       <c r="H173" t="n">
-        <v>14.95</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="174">
@@ -5984,30 +5984,30 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>4.81</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Satya Wiplier</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ballade dans le froid 🥶</t>
+          <t>Abdos du matin</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44240.64438657407</v>
+        <v>44243.27083333334</v>
       </c>
       <c r="H174" t="n">
-        <v>24.05</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -6020,26 +6020,26 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7.77</v>
+        <v>6.57</v>
       </c>
       <c r="D175" t="n">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Activité dans l'après-midi</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44240.51672453704</v>
+        <v>44242.57248842593</v>
       </c>
       <c r="H175" t="n">
-        <v>38.84999999999999</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="176">
@@ -6052,26 +6052,26 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.93</v>
+        <v>1.7</v>
       </c>
       <c r="D176" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Ça fait frais ... avec les copines et les enfants</t>
+          <t>Lunch Walk</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44237.67486111111</v>
+        <v>44242.49038194444</v>
       </c>
       <c r="H176" t="n">
-        <v>19.65</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="177">
@@ -6084,14 +6084,14 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2.62</v>
+        <v>1.53</v>
       </c>
       <c r="D177" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44242.42783564814</v>
       </c>
       <c r="H177" t="n">
-        <v>13.1</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="178">
@@ -6112,30 +6112,30 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5.72</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44234.3703587963</v>
+        <v>44242.25395833333</v>
       </c>
       <c r="H178" t="n">
-        <v>28.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -6148,10 +6148,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5.22</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44233.67482638889</v>
+        <v>44241.65402777777</v>
       </c>
       <c r="H179" t="n">
-        <v>26.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180">
@@ -6180,26 +6180,26 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Promenade</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44233.4447337963</v>
+        <v>44241.5121875</v>
       </c>
       <c r="H180" t="n">
-        <v>6.850000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6208,30 +6208,30 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6.31</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44233.25414351852</v>
+        <v>44241.27222222222</v>
       </c>
       <c r="H181" t="n">
-        <v>63.09999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -6240,30 +6240,30 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6.01</v>
+        <v>3</v>
       </c>
       <c r="D182" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44232.66780092593</v>
+        <v>44240.68465277777</v>
       </c>
       <c r="H182" t="n">
-        <v>30.05</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183">
@@ -6276,26 +6276,26 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="D183" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Cours sur parcours compact de golf</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44240.43086805556</v>
       </c>
       <c r="H183" t="n">
-        <v>14.3</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="184">
@@ -6308,26 +6308,26 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4.99</v>
+        <v>4.07</v>
       </c>
       <c r="D184" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Que de la route, on va plus loin</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44232.40537037037</v>
+        <v>44240.43643518518</v>
       </c>
       <c r="H184" t="n">
-        <v>24.95</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="185">
@@ -6336,30 +6336,30 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Promenons nous dans les bois ...</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44231.4877662037</v>
+        <v>44240.25</v>
       </c>
       <c r="H185" t="n">
-        <v>14.95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -6368,30 +6368,30 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44231.3628587963</v>
+        <v>44239.75694444445</v>
       </c>
       <c r="H186" t="n">
-        <v>25.15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
@@ -6404,26 +6404,26 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2.87</v>
+        <v>3.06</v>
       </c>
       <c r="D187" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Découverte de Ploumanac'h</t>
+          <t>Promenade enneigée</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44228.64439814815</v>
+        <v>44239.58208333333</v>
       </c>
       <c r="H187" t="n">
-        <v>14.35</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="188">
@@ -6432,30 +6432,30 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>16.49</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Passage de relai et baptême de la boue</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44227.42353009259</v>
+        <v>44239.22313657407</v>
       </c>
       <c r="H188" t="n">
-        <v>164.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -6464,30 +6464,30 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2.01</v>
+        <v>25.91</v>
       </c>
       <c r="D189" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>20 min à FTP puis calme</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
-        <v>44227.32197916666</v>
+        <v>44238.85311342592</v>
       </c>
       <c r="H189" t="n">
-        <v>20.1</v>
+        <v>51.82</v>
       </c>
     </row>
     <row r="190">
@@ -6496,30 +6496,30 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sous la flotte</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G190" s="2" t="n">
-        <v>44226.62849537037</v>
+        <v>44238.73611111111</v>
       </c>
       <c r="H190" t="n">
-        <v>26.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -6528,30 +6528,30 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G191" s="2" t="n">
-        <v>44226.26634259259</v>
+        <v>44238.25858796296</v>
       </c>
       <c r="H191" t="n">
-        <v>50.09999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -6560,30 +6560,1086 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
+        <v>10</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Activité matinale</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>44237.70802083334</v>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>40</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sous la neige...</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>44237.68630787037</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Loïc Le Gal</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Tabata</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>44235.72916666666</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D195" t="n">
+        <v>35</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Aurore Meresse</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Marche le midi</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>44235.4794675926</v>
+      </c>
+      <c r="H195" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>10</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Activité matinale</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>44235.27083333334</v>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>45</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>jean-charles roussel</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Raffermissement ....abdominal</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>44234.70833333334</v>
+      </c>
+      <c r="H197" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Elodie Lefèvre</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Velo elliptique</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>44234.4412962963</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D199" t="n">
+        <v>46</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Christophe Dehillotte</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Marche matinale</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>44234.3703587963</v>
+      </c>
+      <c r="H199" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>10</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Activité matinale</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>44234.28898148148</v>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Loïc Le Gal</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Tabata</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>44233.77083333334</v>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>10</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Activité matinale</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>44233.26210648148</v>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>20</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Marche de nuit</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>44232.85324074074</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Loïc Le Gal</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Tabata</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>44233.09722222222</v>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D205" t="n">
+        <v>47</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Aurore Meresse</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>44232.63219907408</v>
+      </c>
+      <c r="H205" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D206" t="n">
         <v>12</v>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Morning Hike</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>44225.34206018518</v>
-      </c>
-      <c r="H192" t="n">
-        <v>6.850000000000001</v>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Afternoon Hike</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>44232.63561342593</v>
+      </c>
+      <c r="H206" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D207" t="n">
+        <v>17</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Lunch Ride</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>44232.47916666666</v>
+      </c>
+      <c r="H207" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D208" t="n">
+        <v>20</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Colette VAUCHEL</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bof</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>44232.47024305556</v>
+      </c>
+      <c r="H208" t="n">
+        <v>7.199999999999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>10</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Activité matinale</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>44232.26736111111</v>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Loïc Le Gal</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Tabata</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>44232.10069444445</v>
+      </c>
+      <c r="H210" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>30</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Marche dans l'après-midi</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="n">
+        <v>44231.67361111111</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>20</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>44231.4375</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D213" t="n">
+        <v>50</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Cathy BOGNON</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Marche matinale</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>44231.3628587963</v>
+      </c>
+      <c r="H213" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Cardio</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>10</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Activité matinale</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>44231.34027777778</v>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D215" t="n">
+        <v>18</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="n">
+        <v>44231.24442129629</v>
+      </c>
+      <c r="H215" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D216" t="n">
+        <v>30</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Afternoon Hike</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>44230.63672453703</v>
+      </c>
+      <c r="H216" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="D217" t="n">
+        <v>67</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Cathy BOGNON</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Marche l'après-midi</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>44227.63116898148</v>
+      </c>
+      <c r="H217" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D218" t="n">
+        <v>86</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Thomas Mrt</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Passage de relai et baptême de la boue</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>44227.42353009259</v>
+      </c>
+      <c r="H218" t="n">
+        <v>164.9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>78.02</v>
+      </c>
+      <c r="D219" t="n">
+        <v>179</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Sébastien Buczynski</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>VCMB 113 GR2</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>44227.33418981481</v>
+      </c>
+      <c r="H219" t="n">
+        <v>156.04</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="D220" t="n">
+        <v>62</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Sébastien Buczynski</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>44226.37979166667</v>
+      </c>
+      <c r="H220" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>56</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Aurore Meresse</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Course à pied de nuit</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>44226.37561342592</v>
+      </c>
+      <c r="H221" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="D222" t="n">
+        <v>78</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Colette VAUCHEL</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Marche dans l'après-midi</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>44218.66010416667</v>
+      </c>
+      <c r="H222" t="n">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D223" t="n">
+        <v>25</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>44215.23921296297</v>
+      </c>
+      <c r="H223" t="n">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="D224" t="n">
+        <v>156</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Sébastien Buczynski</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sortie solitaire</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>44213.58501157408</v>
+      </c>
+      <c r="H224" t="n">
+        <v>129.42</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D225" t="n">
+        <v>17</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Afternoon Hike</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>44213.59319444445</v>
+      </c>
+      <c r="H225" t="n">
+        <v>9.350000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5888,30 +5888,30 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2.05</v>
+        <v>2.62</v>
       </c>
       <c r="D171" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Course à pied l'après-midi</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44243.67107638889</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H171" t="n">
-        <v>20.5</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="172">
@@ -5924,26 +5924,26 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="D172" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Promenade digestive en bord de Chers</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44243.52417824074</v>
+        <v>44234.3703587963</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="173">
@@ -5952,30 +5952,30 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4.18</v>
+        <v>2.86</v>
       </c>
       <c r="D173" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Vélo matinale</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44243.39987268519</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H173" t="n">
-        <v>8.359999999999999</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="174">
@@ -5984,30 +5984,30 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="D174" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Satya Wiplier</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Abdos du matin</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44243.27083333334</v>
+        <v>44231.3628587963</v>
       </c>
       <c r="H174" t="n">
-        <v>10</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="175">
@@ -6016,1630 +6016,30 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>6.57</v>
+        <v>16.49</v>
       </c>
       <c r="D175" t="n">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Activité dans l'après-midi</t>
+          <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44242.57248842593</v>
+        <v>44227.42353009259</v>
       </c>
       <c r="H175" t="n">
-        <v>32.85</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>21</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Lunch Walk</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="n">
-        <v>44242.49038194444</v>
-      </c>
-      <c r="H176" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D177" t="n">
-        <v>32</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Alain Seguy</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Marche le midi</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="n">
-        <v>44242.42783564814</v>
-      </c>
-      <c r="H177" t="n">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>10</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="n">
-        <v>44242.25395833333</v>
-      </c>
-      <c r="H178" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>6</v>
-      </c>
-      <c r="D179" t="n">
-        <v>49</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Christophe Dehillotte</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Marche dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="n">
-        <v>44241.65402777777</v>
-      </c>
-      <c r="H179" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>20</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Promenade</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="n">
-        <v>44241.5121875</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>10</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="n">
-        <v>44241.27222222222</v>
-      </c>
-      <c r="H181" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>3</v>
-      </c>
-      <c r="D182" t="n">
-        <v>18</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Course à pied dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="n">
-        <v>44240.68465277777</v>
-      </c>
-      <c r="H182" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D183" t="n">
-        <v>31</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Cours sur parcours compact de golf</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="n">
-        <v>44240.43086805556</v>
-      </c>
-      <c r="H183" t="n">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D184" t="n">
-        <v>54</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Cathy BOGNON</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Marche le midi</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="n">
-        <v>44240.43643518518</v>
-      </c>
-      <c r="H184" t="n">
-        <v>20.35</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>10</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="n">
-        <v>44240.25</v>
-      </c>
-      <c r="H185" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>4</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="n">
-        <v>44239.75694444445</v>
-      </c>
-      <c r="H186" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D187" t="n">
-        <v>45</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Promenade enneigée</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="n">
-        <v>44239.58208333333</v>
-      </c>
-      <c r="H187" t="n">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>10</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="n">
-        <v>44239.22313657407</v>
-      </c>
-      <c r="H188" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>25.91</v>
-      </c>
-      <c r="D189" t="n">
-        <v>50</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>20 min à FTP puis calme</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="n">
-        <v>44238.85311342592</v>
-      </c>
-      <c r="H189" t="n">
-        <v>51.82</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="n">
-        <v>44238.73611111111</v>
-      </c>
-      <c r="H190" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
-        <v>10</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G191" s="2" t="n">
-        <v>44238.25858796296</v>
-      </c>
-      <c r="H191" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
-        <v>10</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>44237.70802083334</v>
-      </c>
-      <c r="H192" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" t="n">
-        <v>40</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sous la neige...</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="n">
-        <v>44237.68630787037</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
-        <v>4</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="n">
-        <v>44235.72916666666</v>
-      </c>
-      <c r="H194" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D195" t="n">
-        <v>35</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Marche le midi</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="n">
-        <v>44235.4794675926</v>
-      </c>
-      <c r="H195" t="n">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
-        <v>10</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>44235.27083333334</v>
-      </c>
-      <c r="H196" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>45</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>jean-charles roussel</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Raffermissement ....abdominal</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="n">
-        <v>44234.70833333334</v>
-      </c>
-      <c r="H197" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D198" t="n">
-        <v>11</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Elodie Lefèvre</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Velo elliptique</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="n">
-        <v>44234.4412962963</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D199" t="n">
-        <v>46</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Christophe Dehillotte</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Marche matinale</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="n">
-        <v>44234.3703587963</v>
-      </c>
-      <c r="H199" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" t="n">
-        <v>10</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>44234.28898148148</v>
-      </c>
-      <c r="H200" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="n">
-        <v>44233.77083333334</v>
-      </c>
-      <c r="H201" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" t="n">
-        <v>10</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="n">
-        <v>44233.26210648148</v>
-      </c>
-      <c r="H202" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" t="n">
-        <v>20</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Marche de nuit</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="n">
-        <v>44232.85324074074</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="n">
-        <v>44233.09722222222</v>
-      </c>
-      <c r="H204" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="D205" t="n">
-        <v>47</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="n">
-        <v>44232.63219907408</v>
-      </c>
-      <c r="H205" t="n">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D206" t="n">
-        <v>12</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Afternoon Hike</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>44232.63561342593</v>
-      </c>
-      <c r="H206" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="D207" t="n">
-        <v>17</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Lunch Ride</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="n">
-        <v>44232.47916666666</v>
-      </c>
-      <c r="H207" t="n">
-        <v>11.18</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="D208" t="n">
-        <v>20</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bof</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="n">
-        <v>44232.47024305556</v>
-      </c>
-      <c r="H208" t="n">
-        <v>7.199999999999999</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
-        <v>10</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="n">
-        <v>44232.26736111111</v>
-      </c>
-      <c r="H209" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>0</v>
-      </c>
-      <c r="D210" t="n">
-        <v>4</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Tabata</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="n">
-        <v>44232.10069444445</v>
-      </c>
-      <c r="H210" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>30</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Marche dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="n">
-        <v>44231.67361111111</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>20</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Marche</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="n">
-        <v>44231.4375</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="D213" t="n">
-        <v>50</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Cathy BOGNON</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Marche matinale</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="n">
-        <v>44231.3628587963</v>
-      </c>
-      <c r="H213" t="n">
-        <v>25.15</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Cardio</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
-        <v>10</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Activité matinale</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="n">
-        <v>44231.34027777778</v>
-      </c>
-      <c r="H214" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D215" t="n">
-        <v>18</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="n">
-        <v>44231.24442129629</v>
-      </c>
-      <c r="H215" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D216" t="n">
-        <v>30</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Afternoon Hike</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="n">
-        <v>44230.63672453703</v>
-      </c>
-      <c r="H216" t="n">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="D217" t="n">
-        <v>67</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Cathy BOGNON</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Marche l'après-midi</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="n">
-        <v>44227.63116898148</v>
-      </c>
-      <c r="H217" t="n">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D218" t="n">
-        <v>86</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Thomas Mrt</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Passage de relai et baptême de la boue</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="n">
-        <v>44227.42353009259</v>
-      </c>
-      <c r="H218" t="n">
         <v>164.9</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>78.02</v>
-      </c>
-      <c r="D219" t="n">
-        <v>179</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>VCMB 113 GR2</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="n">
-        <v>44227.33418981481</v>
-      </c>
-      <c r="H219" t="n">
-        <v>156.04</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>27.95</v>
-      </c>
-      <c r="D220" t="n">
-        <v>62</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="n">
-        <v>44226.37979166667</v>
-      </c>
-      <c r="H220" t="n">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="D221" t="n">
-        <v>56</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Course à pied de nuit</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="n">
-        <v>44226.37561342592</v>
-      </c>
-      <c r="H221" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D222" t="n">
-        <v>78</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Marche dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="n">
-        <v>44218.66010416667</v>
-      </c>
-      <c r="H222" t="n">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D223" t="n">
-        <v>25</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Course à pied matinale</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="n">
-        <v>44215.23921296297</v>
-      </c>
-      <c r="H223" t="n">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Ride</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>64.70999999999999</v>
-      </c>
-      <c r="D224" t="n">
-        <v>156</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sortie solitaire</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="n">
-        <v>44213.58501157408</v>
-      </c>
-      <c r="H224" t="n">
-        <v>129.42</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D225" t="n">
-        <v>17</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Afternoon Hike</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="n">
-        <v>44213.59319444445</v>
-      </c>
-      <c r="H225" t="n">
-        <v>9.350000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5888,30 +5888,30 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2.62</v>
+        <v>50.63</v>
       </c>
       <c r="D171" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>10-12wk FTP Builder Week 9 Day 2</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44243.82564814815</v>
       </c>
       <c r="H171" t="n">
-        <v>13.1</v>
+        <v>101.26</v>
       </c>
     </row>
     <row r="172">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5.72</v>
+        <v>10</v>
       </c>
       <c r="D172" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5936,14 +5936,14 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44234.3703587963</v>
+        <v>44243.78107638889</v>
       </c>
       <c r="H172" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
@@ -5952,30 +5952,30 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Cardio entre potes !</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44243.74561342593</v>
       </c>
       <c r="H173" t="n">
-        <v>14.3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174">
@@ -5984,30 +5984,30 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Sophie Rollin</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Evening Run</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44231.3628587963</v>
+        <v>44243.71755787037</v>
       </c>
       <c r="H174" t="n">
-        <v>25.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6016,29 +6016,253 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>15</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Julie Leger</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Vélo d'appart</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="n">
+        <v>44243.72920138889</v>
+      </c>
+      <c r="H175" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="D176" t="n">
+        <v>61</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>emmanuelle brouder</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Vélo dans le salon</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>44243.69334490741</v>
+      </c>
+      <c r="H176" t="n">
+        <v>41.84</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D177" t="n">
+        <v>84</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Cathy BOGNON</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Marche l'après-midi</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="n">
+        <v>44243.66508101852</v>
+      </c>
+      <c r="H177" t="n">
+        <v>36.55</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D178" t="n">
+        <v>35</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Aurore Meresse</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Marche le midi</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>44235.4794675926</v>
+      </c>
+      <c r="H178" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D179" t="n">
+        <v>46</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Christophe Dehillotte</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Marche matinale</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="n">
+        <v>44234.3703587963</v>
+      </c>
+      <c r="H179" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D180" t="n">
+        <v>47</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Aurore Meresse</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>44232.63219907408</v>
+      </c>
+      <c r="H180" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D181" t="n">
+        <v>50</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Cathy BOGNON</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Marche matinale</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>44231.3628587963</v>
+      </c>
+      <c r="H181" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
           <t>Run</t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="C182" t="n">
         <v>16.49</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D182" t="n">
         <v>86</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
-      <c r="G175" s="2" t="n">
+      <c r="G182" s="2" t="n">
         <v>44227.42353009259</v>
       </c>
-      <c r="H175" t="n">
+      <c r="H182" t="n">
         <v>164.9</v>
       </c>
     </row>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6112,14 +6112,14 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2.62</v>
+        <v>0.6</v>
       </c>
       <c r="D178" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6128,14 +6128,14 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>600m</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44244.51871527778</v>
       </c>
       <c r="H178" t="n">
-        <v>13.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -6144,30 +6144,30 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5.72</v>
+        <v>8.01</v>
       </c>
       <c r="D179" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Lunch Run with 🐶🐕🐶 (600m manquants 🤣)</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44234.3703587963</v>
+        <v>44244.46947916667</v>
       </c>
       <c r="H179" t="n">
-        <v>28.6</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -6176,30 +6176,30 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2.86</v>
+        <v>7.77</v>
       </c>
       <c r="D180" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44244.45858796296</v>
       </c>
       <c r="H180" t="n">
-        <v>14.3</v>
+        <v>77.69999999999999</v>
       </c>
     </row>
     <row r="181">
@@ -6212,14 +6212,14 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5.03</v>
+        <v>5.68</v>
       </c>
       <c r="D181" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6228,10 +6228,10 @@
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44231.3628587963</v>
+        <v>44244.40074074074</v>
       </c>
       <c r="H181" t="n">
-        <v>25.15</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="182">
@@ -6240,29 +6240,189 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D182" t="n">
+        <v>20</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Elodie Lefèvre</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Petite marche dans la campagne avec les enfants</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>44244.40833333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D183" t="n">
+        <v>35</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Aurore Meresse</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Marche le midi</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>44235.4794675926</v>
+      </c>
+      <c r="H183" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D184" t="n">
+        <v>46</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Christophe Dehillotte</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Marche matinale</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>44234.3703587963</v>
+      </c>
+      <c r="H184" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D185" t="n">
+        <v>47</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Aurore Meresse</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>44232.63219907408</v>
+      </c>
+      <c r="H185" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D186" t="n">
+        <v>50</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Cathy BOGNON</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Marche matinale</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>44231.3628587963</v>
+      </c>
+      <c r="H186" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
           <t>Run</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="C187" t="n">
         <v>16.49</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D187" t="n">
         <v>86</v>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
-      <c r="G182" s="2" t="n">
+      <c r="G187" s="2" t="n">
         <v>44227.42353009259</v>
       </c>
-      <c r="H182" t="n">
+      <c r="H187" t="n">
         <v>164.9</v>
       </c>
     </row>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,39 +476,39 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.74</v>
+        <v>0.55</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44243.24097222222</v>
+        <v>44245.2458912037</v>
       </c>
       <c r="H2" t="n">
-        <v>67.40000000000001</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -516,23 +516,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44243.23357638889</v>
+        <v>44244.76636574074</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -540,71 +540,71 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.91</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Timothee Delauriere</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Workout</t>
+          <t>Evening Ride</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44242.78472222222</v>
+        <v>44244.74456018519</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.1</v>
+        <v>47.23</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>10-12wk FTP Builder Week 9 Day 3</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44242.78895833333</v>
+        <v>44244.73262731481</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -612,127 +612,127 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Satya Wiplier</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Marche</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44242.76658564815</v>
+        <v>44244.68665509259</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Marie Leger</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mac do à pied...😜😜😜</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44242.76660879629</v>
+        <v>44244.67315972222</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>69.80000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17.86</v>
+        <v>2.13</v>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vélo salon</t>
+          <t>Récupération de mon véhicule</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44242.71892361111</v>
+        <v>44244.65820601852</v>
       </c>
       <c r="H8" t="n">
-        <v>35.72</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.01</v>
+        <v>6.34</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Vélo dans l'après-midi</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44242.68881944445</v>
+        <v>44244.65657407408</v>
       </c>
       <c r="H9" t="n">
-        <v>10.05</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -740,31 +740,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Marche le soir</t>
+          <t>17/02/21</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44242.6565162037</v>
+        <v>44244.63368055555</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -772,31 +772,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.99</v>
+        <v>7.7</v>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Marche en normandie</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44242.643125</v>
+        <v>44244.55327546296</v>
       </c>
       <c r="H11" t="n">
-        <v>14.95</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -804,31 +804,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>10.2</v>
       </c>
       <c r="D12" t="n">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Activité dans l'après-midi</t>
+          <t>Découverte de Fécamp !</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44242.57248842594</v>
+        <v>44244.54912037037</v>
       </c>
       <c r="H12" t="n">
-        <v>32.85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -836,42 +836,42 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.13</v>
+        <v>3.23</v>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44242.62039351852</v>
+        <v>44244.53084490741</v>
       </c>
       <c r="H13" t="n">
-        <v>20.65</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -880,83 +880,83 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunch Walk</t>
+          <t>600m</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44242.49038194443</v>
+        <v>44244.51871527778</v>
       </c>
       <c r="H14" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.53</v>
+        <v>8.01</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Lunch Run with 🐶🐕🐶 (600m manquants 🤣)</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44242.42783564814</v>
+        <v>44244.46947916667</v>
       </c>
       <c r="H15" t="n">
-        <v>7.65</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.32</v>
+        <v>7.77</v>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pour éliminer les mojitos 😜</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44241.64487268519</v>
+        <v>44244.45858796296</v>
       </c>
       <c r="H16" t="n">
-        <v>26.6</v>
+        <v>77.69999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -964,31 +964,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>1.16</v>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Petite marche dans la campagne avec les enfants</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44241.65402777777</v>
+        <v>44244.40833333333</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.91</v>
+        <v>5.68</v>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Il en manque un bout</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44241.65872685185</v>
+        <v>44244.40074074074</v>
       </c>
       <c r="H18" t="n">
-        <v>14.55</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1028,95 +1028,95 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.8</v>
+        <v>50.63</v>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Activité dans l'après-midi</t>
+          <t>10-12wk FTP Builder Week 9 Day 2</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44241.58082175926</v>
+        <v>44243.82564814815</v>
       </c>
       <c r="H19" t="n">
-        <v>41.6</v>
+        <v>101.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.17</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mari On</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Minière</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44241.48925925926</v>
+        <v>44243.78107638889</v>
       </c>
       <c r="H20" t="n">
-        <v>71.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Course à pied du midi</t>
+          <t>Cardio entre potes !</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44241.49078703704</v>
+        <v>44243.74561342593</v>
       </c>
       <c r="H21" t="n">
-        <v>104.1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1124,95 +1124,95 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>74.73999999999999</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Julie Leger</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VCMB 109 GR2</t>
+          <t>Vélo d'appart</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44241.34190972222</v>
+        <v>44243.72920138889</v>
       </c>
       <c r="H22" t="n">
-        <v>149.48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sophie Rollin</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Balade de la meute 🦊🐻🐶</t>
+          <t>Evening Run</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44241.36550925926</v>
+        <v>44243.71755787037</v>
       </c>
       <c r="H23" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.5</v>
+        <v>20.92</v>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Vélo dans le salon</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44241.41025462963</v>
+        <v>44243.69334490741</v>
       </c>
       <c r="H24" t="n">
-        <v>12.5</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1220,95 +1220,95 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.67</v>
+        <v>3.01</v>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Course à pied le midi</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44241.41815972222</v>
+        <v>44243.66832175926</v>
       </c>
       <c r="H25" t="n">
-        <v>66.7</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>7.31</v>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44241.320625</v>
+        <v>44243.66508101852</v>
       </c>
       <c r="H26" t="n">
-        <v>70.40000000000001</v>
+        <v>36.55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.4</v>
+        <v>7.23</v>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>14/02/21</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44241.31958333333</v>
+        <v>44243.56285879629</v>
       </c>
       <c r="H27" t="n">
-        <v>94</v>
+        <v>36.15000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1316,31 +1316,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jogg du dimanche</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44241.32162037037</v>
+        <v>44243.52668981482</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.21</v>
+        <v>1.94</v>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44241.22037037037</v>
+        <v>44243.50453703704</v>
       </c>
       <c r="H29" t="n">
-        <v>6.05</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1380,63 +1380,63 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44240.68465277777</v>
+        <v>44243.44688657407</v>
       </c>
       <c r="H30" t="n">
-        <v>30</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.81</v>
+        <v>4.18</v>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ballade dans le froid 🥶</t>
+          <t>Vélo matinale</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44240.64438657407</v>
+        <v>44243.39987268519</v>
       </c>
       <c r="H31" t="n">
-        <v>24.05</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1444,31 +1444,31 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.15</v>
+        <v>2.73</v>
       </c>
       <c r="D32" t="n">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Fort des rousses</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44240.61172453704</v>
+        <v>44243.38622685185</v>
       </c>
       <c r="H32" t="n">
-        <v>40.75</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1476,74 +1476,74 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.51</v>
+        <v>6.74</v>
       </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>La montre qui s'arrête alors qu'il reste 3km 🙄</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44240.62813657407</v>
+        <v>44243.24097222222</v>
       </c>
       <c r="H33" t="n">
-        <v>75.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sortie à vélo dans l'après-midi</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44240.57457175926</v>
+        <v>44243.23357638889</v>
       </c>
       <c r="H34" t="n">
-        <v>33.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.77</v>
+        <v>8.1</v>
       </c>
       <c r="D35" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1552,51 +1552,51 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44240.51672453704</v>
+        <v>44242.78895833333</v>
       </c>
       <c r="H35" t="n">
-        <v>38.84999999999999</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Timothee Delauriere</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Enjoy the sun</t>
+          <t>Workout</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44240.46696759259</v>
+        <v>44242.78472222222</v>
       </c>
       <c r="H36" t="n">
-        <v>26.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1604,31 +1604,31 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cours sur parcours compact de golf</t>
+          <t>Mac do à pied...😜😜😜</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44240.43086805557</v>
+        <v>44242.76660879629</v>
       </c>
       <c r="H37" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1636,63 +1636,63 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.07</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Satya Wiplier</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Marche</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44240.43643518518</v>
+        <v>44242.76658564815</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.15</v>
+        <v>17.86</v>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Vélo salon</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44240.26467592592</v>
+        <v>44242.71892361111</v>
       </c>
       <c r="H39" t="n">
-        <v>41.5</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1700,63 +1700,63 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.74</v>
+        <v>2.01</v>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44240.19385416667</v>
+        <v>44242.68881944445</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Marche le soir</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44239.75694444445</v>
+        <v>44242.6565162037</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.9</v>
+        <v>2.99</v>
       </c>
       <c r="D42" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>12/02/21</t>
+          <t>Marche en normandie</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44239.63627314815</v>
+        <v>44242.643125</v>
       </c>
       <c r="H42" t="n">
-        <v>39.5</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1796,159 +1796,159 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.06</v>
+        <v>4.13</v>
       </c>
       <c r="D43" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Promenade enneigée</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44239.58208333332</v>
+        <v>44242.62039351852</v>
       </c>
       <c r="H43" t="n">
-        <v>15.3</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.73</v>
+        <v>6.57</v>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vent frais, vent du midi 🥶</t>
+          <t>Activité dans l'après-midi</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44239.45570601852</v>
+        <v>44242.57248842594</v>
       </c>
       <c r="H44" t="n">
-        <v>67.30000000000001</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Activité le midi</t>
+          <t>Lunch Walk</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44239.44210648148</v>
+        <v>44242.49038194443</v>
       </c>
       <c r="H45" t="n">
-        <v>30</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25.91</v>
+        <v>1.53</v>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>20 min à FTP puis calme</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44238.85311342592</v>
+        <v>44242.42783564814</v>
       </c>
       <c r="H46" t="n">
-        <v>51.82</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>11.4</v>
+        <v>2.91</v>
       </c>
       <c r="D47" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>11/02/21</t>
+          <t>Il en manque un bout</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44238.71231481482</v>
+        <v>44241.65872685185</v>
       </c>
       <c r="H47" t="n">
-        <v>45</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1956,31 +1956,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Balade</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44238.68119212963</v>
+        <v>44241.65402777777</v>
       </c>
       <c r="H48" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.31</v>
+        <v>5.32</v>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Pour éliminer les mojitos 😜</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44238.63715277778</v>
+        <v>44241.64487268519</v>
       </c>
       <c r="H49" t="n">
-        <v>6.550000000000001</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2020,127 +2020,127 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>24.54</v>
+        <v>20.8</v>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 8 Day 3</t>
+          <t>Activité dans l'après-midi</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44237.86130787037</v>
+        <v>44241.58082175926</v>
       </c>
       <c r="H50" t="n">
-        <v>49.08</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13.3</v>
+        <v>1.5</v>
       </c>
       <c r="D51" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>Promenade</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44237.79754629629</v>
+        <v>44241.5121875</v>
       </c>
       <c r="H51" t="n">
-        <v>26.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Course à pied du midi</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44237.72222222222</v>
+        <v>44241.49078703704</v>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.93</v>
+        <v>7.17</v>
       </c>
       <c r="D53" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Mari On</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ça fait frais ... avec les copines et les enfants</t>
+          <t>Minière</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44237.67486111111</v>
+        <v>44241.48925925926</v>
       </c>
       <c r="H53" t="n">
-        <v>19.65</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2148,287 +2148,287 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5.58</v>
+        <v>6.67</v>
       </c>
       <c r="D54" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Footing dans la neige ❄️</t>
+          <t>Course à pied le midi</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44237.67539351852</v>
+        <v>44241.41815972222</v>
       </c>
       <c r="H54" t="n">
-        <v>55.8</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>46.71</v>
+        <v>2.5</v>
       </c>
       <c r="D55" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 7 Day 4</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44236.82131944445</v>
+        <v>44241.41025462963</v>
       </c>
       <c r="H55" t="n">
-        <v>93.42</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5.92</v>
+        <v>4.42</v>
       </c>
       <c r="D56" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Pas mieux qu'hier 🧊</t>
+          <t>Balade de la meute 🦊🐻🐶</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44236.671875</v>
+        <v>44241.36550925926</v>
       </c>
       <c r="H56" t="n">
-        <v>59.2</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6.81</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Frisquet 🥶</t>
+          <t>VCMB 109 GR2</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44235.67013888889</v>
+        <v>44241.34190972222</v>
       </c>
       <c r="H57" t="n">
-        <v>68.09999999999999</v>
+        <v>149.48</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Afternoon Ride</t>
+          <t>Jogg du dimanche</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44235.67065972222</v>
+        <v>44241.32162037037</v>
       </c>
       <c r="H58" t="n">
-        <v>4.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.62</v>
+        <v>7.04</v>
       </c>
       <c r="D59" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44241.320625</v>
       </c>
       <c r="H59" t="n">
-        <v>13.1</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>9.4</v>
       </c>
       <c r="D60" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Marche nocturne</t>
+          <t>14/02/21</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44234.84722222222</v>
+        <v>44241.31958333333</v>
       </c>
       <c r="H60" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="D61" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Raffermissement ....abdominal</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44234.70833333334</v>
+        <v>44241.22037037037</v>
       </c>
       <c r="H61" t="n">
-        <v>45</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5.41</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Marche avec les copines</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44234.63688657407</v>
+        <v>44240.68465277777</v>
       </c>
       <c r="H62" t="n">
-        <v>27.05</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2436,95 +2436,95 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.41</v>
+        <v>4.81</v>
       </c>
       <c r="D63" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>ballade dans le froid 🥶</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44234.6003587963</v>
+        <v>44240.64438657407</v>
       </c>
       <c r="H63" t="n">
-        <v>12.05</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>75.15000000000001</v>
+        <v>7.51</v>
       </c>
       <c r="D64" t="n">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>VCMB 119 GR2</t>
+          <t>La montre qui s'arrête alors qu'il reste 3km 🙄</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44234.33590277778</v>
+        <v>44240.62813657407</v>
       </c>
       <c r="H64" t="n">
-        <v>150.3</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44234.45177083334</v>
+        <v>44240.61172453704</v>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2532,63 +2532,63 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.89</v>
+        <v>16.8</v>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Velo elliptique</t>
+          <t>Sortie à vélo dans l'après-midi</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44234.44129629631</v>
+        <v>44240.57457175926</v>
       </c>
       <c r="H66" t="n">
-        <v>1.78</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3.64</v>
+        <v>7.77</v>
       </c>
       <c r="D67" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>corentin paya</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44234.38502314815</v>
+        <v>44240.51672453704</v>
       </c>
       <c r="H67" t="n">
-        <v>36.4</v>
+        <v>38.84999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2596,95 +2596,95 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5.72</v>
+        <v>5.36</v>
       </c>
       <c r="D68" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Enjoy the sun</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44234.37035879631</v>
+        <v>44240.46696759259</v>
       </c>
       <c r="H68" t="n">
-        <v>28.6</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>4.07</v>
       </c>
       <c r="D69" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44234.33081018519</v>
+        <v>44240.43643518518</v>
       </c>
       <c r="H69" t="n">
-        <v>60</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10.8</v>
+        <v>1.86</v>
       </c>
       <c r="D70" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>07/02/21</t>
+          <t>Cours sur parcours compact de golf</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44234.29206018519</v>
+        <v>44240.43086805557</v>
       </c>
       <c r="H70" t="n">
-        <v>108</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3.71</v>
+        <v>4.15</v>
       </c>
       <c r="D71" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2708,15 +2708,15 @@
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44234.31880787037</v>
+        <v>44240.26467592592</v>
       </c>
       <c r="H71" t="n">
-        <v>37.1</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2724,95 +2724,95 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5.22</v>
+        <v>0.74</v>
       </c>
       <c r="D72" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44233.67482638889</v>
+        <v>44240.19385416667</v>
       </c>
       <c r="H72" t="n">
-        <v>26.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10.07</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44233.62342592593</v>
+        <v>44239.75694444445</v>
       </c>
       <c r="H73" t="n">
-        <v>100.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2.25</v>
+        <v>7.9</v>
       </c>
       <c r="D74" t="n">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Entraînement Foot sous la pluie</t>
+          <t>12/02/21</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44233.60083333333</v>
+        <v>44239.63627314815</v>
       </c>
       <c r="H74" t="n">
-        <v>22.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2820,42 +2820,42 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.5</v>
+        <v>3.06</v>
       </c>
       <c r="D75" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Promenade enneigée</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44233.58560185185</v>
+        <v>44239.58208333332</v>
       </c>
       <c r="H75" t="n">
-        <v>12.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>33.71</v>
+        <v>6.73</v>
       </c>
       <c r="D76" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2864,115 +2864,115 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Temps idéal (c'est faux)</t>
+          <t>Vent frais, vent du midi 🥶</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44233.44824074074</v>
+        <v>44239.45570601852</v>
       </c>
       <c r="H76" t="n">
-        <v>67.42</v>
+        <v>67.30000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.61</v>
+        <v>2.5</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Activité le midi</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44233.47493055555</v>
+        <v>44239.44210648148</v>
       </c>
       <c r="H77" t="n">
-        <v>3.05</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.37</v>
+        <v>25.91</v>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>20 min à FTP puis calme</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44233.4447337963</v>
+        <v>44238.85311342592</v>
       </c>
       <c r="H78" t="n">
-        <v>6.850000000000001</v>
+        <v>51.82</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>28.63</v>
+        <v>11.4</v>
       </c>
       <c r="D79" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 7 Day 3</t>
+          <t>11/02/21</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44233.41396990741</v>
+        <v>44238.71231481482</v>
       </c>
       <c r="H79" t="n">
-        <v>57.26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2980,31 +2980,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D80" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Balade</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44233.4012037037</v>
+        <v>44238.68119212963</v>
       </c>
       <c r="H80" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3012,159 +3012,159 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4.92</v>
+        <v>1.31</v>
       </c>
       <c r="D81" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44233.32486111111</v>
+        <v>44238.63715277778</v>
       </c>
       <c r="H81" t="n">
-        <v>24.6</v>
+        <v>6.550000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.9</v>
+        <v>24.54</v>
       </c>
       <c r="D82" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Balade de toutous</t>
+          <t>10-12wk FTP Builder Week 8 Day 3</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44233.31291666667</v>
+        <v>44237.86130787037</v>
       </c>
       <c r="H82" t="n">
-        <v>24.5</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6.31</v>
+        <v>13.3</v>
       </c>
       <c r="D83" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44233.25414351852</v>
+        <v>44237.79754629629</v>
       </c>
       <c r="H83" t="n">
-        <v>63.09999999999999</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>05/02/21</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44232.64491898148</v>
+        <v>44237.72222222222</v>
       </c>
       <c r="H84" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6.01</v>
+        <v>5.58</v>
       </c>
       <c r="D85" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Footing dans la neige ❄️</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44232.66780092593</v>
+        <v>44237.67539351852</v>
       </c>
       <c r="H85" t="n">
-        <v>30.05</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3172,127 +3172,127 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.86</v>
+        <v>3.93</v>
       </c>
       <c r="D86" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Ça fait frais ... avec les copines et les enfants</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44237.67486111111</v>
       </c>
       <c r="H86" t="n">
-        <v>14.3</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.3</v>
+        <v>46.71</v>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>10-12wk FTP Builder Week 7 Day 4</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44232.63561342594</v>
+        <v>44236.82131944445</v>
       </c>
       <c r="H87" t="n">
-        <v>6.5</v>
+        <v>93.42</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.28</v>
+        <v>5.92</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Je vous en mets un peu plus</t>
+          <t>Pas mieux qu'hier 🧊</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44232.62511574074</v>
+        <v>44236.671875</v>
       </c>
       <c r="H88" t="n">
-        <v>6.4</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.34</v>
+        <v>2.24</v>
       </c>
       <c r="D89" t="n">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Retour à Trégastel : un vrai plaisir</t>
+          <t>Afternoon Ride</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44232.51474537037</v>
+        <v>44235.67065972222</v>
       </c>
       <c r="H89" t="n">
-        <v>36.7</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>15.14</v>
+        <v>6.81</v>
       </c>
       <c r="D90" t="n">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3312,51 +3312,51 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>La routourne va tourner</t>
+          <t>Frisquet 🥶</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44232.45350694445</v>
+        <v>44235.67013888889</v>
       </c>
       <c r="H90" t="n">
-        <v>151.4</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5.59</v>
+        <v>2.62</v>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunch Ride</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44232.47916666666</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H91" t="n">
-        <v>11.18</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3364,31 +3364,31 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.44</v>
+        <v>2.62</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bof</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44232.47024305557</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H92" t="n">
-        <v>7.199999999999999</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3396,95 +3396,95 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.99</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Que de la route, on va plus loin</t>
+          <t>Marche nocturne</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44232.40537037037</v>
+        <v>44234.84722222222</v>
       </c>
       <c r="H93" t="n">
-        <v>24.95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Morning Ride</t>
+          <t>Raffermissement ....abdominal</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44232.41337962963</v>
+        <v>44234.70833333334</v>
       </c>
       <c r="H94" t="n">
-        <v>11.82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>43.3</v>
+        <v>5.41</v>
       </c>
       <c r="D95" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 6 Day 4</t>
+          <t>Marche avec les copines</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44231.83375</v>
+        <v>44234.63688657407</v>
       </c>
       <c r="H95" t="n">
-        <v>86.59999999999999</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3492,159 +3492,159 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.87</v>
+        <v>2.41</v>
       </c>
       <c r="D96" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Evening Hike</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44231.74266203704</v>
+        <v>44234.6003587963</v>
       </c>
       <c r="H96" t="n">
-        <v>9.350000000000001</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>17.36</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tregastel et vallée du Traouïéro</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44231.38483796296</v>
+        <v>44234.45177083334</v>
       </c>
       <c r="H97" t="n">
-        <v>86.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2.45</v>
+        <v>0.89</v>
       </c>
       <c r="D98" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Velo elliptique</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44231.60041666667</v>
+        <v>44234.44129629631</v>
       </c>
       <c r="H98" t="n">
-        <v>12.25</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2.99</v>
+        <v>3.64</v>
       </c>
       <c r="D99" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>corentin paya</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Promenons nous dans les bois ...</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44231.4877662037</v>
+        <v>44234.38502314815</v>
       </c>
       <c r="H99" t="n">
-        <v>14.95</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="D100" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Satya Wiplier</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Activité du matin</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44231.42361111111</v>
+        <v>44234.37035879631</v>
       </c>
       <c r="H100" t="n">
-        <v>10</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3652,14 +3652,14 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5.03</v>
+        <v>5.72</v>
       </c>
       <c r="D101" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3668,111 +3668,111 @@
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44231.36285879631</v>
+        <v>44234.3703587963</v>
       </c>
       <c r="H101" t="n">
-        <v>25.15</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3.2</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>VCMB 119 GR2</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44231.24442129629</v>
+        <v>44234.33590277778</v>
       </c>
       <c r="H102" t="n">
-        <v>32</v>
+        <v>150.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.04</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44230.63672453703</v>
+        <v>44234.33081018519</v>
       </c>
       <c r="H103" t="n">
-        <v>15.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7.24</v>
+        <v>3.71</v>
       </c>
       <c r="D104" t="n">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ile Grande</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44230.53835648148</v>
+        <v>44234.31880787037</v>
       </c>
       <c r="H104" t="n">
-        <v>36.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3780,127 +3780,127 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>10.8</v>
       </c>
       <c r="D105" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1ere sortie running avec la petite mamie</t>
+          <t>07/02/21</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44230.45893518518</v>
+        <v>44234.29206018519</v>
       </c>
       <c r="H105" t="n">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>8.85</v>
+        <v>5.22</v>
       </c>
       <c r="D106" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ensoleillé mais (très) mouillé</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44230.44480324074</v>
+        <v>44233.67482638889</v>
       </c>
       <c r="H106" t="n">
-        <v>88.5</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>10.07</v>
       </c>
       <c r="D107" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44230.42997685185</v>
+        <v>44233.62342592593</v>
       </c>
       <c r="H107" t="n">
-        <v>10</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="D108" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Trebeurden</t>
+          <t>Entraînement Foot sous la pluie</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44230.39664351852</v>
+        <v>44233.60083333333</v>
       </c>
       <c r="H108" t="n">
-        <v>18.75</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3908,31 +3908,31 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9.34</v>
+        <v>2.5</v>
       </c>
       <c r="D109" t="n">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Retour de Perros en passant par Trestrignel</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44229.49413194445</v>
+        <v>44233.58560185185</v>
       </c>
       <c r="H109" t="n">
-        <v>46.7</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3940,63 +3940,63 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>8.59</v>
+        <v>0.61</v>
       </c>
       <c r="D110" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Aller à Perros</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44229.37037037037</v>
+        <v>44233.47493055555</v>
       </c>
       <c r="H110" t="n">
-        <v>42.95</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.87</v>
+        <v>33.71</v>
       </c>
       <c r="D111" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Découverte de Ploumanac'h</t>
+          <t>Temps idéal (c'est faux)</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44228.64439814815</v>
+        <v>44233.44824074074</v>
       </c>
       <c r="H111" t="n">
-        <v>14.35</v>
+        <v>67.42</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4004,159 +4004,159 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="D112" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44228.63753472222</v>
+        <v>44233.4447337963</v>
       </c>
       <c r="H112" t="n">
-        <v>6.45</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>16.49</v>
+        <v>28.63</v>
       </c>
       <c r="D113" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Passage de relai et baptême de la boue</t>
+          <t>10-12wk FTP Builder Week 7 Day 3</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44227.42353009258</v>
+        <v>44233.41396990741</v>
       </c>
       <c r="H113" t="n">
-        <v>164.9</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>78.02</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>VCMB 113 GR2</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44227.33418981481</v>
+        <v>44233.4012037037</v>
       </c>
       <c r="H114" t="n">
-        <v>156.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6.44</v>
+        <v>4.92</v>
       </c>
       <c r="D115" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Marie Leger</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44227.41608796296</v>
+        <v>44233.32486111111</v>
       </c>
       <c r="H115" t="n">
-        <v>64.40000000000001</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.88</v>
+        <v>4.9</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Balade de toutous</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44227.36313657407</v>
+        <v>44233.31291666667</v>
       </c>
       <c r="H116" t="n">
-        <v>8.800000000000001</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.78</v>
+        <v>6.31</v>
       </c>
       <c r="D117" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4180,111 +4180,111 @@
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44227.34079861111</v>
+        <v>44233.25414351852</v>
       </c>
       <c r="H117" t="n">
-        <v>17.8</v>
+        <v>63.09999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.47</v>
+        <v>6.01</v>
       </c>
       <c r="D118" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44227.33324074074</v>
+        <v>44232.66780092593</v>
       </c>
       <c r="H118" t="n">
-        <v>14.7</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.01</v>
+        <v>10.6</v>
       </c>
       <c r="D119" t="n">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>05/02/21</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44227.32197916666</v>
+        <v>44232.64491898148</v>
       </c>
       <c r="H119" t="n">
-        <v>20.1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9.4</v>
+        <v>1.3</v>
       </c>
       <c r="D120" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sortie à vélo le soir</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44226.7087962963</v>
+        <v>44232.63561342594</v>
       </c>
       <c r="H120" t="n">
-        <v>18.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4292,234 +4292,234 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5.22</v>
+        <v>2.86</v>
       </c>
       <c r="D121" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sous la flotte</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44226.62849537037</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H121" t="n">
-        <v>26.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11.24</v>
+        <v>2.86</v>
       </c>
       <c r="D122" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Afternoon Ride</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44226.61844907407</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H122" t="n">
-        <v>22.48</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>25.62</v>
+        <v>1.28</v>
       </c>
       <c r="D123" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Velo-conso</t>
+          <t>Je vous en mets un peu plus</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44226.56037037037</v>
+        <v>44232.62511574074</v>
       </c>
       <c r="H123" t="n">
-        <v>51.24</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>27.95</v>
+        <v>7.34</v>
       </c>
       <c r="D124" t="n">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
+          <t>Retour à Trégastel : un vrai plaisir</t>
         </is>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44226.37979166668</v>
+        <v>44232.51474537037</v>
       </c>
       <c r="H124" t="n">
-        <v>55.9</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8.5</v>
+        <v>5.59</v>
       </c>
       <c r="D125" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Course à pied de nuit</t>
+          <t>Lunch Ride</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44226.37561342592</v>
+        <v>44232.47916666666</v>
       </c>
       <c r="H125" t="n">
-        <v>85</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5.01</v>
+        <v>1.44</v>
       </c>
       <c r="D126" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Bof</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44226.26634259259</v>
+        <v>44232.47024305557</v>
       </c>
       <c r="H126" t="n">
-        <v>50.09999999999999</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2.25</v>
+        <v>15.14</v>
       </c>
       <c r="D127" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>La routourne va tourner</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44225.60737268518</v>
+        <v>44232.45350694445</v>
       </c>
       <c r="H127" t="n">
-        <v>11.25</v>
+        <v>151.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.37</v>
+        <v>5.91</v>
       </c>
       <c r="D128" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4528,19 +4528,19 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Morning Hike</t>
+          <t>Morning Ride</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44225.34206018518</v>
+        <v>44232.41337962963</v>
       </c>
       <c r="H128" t="n">
-        <v>6.850000000000001</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4548,31 +4548,31 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.34</v>
+        <v>4.99</v>
       </c>
       <c r="D129" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Morning Hike</t>
+          <t>Que de la route, on va plus loin</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44225.32385416667</v>
+        <v>44232.40537037037</v>
       </c>
       <c r="H129" t="n">
-        <v>6.7</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4580,10 +4580,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>24.66</v>
+        <v>43.3</v>
       </c>
       <c r="D130" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4592,83 +4592,83 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 8 Day 3</t>
+          <t>10-12wk FTP Builder Week 6 Day 4</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44223.87483796296</v>
+        <v>44231.83375</v>
       </c>
       <c r="H130" t="n">
-        <v>49.32</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>41.82</v>
+        <v>1.87</v>
       </c>
       <c r="D131" t="n">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 8 Day 4</t>
+          <t>Evening Hike</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44222.87342592593</v>
+        <v>44231.74266203704</v>
       </c>
       <c r="H131" t="n">
-        <v>83.64</v>
+        <v>9.350000000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>11.72</v>
+        <v>2.45</v>
       </c>
       <c r="D132" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bonne bouillasse 😁</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44222.67177083333</v>
+        <v>44231.60041666667</v>
       </c>
       <c r="H132" t="n">
-        <v>117.2</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4676,95 +4676,95 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.33</v>
+        <v>2.99</v>
       </c>
       <c r="D133" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Promenons nous dans les bois ...</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44222.63873842593</v>
+        <v>44231.4877662037</v>
       </c>
       <c r="H133" t="n">
-        <v>6.65</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Satya Wiplier</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bread run</t>
+          <t>Activité du matin</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44222.25640046296</v>
+        <v>44231.42361111111</v>
       </c>
       <c r="H134" t="n">
-        <v>14.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2.66</v>
+        <v>17.36</v>
       </c>
       <c r="D135" t="n">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1st lap with Raïkô</t>
+          <t>Tregastel et vallée du Traouïéro</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44222.23939814815</v>
+        <v>44231.38483796296</v>
       </c>
       <c r="H135" t="n">
-        <v>26.6</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4772,31 +4772,31 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8.01</v>
+        <v>5.03</v>
       </c>
       <c r="D136" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44220.59336805555</v>
+        <v>44231.36285879631</v>
       </c>
       <c r="H136" t="n">
-        <v>40.05</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4.33</v>
+        <v>5.03</v>
       </c>
       <c r="D137" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4816,83 +4816,83 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44220.6040162037</v>
+        <v>44231.3628587963</v>
       </c>
       <c r="H137" t="n">
-        <v>21.65</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>80.28</v>
+        <v>3.2</v>
       </c>
       <c r="D138" t="n">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>VCMB 107 GR2</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44220.3353587963</v>
+        <v>44231.24442129629</v>
       </c>
       <c r="H138" t="n">
-        <v>160.56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2.05</v>
+        <v>3.04</v>
       </c>
       <c r="D139" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44220.32298611111</v>
+        <v>44230.63672453703</v>
       </c>
       <c r="H139" t="n">
-        <v>20.5</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4900,10 +4900,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8.109999999999999</v>
+        <v>7.24</v>
       </c>
       <c r="D140" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4912,19 +4912,19 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Ile Grande</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44219.60003472222</v>
+        <v>44230.53835648148</v>
       </c>
       <c r="H140" t="n">
-        <v>40.55</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4932,63 +4932,63 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>15.9</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>1ere sortie running avec la petite mamie</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44219.38112268518</v>
+        <v>44230.45893518518</v>
       </c>
       <c r="H141" t="n">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>38.31</v>
+        <v>8.85</v>
       </c>
       <c r="D142" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 7 Day 3</t>
+          <t>Ensoleillé mais (très) mouillé</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44218.74016203704</v>
+        <v>44230.44480324074</v>
       </c>
       <c r="H142" t="n">
-        <v>76.62</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4996,31 +4996,31 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7.26</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44218.66010416668</v>
+        <v>44230.42997685185</v>
       </c>
       <c r="H143" t="n">
-        <v>36.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5028,127 +5028,127 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1.67</v>
+        <v>3.75</v>
       </c>
       <c r="D144" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Trebeurden</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44216.46258101852</v>
+        <v>44230.39664351852</v>
       </c>
       <c r="H144" t="n">
-        <v>8.35</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6.29</v>
+        <v>9.34</v>
       </c>
       <c r="D145" t="n">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Même si tu te perds (respire)</t>
+          <t>Retour de Perros en passant par Trestrignel</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44216.44635416667</v>
+        <v>44229.49413194445</v>
       </c>
       <c r="H145" t="n">
-        <v>62.9</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7.34</v>
+        <v>8.59</v>
       </c>
       <c r="D146" t="n">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Quand rien n'est facile (respire)</t>
+          <t>Aller à Perros</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44215.47685185185</v>
+        <v>44229.37037037037</v>
       </c>
       <c r="H146" t="n">
-        <v>73.40000000000001</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4.55</v>
+        <v>2.87</v>
       </c>
       <c r="D147" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Découverte de Ploumanac'h</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44215.23921296297</v>
+        <v>44228.64439814815</v>
       </c>
       <c r="H147" t="n">
-        <v>45.5</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5.46</v>
+        <v>1.29</v>
       </c>
       <c r="D148" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5168,30 +5168,30 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44214.42790509259</v>
+        <v>44228.63753472222</v>
       </c>
       <c r="H148" t="n">
-        <v>27.3</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>17.13</v>
+        <v>16.49</v>
       </c>
       <c r="D149" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5200,179 +5200,179 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Courir après l'heure</t>
+          <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44213.67655092593</v>
+        <v>44227.42353009259</v>
       </c>
       <c r="H149" t="n">
-        <v>34.26</v>
+        <v>164.9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>64.70999999999999</v>
+        <v>16.49</v>
       </c>
       <c r="D150" t="n">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sortie solitaire</t>
+          <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44213.58501157408</v>
+        <v>44227.42353009258</v>
       </c>
       <c r="H150" t="n">
-        <v>129.42</v>
+        <v>164.9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8.24</v>
+        <v>6.44</v>
       </c>
       <c r="D151" t="n">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Marie Leger</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44213.56055555555</v>
+        <v>44227.41608796296</v>
       </c>
       <c r="H151" t="n">
-        <v>41.2</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>9.83</v>
+        <v>0.88</v>
       </c>
       <c r="D152" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>44213.51118055556</v>
+        <v>44227.36313657407</v>
       </c>
       <c r="H152" t="n">
-        <v>49.15</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2.82</v>
+        <v>1.78</v>
       </c>
       <c r="D153" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>44213.45940972222</v>
+        <v>44227.34079861111</v>
       </c>
       <c r="H153" t="n">
-        <v>14.1</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.46</v>
+        <v>78.02</v>
       </c>
       <c r="D154" t="n">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>VCMB 113 GR2</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>44213.42925925926</v>
+        <v>44227.33418981481</v>
       </c>
       <c r="H154" t="n">
-        <v>7.3</v>
+        <v>156.04</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3.4</v>
+        <v>1.47</v>
       </c>
       <c r="D155" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44213.33986111111</v>
+        <v>44227.33324074074</v>
       </c>
       <c r="H155" t="n">
-        <v>34</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3.42</v>
+        <v>2.01</v>
       </c>
       <c r="D156" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5428,218 +5428,218 @@
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>44213.31975694445</v>
+        <v>44227.32197916666</v>
       </c>
       <c r="H156" t="n">
-        <v>34.2</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6.01</v>
+        <v>9.4</v>
       </c>
       <c r="D157" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Sortie à vélo le soir</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>44212.58018518519</v>
+        <v>44226.7087962963</v>
       </c>
       <c r="H157" t="n">
-        <v>30.05</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6.24</v>
+        <v>5.22</v>
       </c>
       <c r="D158" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Sous la flotte</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>44212.25228009259</v>
+        <v>44226.62849537037</v>
       </c>
       <c r="H158" t="n">
-        <v>62.40000000000001</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8.619999999999999</v>
+        <v>11.24</v>
       </c>
       <c r="D159" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>T'as le souffle court (respire)</t>
+          <t>Afternoon Ride</t>
         </is>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44211.45436342592</v>
+        <v>44226.61844907407</v>
       </c>
       <c r="H159" t="n">
-        <v>86.19999999999999</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2.83</v>
+        <v>25.62</v>
       </c>
       <c r="D160" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Course à pied l'après-midi</t>
+          <t>Velo-conso</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44209.69403935185</v>
+        <v>44226.56037037037</v>
       </c>
       <c r="H160" t="n">
-        <v>28.3</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>9.960000000000001</v>
+        <v>27.95</v>
       </c>
       <c r="D161" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Le corps engourdi, toujours endormi, miroir, salle de bain</t>
+          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
         </is>
       </c>
       <c r="G161" s="2" t="n">
-        <v>44209.45825231481</v>
+        <v>44226.37979166668</v>
       </c>
       <c r="H161" t="n">
-        <v>99.60000000000001</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>16.35</v>
+        <v>8.5</v>
       </c>
       <c r="D162" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Sortie à vélo l'après-midi</t>
+          <t>Course à pied de nuit</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>44207.60842592592</v>
+        <v>44226.37561342592</v>
       </c>
       <c r="H162" t="n">
-        <v>32.7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>16.23</v>
+        <v>5.01</v>
       </c>
       <c r="D163" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5648,51 +5648,51 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sortie à vélo matinale</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44207.26508101852</v>
+        <v>44226.26634259259</v>
       </c>
       <c r="H163" t="n">
-        <v>32.46</v>
+        <v>50.09999999999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>5.07</v>
+        <v>2.25</v>
       </c>
       <c r="D164" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44243.52668981482</v>
+        <v>44225.60737268518</v>
       </c>
       <c r="H164" t="n">
-        <v>50.7</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5700,63 +5700,63 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="D165" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
-        <v>44243.50453703704</v>
+        <v>44225.34206018518</v>
       </c>
       <c r="H165" t="n">
-        <v>9.699999999999999</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>9.529999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="D166" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
-        <v>44243.44688657407</v>
+        <v>44225.32385416667</v>
       </c>
       <c r="H166" t="n">
-        <v>95.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5764,255 +5764,255 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>4.18</v>
+        <v>24.66</v>
       </c>
       <c r="D167" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Vélo matinale</t>
+          <t>Zwift - 10-12wk FTP Builder Week 8 Day 3</t>
         </is>
       </c>
       <c r="G167" s="2" t="n">
-        <v>44243.39987268519</v>
+        <v>44223.87483796296</v>
       </c>
       <c r="H167" t="n">
-        <v>8.359999999999999</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2.73</v>
+        <v>41.82</v>
       </c>
       <c r="D168" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Fort des rousses</t>
+          <t>Zwift - 10-12wk FTP Builder Week 8 Day 4</t>
         </is>
       </c>
       <c r="G168" s="2" t="n">
-        <v>44243.38622685185</v>
+        <v>44222.87342592593</v>
       </c>
       <c r="H168" t="n">
-        <v>13.65</v>
+        <v>83.64</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>7.23</v>
+        <v>11.72</v>
       </c>
       <c r="D169" t="n">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Bonne bouillasse 😁</t>
         </is>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44243.56285879629</v>
+        <v>44222.67177083333</v>
       </c>
       <c r="H169" t="n">
-        <v>36.15000000000001</v>
+        <v>117.2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3.01</v>
+        <v>1.33</v>
       </c>
       <c r="D170" t="n">
         <v>12</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44243.66832175926</v>
+        <v>44222.63873842593</v>
       </c>
       <c r="H170" t="n">
-        <v>30.1</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>50.63</v>
+        <v>1.42</v>
       </c>
       <c r="D171" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 9 Day 2</t>
+          <t>Bread run</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44243.82564814815</v>
+        <v>44222.25640046296</v>
       </c>
       <c r="H171" t="n">
-        <v>101.26</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>10</v>
+        <v>2.66</v>
       </c>
       <c r="D172" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>1st lap with Raïkô</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44243.78107638889</v>
+        <v>44222.23939814815</v>
       </c>
       <c r="H172" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="D173" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Cardio entre potes !</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44243.74561342593</v>
+        <v>44220.6040162037</v>
       </c>
       <c r="H173" t="n">
-        <v>45</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="D174" t="n">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sophie Rollin</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Evening Run</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44243.71755787037</v>
+        <v>44220.59336805555</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>40.05</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6020,63 +6020,63 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>15</v>
+        <v>80.28</v>
       </c>
       <c r="D175" t="n">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Julie Leger</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Vélo d'appart</t>
+          <t>VCMB 107 GR2</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44243.72920138889</v>
+        <v>44220.3353587963</v>
       </c>
       <c r="H175" t="n">
-        <v>30</v>
+        <v>160.56</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>20.92</v>
+        <v>2.05</v>
       </c>
       <c r="D176" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Vélo dans le salon</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44243.69334490741</v>
+        <v>44220.32298611111</v>
       </c>
       <c r="H176" t="n">
-        <v>41.84</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6084,31 +6084,31 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>7.31</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D177" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44243.66508101852</v>
+        <v>44219.60003472222</v>
       </c>
       <c r="H177" t="n">
-        <v>36.55</v>
+        <v>40.55</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6116,95 +6116,95 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.6</v>
+        <v>15.9</v>
       </c>
       <c r="D178" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>600m</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44244.51871527778</v>
+        <v>44219.38112268518</v>
       </c>
       <c r="H178" t="n">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>8.01</v>
+        <v>38.31</v>
       </c>
       <c r="D179" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Lunch Run with 🐶🐕🐶 (600m manquants 🤣)</t>
+          <t>Zwift - 10-12wk FTP Builder Week 7 Day 3</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44244.46947916667</v>
+        <v>44218.74016203704</v>
       </c>
       <c r="H179" t="n">
-        <v>80.09999999999999</v>
+        <v>76.62</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>7.77</v>
+        <v>7.26</v>
       </c>
       <c r="D180" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44244.45858796296</v>
+        <v>44218.66010416668</v>
       </c>
       <c r="H180" t="n">
-        <v>77.69999999999999</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6212,127 +6212,127 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5.68</v>
+        <v>1.67</v>
       </c>
       <c r="D181" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44244.40074074074</v>
+        <v>44216.46258101852</v>
       </c>
       <c r="H181" t="n">
-        <v>28.4</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.16</v>
+        <v>6.29</v>
       </c>
       <c r="D182" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Petite marche dans la campagne avec les enfants</t>
+          <t>Même si tu te perds (respire)</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44244.40833333333</v>
+        <v>44216.44635416667</v>
       </c>
       <c r="H182" t="n">
-        <v>5.8</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2.62</v>
+        <v>7.34</v>
       </c>
       <c r="D183" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Quand rien n'est facile (respire)</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44215.47685185185</v>
       </c>
       <c r="H183" t="n">
-        <v>13.1</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>5.72</v>
+        <v>4.55</v>
       </c>
       <c r="D184" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44234.3703587963</v>
+        <v>44215.23921296297</v>
       </c>
       <c r="H184" t="n">
-        <v>28.6</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6340,90 +6340,506 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2.86</v>
+        <v>5.46</v>
       </c>
       <c r="D185" t="n">
         <v>47</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44214.42790509259</v>
       </c>
       <c r="H185" t="n">
-        <v>14.3</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5.03</v>
+        <v>17.13</v>
       </c>
       <c r="D186" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Courir après l'heure</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44231.3628587963</v>
+        <v>44213.67655092593</v>
       </c>
       <c r="H186" t="n">
-        <v>25.15</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>156</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Sébastien Buczynski</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sortie solitaire</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>44213.58501157408</v>
+      </c>
+      <c r="H187" t="n">
+        <v>129.42</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="D188" t="n">
+        <v>99</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Colette VAUCHEL</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Marche dans l'après-midi</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>44213.56055555555</v>
+      </c>
+      <c r="H188" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D189" t="n">
+        <v>86</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Afternoon Hike</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>44213.51118055556</v>
+      </c>
+      <c r="H189" t="n">
+        <v>49.15</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="D190" t="n">
+        <v>39</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Lunch Hike</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>44213.45940972222</v>
+      </c>
+      <c r="H190" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D191" t="n">
+        <v>16</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Cathy BOGNON</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Marche le midi</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>44213.42925925926</v>
+      </c>
+      <c r="H191" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
           <t>Run</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D187" t="n">
-        <v>86</v>
-      </c>
-      <c r="E187" t="inlineStr">
+      <c r="C192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>19</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>44213.33986111111</v>
+      </c>
+      <c r="H192" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D193" t="n">
+        <v>23</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>44213.31975694445</v>
+      </c>
+      <c r="H193" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D194" t="n">
+        <v>53</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Afternoon Hike</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>44212.58018518519</v>
+      </c>
+      <c r="H194" t="n">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="D195" t="n">
+        <v>35</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>44212.25228009259</v>
+      </c>
+      <c r="H195" t="n">
+        <v>62.40000000000001</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="D196" t="n">
+        <v>42</v>
+      </c>
+      <c r="E196" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Passage de relai et baptême de la boue</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="n">
-        <v>44227.42353009259</v>
-      </c>
-      <c r="H187" t="n">
-        <v>164.9</v>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>T'as le souffle court (respire)</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>44211.45436342592</v>
+      </c>
+      <c r="H196" t="n">
+        <v>86.19999999999999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D197" t="n">
+        <v>22</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Course à pied l'après-midi</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>44209.69403935185</v>
+      </c>
+      <c r="H197" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D198" t="n">
+        <v>50</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Thomas Mrt</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Le corps engourdi, toujours endormi, miroir, salle de bain</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>44209.45825231481</v>
+      </c>
+      <c r="H198" t="n">
+        <v>99.60000000000001</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D199" t="n">
+        <v>48</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sortie à vélo l'après-midi</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>44207.60842592592</v>
+      </c>
+      <c r="H199" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="D200" t="n">
+        <v>47</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sortie à vélo matinale</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>44207.26508101852</v>
+      </c>
+      <c r="H200" t="n">
+        <v>32.46</v>
       </c>
     </row>
   </sheetData>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,127 +484,127 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.55</v>
+        <v>4.21</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Balade</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44245.2458912037</v>
+        <v>44245.67599537037</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.1</v>
+        <v>11.1</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>18/02/21</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44244.76636574074</v>
+        <v>44245.63462962963</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.91</v>
+        <v>4.6</v>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Timothee Delauriere</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Evening Ride</t>
+          <t>Afternoon Activity</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44244.74456018519</v>
+        <v>44245.61016203704</v>
       </c>
       <c r="H4" t="n">
-        <v>33.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47.23</v>
+        <v>4.26</v>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 9 Day 3</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44244.73262731481</v>
+        <v>44245.59697916666</v>
       </c>
       <c r="H5" t="n">
-        <v>94.45999999999999</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -612,63 +612,63 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.41</v>
+        <v>7.99</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44244.68665509259</v>
+        <v>44245.58201388889</v>
       </c>
       <c r="H6" t="n">
-        <v>17.05</v>
+        <v>39.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.98</v>
+        <v>1.99</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Marie Leger</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Lunch Walk under the rain</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44244.67315972222</v>
+        <v>44245.48766203703</v>
       </c>
       <c r="H7" t="n">
-        <v>69.80000000000001</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -676,159 +676,159 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.13</v>
+        <v>0.55</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Récupération de mon véhicule</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44244.65820601852</v>
+        <v>44245.24589120369</v>
       </c>
       <c r="H8" t="n">
-        <v>10.65</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.34</v>
+        <v>6.67</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vélo dans l'après-midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44244.65657407408</v>
+        <v>44245.2287037037</v>
       </c>
       <c r="H9" t="n">
-        <v>12.68</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>17/02/21</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44244.63368055555</v>
+        <v>44244.76636574074</v>
       </c>
       <c r="H10" t="n">
-        <v>30.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.7</v>
+        <v>16.91</v>
       </c>
       <c r="D11" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Evening Ride</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44244.55327546296</v>
+        <v>44244.74456018519</v>
       </c>
       <c r="H11" t="n">
-        <v>38.5</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.2</v>
+        <v>47.23</v>
       </c>
       <c r="D12" t="n">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Découverte de Fécamp !</t>
+          <t>10-12wk FTP Builder Week 9 Day 3</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44244.54912037037</v>
+        <v>44244.73262731481</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -836,31 +836,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.23</v>
+        <v>3.41</v>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44244.53084490741</v>
+        <v>44244.68665509259</v>
       </c>
       <c r="H13" t="n">
-        <v>16.15</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -868,95 +868,95 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6</v>
+        <v>6.98</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Marie Leger</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>600m</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44244.51871527778</v>
+        <v>44244.67315972222</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>69.80000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.01</v>
+        <v>2.13</v>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunch Run with 🐶🐕🐶 (600m manquants 🤣)</t>
+          <t>Récupération de mon véhicule</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44244.46947916667</v>
+        <v>44244.65820601852</v>
       </c>
       <c r="H15" t="n">
-        <v>80.09999999999999</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7.77</v>
+        <v>6.34</v>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>Vélo dans l'après-midi</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44244.45858796296</v>
+        <v>44244.65657407408</v>
       </c>
       <c r="H16" t="n">
-        <v>77.69999999999999</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -964,31 +964,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.16</v>
+        <v>6.1</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Petite marche dans la campagne avec les enfants</t>
+          <t>17/02/21</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44244.40833333333</v>
+        <v>44244.63368055555</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -996,159 +996,159 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.68</v>
+        <v>7.7</v>
       </c>
       <c r="D18" t="n">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44244.40074074074</v>
+        <v>44244.55327546296</v>
       </c>
       <c r="H18" t="n">
-        <v>28.4</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>50.63</v>
+        <v>10.2</v>
       </c>
       <c r="D19" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 9 Day 2</t>
+          <t>Découverte de Fécamp !</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44243.82564814815</v>
+        <v>44244.54912037037</v>
       </c>
       <c r="H19" t="n">
-        <v>101.26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>3.23</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44243.78107638889</v>
+        <v>44244.53084490741</v>
       </c>
       <c r="H20" t="n">
-        <v>27</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cardio entre potes !</t>
+          <t>600m</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44243.74561342593</v>
+        <v>44244.51871527778</v>
       </c>
       <c r="H21" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>8.01</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Julie Leger</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vélo d'appart</t>
+          <t>Lunch Run with 🐶🐕🐶 (600m manquants 🤣)</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44243.72920138889</v>
+        <v>44244.46947916667</v>
       </c>
       <c r="H22" t="n">
-        <v>30</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1156,223 +1156,223 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.77</v>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sophie Rollin</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Evening Run</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44243.71755787037</v>
+        <v>44244.45858796296</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>77.69999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20.92</v>
+        <v>1.16</v>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vélo dans le salon</t>
+          <t>Petite marche dans la campagne avec les enfants</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44243.69334490741</v>
+        <v>44244.40833333333</v>
       </c>
       <c r="H24" t="n">
-        <v>41.84</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.01</v>
+        <v>5.68</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44243.66832175926</v>
+        <v>44244.40074074074</v>
       </c>
       <c r="H25" t="n">
-        <v>30.1</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.31</v>
+        <v>50.63</v>
       </c>
       <c r="D26" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>10-12wk FTP Builder Week 9 Day 2</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44243.66508101852</v>
+        <v>44243.82564814815</v>
       </c>
       <c r="H26" t="n">
-        <v>36.55</v>
+        <v>101.26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.23</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44243.56285879629</v>
+        <v>44243.78107638889</v>
       </c>
       <c r="H27" t="n">
-        <v>36.15000000000001</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Cardio entre potes !</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44243.52668981482</v>
+        <v>44243.74561342593</v>
       </c>
       <c r="H28" t="n">
-        <v>50.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.94</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Julie Leger</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Vélo d'appart</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44243.50453703704</v>
+        <v>44243.72920138889</v>
       </c>
       <c r="H29" t="n">
-        <v>9.699999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.529999999999999</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sophie Rollin</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>Evening Run</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44243.44688657407</v>
+        <v>44243.71755787037</v>
       </c>
       <c r="H30" t="n">
-        <v>95.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1412,415 +1412,415 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.18</v>
+        <v>20.92</v>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vélo matinale</t>
+          <t>Vélo dans le salon</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44243.39987268519</v>
+        <v>44243.69334490741</v>
       </c>
       <c r="H31" t="n">
-        <v>8.359999999999999</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.73</v>
+        <v>3.01</v>
       </c>
       <c r="D32" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fort des rousses</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44243.38622685185</v>
+        <v>44243.66832175926</v>
       </c>
       <c r="H32" t="n">
-        <v>13.65</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.74</v>
+        <v>7.31</v>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44243.24097222222</v>
+        <v>44243.66508101852</v>
       </c>
       <c r="H33" t="n">
-        <v>67.40000000000001</v>
+        <v>36.55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>7.23</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44243.23357638889</v>
+        <v>44243.56285879629</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>36.15000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.1</v>
+        <v>5.07</v>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44242.78895833333</v>
+        <v>44243.52668981482</v>
       </c>
       <c r="H35" t="n">
-        <v>22</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="D36" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Timothee Delauriere</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Workout</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44242.78472222222</v>
+        <v>44243.50453703704</v>
       </c>
       <c r="H36" t="n">
-        <v>29</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mac do à pied...😜😜😜</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44242.76660879629</v>
+        <v>44243.44688657407</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Satya Wiplier</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Marche</t>
+          <t>Vélo matinale</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44242.76658564815</v>
+        <v>44243.39987268519</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17.86</v>
+        <v>2.73</v>
       </c>
       <c r="D39" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vélo salon</t>
+          <t>Fort des rousses</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44242.71892361111</v>
+        <v>44243.38622685185</v>
       </c>
       <c r="H39" t="n">
-        <v>35.72</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.01</v>
+        <v>6.74</v>
       </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44242.68881944445</v>
+        <v>44243.24097222222</v>
       </c>
       <c r="H40" t="n">
-        <v>10.05</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Marche le soir</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44242.6565162037</v>
+        <v>44243.23357638889</v>
       </c>
       <c r="H41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.99</v>
+        <v>8.1</v>
       </c>
       <c r="D42" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Marche en normandie</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44242.643125</v>
+        <v>44242.78895833333</v>
       </c>
       <c r="H42" t="n">
-        <v>14.95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Timothee Delauriere</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Workout</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44242.62039351852</v>
+        <v>44242.78472222222</v>
       </c>
       <c r="H43" t="n">
-        <v>20.65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1828,31 +1828,31 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Activité dans l'après-midi</t>
+          <t>Mac do à pied...😜😜😜</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44242.57248842594</v>
+        <v>44242.76660879629</v>
       </c>
       <c r="H44" t="n">
-        <v>32.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1860,63 +1860,63 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Satya Wiplier</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunch Walk</t>
+          <t>Marche</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44242.49038194443</v>
+        <v>44242.76658564815</v>
       </c>
       <c r="H45" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.53</v>
+        <v>17.86</v>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Vélo salon</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44242.42783564814</v>
+        <v>44242.71892361111</v>
       </c>
       <c r="H46" t="n">
-        <v>7.65</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1924,63 +1924,63 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.91</v>
+        <v>2.01</v>
       </c>
       <c r="D47" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Il en manque un bout</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44241.65872685185</v>
+        <v>44242.68881944445</v>
       </c>
       <c r="H47" t="n">
-        <v>14.55</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>60</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Marche le soir</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>44242.6565162037</v>
+      </c>
+      <c r="H48" t="n">
         <v>15</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>6</v>
-      </c>
-      <c r="D48" t="n">
-        <v>49</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Christophe Dehillotte</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Marche dans l'après-midi</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>44241.65402777777</v>
-      </c>
-      <c r="H48" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1988,63 +1988,63 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5.32</v>
+        <v>2.99</v>
       </c>
       <c r="D49" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pour éliminer les mojitos 😜</t>
+          <t>Marche en normandie</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44241.64487268519</v>
+        <v>44242.643125</v>
       </c>
       <c r="H49" t="n">
-        <v>26.6</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20.8</v>
+        <v>4.13</v>
       </c>
       <c r="D50" t="n">
         <v>61</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Activité dans l'après-midi</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44241.58082175926</v>
+        <v>44242.62039351852</v>
       </c>
       <c r="H50" t="n">
-        <v>41.6</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2052,127 +2052,127 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.5</v>
+        <v>6.57</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Promenade</t>
+          <t>Activité dans l'après-midi</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44241.5121875</v>
+        <v>44242.57248842594</v>
       </c>
       <c r="H51" t="n">
-        <v>7.5</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10.41</v>
+        <v>1.7</v>
       </c>
       <c r="D52" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Course à pied du midi</t>
+          <t>Lunch Walk</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44241.49078703704</v>
+        <v>44242.49038194443</v>
       </c>
       <c r="H52" t="n">
-        <v>104.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7.17</v>
+        <v>1.53</v>
       </c>
       <c r="D53" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mari On</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Minière</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44241.48925925926</v>
+        <v>44242.42783564814</v>
       </c>
       <c r="H53" t="n">
-        <v>71.7</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6.67</v>
+        <v>2.91</v>
       </c>
       <c r="D54" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Course à pied le midi</t>
+          <t>Il en manque un bout</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44241.41815972222</v>
+        <v>44241.65872685185</v>
       </c>
       <c r="H54" t="n">
-        <v>66.7</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2180,31 +2180,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44241.41025462963</v>
+        <v>44241.65402777777</v>
       </c>
       <c r="H55" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2212,31 +2212,31 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4.42</v>
+        <v>5.32</v>
       </c>
       <c r="D56" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Balade de la meute 🦊🐻🐶</t>
+          <t>Pour éliminer les mojitos 😜</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44241.36550925926</v>
+        <v>44241.64487268519</v>
       </c>
       <c r="H56" t="n">
-        <v>22.1</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2244,42 +2244,42 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>74.73999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="D57" t="n">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VCMB 109 GR2</t>
+          <t>Activité dans l'après-midi</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44241.34190972222</v>
+        <v>44241.58082175926</v>
       </c>
       <c r="H57" t="n">
-        <v>149.48</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D58" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2288,19 +2288,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Jogg du dimanche</t>
+          <t>Promenade</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44241.32162037037</v>
+        <v>44241.5121875</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2308,31 +2308,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7.04</v>
+        <v>10.41</v>
       </c>
       <c r="D59" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Course à pied du midi</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44241.320625</v>
+        <v>44241.49078703704</v>
       </c>
       <c r="H59" t="n">
-        <v>70.40000000000001</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2340,95 +2340,95 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9.4</v>
+        <v>7.17</v>
       </c>
       <c r="D60" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Mari On</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>14/02/21</t>
+          <t>Minière</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44241.31958333333</v>
+        <v>44241.48925925926</v>
       </c>
       <c r="H60" t="n">
-        <v>94</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.21</v>
+        <v>6.67</v>
       </c>
       <c r="D61" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Course à pied le midi</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44241.22037037037</v>
+        <v>44241.41815972222</v>
       </c>
       <c r="H61" t="n">
-        <v>6.05</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44240.68465277777</v>
+        <v>44241.41025462963</v>
       </c>
       <c r="H62" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2436,42 +2436,42 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4.81</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ballade dans le froid 🥶</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44240.64438657407</v>
+        <v>44241.375</v>
       </c>
       <c r="H63" t="n">
-        <v>24.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7.51</v>
+        <v>4.42</v>
       </c>
       <c r="D64" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2480,147 +2480,147 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>La montre qui s'arrête alors qu'il reste 3km 🙄</t>
+          <t>Balade de la meute 🦊🐻🐶</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44240.62813657407</v>
+        <v>44241.36550925926</v>
       </c>
       <c r="H64" t="n">
-        <v>75.09999999999999</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.15</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>VCMB 109 GR2</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44240.61172453704</v>
+        <v>44241.34190972222</v>
       </c>
       <c r="H65" t="n">
-        <v>40.75</v>
+        <v>149.48</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sortie à vélo dans l'après-midi</t>
+          <t>Jogg du dimanche</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44240.57457175926</v>
+        <v>44241.32162037037</v>
       </c>
       <c r="H66" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7.77</v>
+        <v>7.04</v>
       </c>
       <c r="D67" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44240.51672453704</v>
+        <v>44241.320625</v>
       </c>
       <c r="H67" t="n">
-        <v>38.84999999999999</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5.36</v>
+        <v>9.4</v>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Enjoy the sun</t>
+          <t>14/02/21</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44240.46696759259</v>
+        <v>44241.31958333333</v>
       </c>
       <c r="H68" t="n">
-        <v>26.8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2628,191 +2628,191 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.07</v>
+        <v>1.21</v>
       </c>
       <c r="D69" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44240.43643518518</v>
+        <v>44241.22037037037</v>
       </c>
       <c r="H69" t="n">
-        <v>20.35</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Cours sur parcours compact de golf</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44240.43086805557</v>
+        <v>44240.68465277777</v>
       </c>
       <c r="H70" t="n">
-        <v>9.300000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4.15</v>
+        <v>4.81</v>
       </c>
       <c r="D71" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>ballade dans le froid 🥶</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44240.26467592592</v>
+        <v>44240.64438657407</v>
       </c>
       <c r="H71" t="n">
-        <v>41.5</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.74</v>
+        <v>7.51</v>
       </c>
       <c r="D72" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>La montre qui s'arrête alors qu'il reste 3km 🙄</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44240.19385416667</v>
+        <v>44240.62813657407</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44239.75694444445</v>
+        <v>44240.61172453704</v>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.9</v>
+        <v>16.8</v>
       </c>
       <c r="D74" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>12/02/21</t>
+          <t>Sortie à vélo dans l'après-midi</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44239.63627314815</v>
+        <v>44240.57457175926</v>
       </c>
       <c r="H74" t="n">
-        <v>39.5</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2820,42 +2820,42 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3.06</v>
+        <v>7.77</v>
       </c>
       <c r="D75" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Promenade enneigée</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44239.58208333332</v>
+        <v>44240.51672453704</v>
       </c>
       <c r="H75" t="n">
-        <v>15.3</v>
+        <v>38.84999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6.73</v>
+        <v>5.36</v>
       </c>
       <c r="D76" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2864,147 +2864,147 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vent frais, vent du midi 🥶</t>
+          <t>Enjoy the sun</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44239.45570601852</v>
+        <v>44240.46696759259</v>
       </c>
       <c r="H76" t="n">
-        <v>67.30000000000001</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.5</v>
+        <v>4.07</v>
       </c>
       <c r="D77" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Activité le midi</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44239.44210648148</v>
+        <v>44240.43643518518</v>
       </c>
       <c r="H77" t="n">
-        <v>30</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>25.91</v>
+        <v>1.86</v>
       </c>
       <c r="D78" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>20 min à FTP puis calme</t>
+          <t>Cours sur parcours compact de golf</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44238.85311342592</v>
+        <v>44240.43086805557</v>
       </c>
       <c r="H78" t="n">
-        <v>51.82</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>11.4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>11/02/21</t>
+          <t>Activité le midi</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44238.71231481482</v>
+        <v>44240.41666666666</v>
       </c>
       <c r="H79" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="D80" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Balade</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44238.68119212963</v>
+        <v>44240.26467592592</v>
       </c>
       <c r="H80" t="n">
-        <v>17.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3012,127 +3012,127 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.31</v>
+        <v>0.74</v>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44238.63715277778</v>
+        <v>44240.19385416667</v>
       </c>
       <c r="H81" t="n">
-        <v>6.550000000000001</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>24.54</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 8 Day 3</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44237.86130787037</v>
+        <v>44239.75694444445</v>
       </c>
       <c r="H82" t="n">
-        <v>49.08</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13.3</v>
+        <v>7.9</v>
       </c>
       <c r="D83" t="n">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>12/02/21</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44237.79754629629</v>
+        <v>44239.63627314815</v>
       </c>
       <c r="H83" t="n">
-        <v>26.6</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Promenade enneigée</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44237.72222222222</v>
+        <v>44239.58208333332</v>
       </c>
       <c r="H84" t="n">
-        <v>8</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3140,10 +3140,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5.58</v>
+        <v>6.73</v>
       </c>
       <c r="D85" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3152,158 +3152,158 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Footing dans la neige ❄️</t>
+          <t>Vent frais, vent du midi 🥶</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44237.67539351852</v>
+        <v>44239.45570601852</v>
       </c>
       <c r="H85" t="n">
-        <v>55.8</v>
+        <v>67.30000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.93</v>
+        <v>2.5</v>
       </c>
       <c r="D86" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ça fait frais ... avec les copines et les enfants</t>
+          <t>Activité le midi</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44237.67486111111</v>
+        <v>44239.44210648148</v>
       </c>
       <c r="H86" t="n">
-        <v>19.65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46.71</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 7 Day 4</t>
+          <t>Skating</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44236.82131944445</v>
+        <v>44239.35416666666</v>
       </c>
       <c r="H87" t="n">
-        <v>93.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5.92</v>
+        <v>25.91</v>
       </c>
       <c r="D88" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Pas mieux qu'hier 🧊</t>
+          <t>20 min à FTP puis calme</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44236.671875</v>
+        <v>44238.85311342592</v>
       </c>
       <c r="H88" t="n">
-        <v>59.2</v>
+        <v>51.82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.24</v>
+        <v>11.4</v>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Afternoon Ride</t>
+          <t>11/02/21</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44235.67065972222</v>
+        <v>44238.71231481482</v>
       </c>
       <c r="H89" t="n">
-        <v>4.48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6.81</v>
+        <v>3.5</v>
       </c>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3312,19 +3312,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Frisquet 🥶</t>
+          <t>Balade</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44235.67013888889</v>
+        <v>44238.68119212963</v>
       </c>
       <c r="H90" t="n">
-        <v>68.09999999999999</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3332,95 +3332,95 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.62</v>
+        <v>1.31</v>
       </c>
       <c r="D91" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44238.63715277778</v>
       </c>
       <c r="H91" t="n">
-        <v>13.1</v>
+        <v>6.550000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.62</v>
+        <v>24.54</v>
       </c>
       <c r="D92" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>10-12wk FTP Builder Week 8 Day 3</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44237.86130787037</v>
       </c>
       <c r="H92" t="n">
-        <v>13.1</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>13.3</v>
       </c>
       <c r="D93" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Marche nocturne</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44234.84722222222</v>
+        <v>44237.79754629629</v>
       </c>
       <c r="H93" t="n">
-        <v>20</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3431,60 +3431,60 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Raffermissement ....abdominal</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44234.70833333334</v>
+        <v>44237.72222222222</v>
       </c>
       <c r="H94" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5.41</v>
+        <v>5.58</v>
       </c>
       <c r="D95" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Marche avec les copines</t>
+          <t>Footing dans la neige ❄️</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44234.63688657407</v>
+        <v>44237.67539351852</v>
       </c>
       <c r="H95" t="n">
-        <v>27.05</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3492,319 +3492,319 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2.41</v>
+        <v>3.93</v>
       </c>
       <c r="D96" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Ça fait frais ... avec les copines et les enfants</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44234.6003587963</v>
+        <v>44237.67486111111</v>
       </c>
       <c r="H96" t="n">
-        <v>12.05</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>46.71</v>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>10-12wk FTP Builder Week 7 Day 4</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44234.45177083334</v>
+        <v>44236.82131944445</v>
       </c>
       <c r="H97" t="n">
-        <v>10</v>
+        <v>93.42</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.89</v>
+        <v>5.92</v>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Velo elliptique</t>
+          <t>Pas mieux qu'hier 🧊</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44234.44129629631</v>
+        <v>44236.671875</v>
       </c>
       <c r="H98" t="n">
-        <v>1.78</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3.64</v>
+        <v>17</v>
       </c>
       <c r="D99" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>corentin paya</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44234.38502314815</v>
+        <v>44236.33333333334</v>
       </c>
       <c r="H99" t="n">
-        <v>36.4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5.72</v>
+        <v>2.24</v>
       </c>
       <c r="D100" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Afternoon Ride</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44234.37035879631</v>
+        <v>44235.67065972222</v>
       </c>
       <c r="H100" t="n">
-        <v>28.6</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5.72</v>
+        <v>6.81</v>
       </c>
       <c r="D101" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Frisquet 🥶</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44234.3703587963</v>
+        <v>44235.67013888889</v>
       </c>
       <c r="H101" t="n">
-        <v>28.6</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>75.15000000000001</v>
+        <v>2.62</v>
       </c>
       <c r="D102" t="n">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>VCMB 119 GR2</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44234.33590277778</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H102" t="n">
-        <v>150.3</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>2.62</v>
       </c>
       <c r="D103" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44234.33081018519</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H103" t="n">
-        <v>60</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3.71</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche nocturne</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44234.31880787037</v>
+        <v>44234.84722222222</v>
       </c>
       <c r="H104" t="n">
-        <v>37.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>07/02/21</t>
+          <t>Raffermissement ....abdominal</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44234.29206018519</v>
+        <v>44234.70833333334</v>
       </c>
       <c r="H105" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3812,191 +3812,191 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5.22</v>
+        <v>5.41</v>
       </c>
       <c r="D106" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche avec les copines</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44233.67482638889</v>
+        <v>44234.63688657407</v>
       </c>
       <c r="H106" t="n">
-        <v>26.1</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>10.07</v>
+        <v>2.41</v>
       </c>
       <c r="D107" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44233.62342592593</v>
+        <v>44234.6003587963</v>
       </c>
       <c r="H107" t="n">
-        <v>100.7</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Entraînement Foot sous la pluie</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44233.60083333333</v>
+        <v>44234.45177083334</v>
       </c>
       <c r="H108" t="n">
-        <v>22.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2.5</v>
+        <v>0.89</v>
       </c>
       <c r="D109" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Velo elliptique</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44233.58560185185</v>
+        <v>44234.44129629631</v>
       </c>
       <c r="H109" t="n">
-        <v>12.5</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.61</v>
+        <v>3.64</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>corentin paya</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44233.47493055555</v>
+        <v>44234.38502314815</v>
       </c>
       <c r="H110" t="n">
-        <v>3.05</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>33.71</v>
+        <v>5.72</v>
       </c>
       <c r="D111" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Temps idéal (c'est faux)</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44233.44824074074</v>
+        <v>44234.37035879631</v>
       </c>
       <c r="H111" t="n">
-        <v>67.42</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4004,31 +4004,31 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.37</v>
+        <v>5.72</v>
       </c>
       <c r="D112" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44233.4447337963</v>
+        <v>44234.3703587963</v>
       </c>
       <c r="H112" t="n">
-        <v>6.850000000000001</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4036,10 +4036,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>28.63</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4048,30 +4048,30 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 7 Day 3</t>
+          <t>VCMB 119 GR2</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44233.41396990741</v>
+        <v>44234.33590277778</v>
       </c>
       <c r="H113" t="n">
-        <v>57.26</v>
+        <v>150.3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4080,30 +4080,30 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44233.4012037037</v>
+        <v>44234.33081018519</v>
       </c>
       <c r="H114" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4.92</v>
+        <v>3.71</v>
       </c>
       <c r="D115" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4112,147 +4112,147 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44233.32486111111</v>
+        <v>44234.31880787037</v>
       </c>
       <c r="H115" t="n">
-        <v>24.6</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4.9</v>
+        <v>10.8</v>
       </c>
       <c r="D116" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Balade de toutous</t>
+          <t>07/02/21</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44233.31291666667</v>
+        <v>44234.29206018519</v>
       </c>
       <c r="H116" t="n">
-        <v>24.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6.31</v>
+        <v>5.22</v>
       </c>
       <c r="D117" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44233.25414351852</v>
+        <v>44233.67482638889</v>
       </c>
       <c r="H117" t="n">
-        <v>63.09999999999999</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6.01</v>
+        <v>10.07</v>
       </c>
       <c r="D118" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44232.66780092593</v>
+        <v>44233.62342592593</v>
       </c>
       <c r="H118" t="n">
-        <v>30.05</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>10.6</v>
+        <v>2.25</v>
       </c>
       <c r="D119" t="n">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>05/02/21</t>
+          <t>Entraînement Foot sous la pluie</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44232.64491898148</v>
+        <v>44233.60083333333</v>
       </c>
       <c r="H119" t="n">
-        <v>53</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4260,31 +4260,31 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="D120" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44232.63561342594</v>
+        <v>44233.58560185185</v>
       </c>
       <c r="H120" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4292,63 +4292,63 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2.86</v>
+        <v>0.61</v>
       </c>
       <c r="D121" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44233.47493055555</v>
       </c>
       <c r="H121" t="n">
-        <v>14.3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2.86</v>
+        <v>33.71</v>
       </c>
       <c r="D122" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Temps idéal (c'est faux)</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44233.44824074074</v>
       </c>
       <c r="H122" t="n">
-        <v>14.3</v>
+        <v>67.42</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4356,95 +4356,95 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="D123" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Je vous en mets un peu plus</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44232.62511574074</v>
+        <v>44233.4447337963</v>
       </c>
       <c r="H123" t="n">
-        <v>6.4</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7.34</v>
+        <v>28.63</v>
       </c>
       <c r="D124" t="n">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Retour à Trégastel : un vrai plaisir</t>
+          <t>10-12wk FTP Builder Week 7 Day 3</t>
         </is>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44232.51474537037</v>
+        <v>44233.41396990741</v>
       </c>
       <c r="H124" t="n">
-        <v>36.7</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5.59</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Lunch Ride</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44232.47916666666</v>
+        <v>44233.4012037037</v>
       </c>
       <c r="H125" t="n">
-        <v>11.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4452,95 +4452,95 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1.44</v>
+        <v>4.92</v>
       </c>
       <c r="D126" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Bof</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44232.47024305557</v>
+        <v>44233.32486111111</v>
       </c>
       <c r="H126" t="n">
-        <v>7.199999999999999</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D127" t="n">
         <v>88</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="D127" t="n">
-        <v>86</v>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>La routourne va tourner</t>
+          <t>Balade de toutous</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44232.45350694445</v>
+        <v>44233.31291666667</v>
       </c>
       <c r="H127" t="n">
-        <v>151.4</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5.91</v>
+        <v>6.31</v>
       </c>
       <c r="D128" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Morning Ride</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44232.41337962963</v>
+        <v>44233.25414351852</v>
       </c>
       <c r="H128" t="n">
-        <v>11.82</v>
+        <v>63.09999999999999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4548,63 +4548,63 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4.99</v>
+        <v>6.01</v>
       </c>
       <c r="D129" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Que de la route, on va plus loin</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44232.40537037037</v>
+        <v>44232.66780092593</v>
       </c>
       <c r="H129" t="n">
-        <v>24.95</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>43.3</v>
+        <v>10.6</v>
       </c>
       <c r="D130" t="n">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 6 Day 4</t>
+          <t>05/02/21</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44231.83375</v>
+        <v>44232.64491898148</v>
       </c>
       <c r="H130" t="n">
-        <v>86.59999999999999</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4612,10 +4612,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.87</v>
+        <v>1.3</v>
       </c>
       <c r="D131" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4624,19 +4624,19 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Evening Hike</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44231.74266203704</v>
+        <v>44232.63561342594</v>
       </c>
       <c r="H131" t="n">
-        <v>9.350000000000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4644,31 +4644,31 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2.45</v>
+        <v>2.86</v>
       </c>
       <c r="D132" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44231.60041666667</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H132" t="n">
-        <v>12.25</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="D133" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4688,51 +4688,51 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Promenons nous dans les bois ...</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44231.4877662037</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H133" t="n">
-        <v>14.95</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="D134" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Satya Wiplier</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Activité du matin</t>
+          <t>Je vous en mets un peu plus</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44231.42361111111</v>
+        <v>44232.62511574074</v>
       </c>
       <c r="H134" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>17.36</v>
+        <v>7.34</v>
       </c>
       <c r="D135" t="n">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4752,51 +4752,51 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tregastel et vallée du Traouïéro</t>
+          <t>Retour à Trégastel : un vrai plaisir</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44231.38483796296</v>
+        <v>44232.51474537037</v>
       </c>
       <c r="H135" t="n">
-        <v>86.8</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5.03</v>
+        <v>5.59</v>
       </c>
       <c r="D136" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Lunch Ride</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44231.36285879631</v>
+        <v>44232.47916666666</v>
       </c>
       <c r="H136" t="n">
-        <v>25.15</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4804,31 +4804,31 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5.03</v>
+        <v>1.44</v>
       </c>
       <c r="D137" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Bof</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44231.3628587963</v>
+        <v>44232.47024305557</v>
       </c>
       <c r="H137" t="n">
-        <v>25.15</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4836,42 +4836,42 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3.2</v>
+        <v>15.14</v>
       </c>
       <c r="D138" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>La routourne va tourner</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44231.24442129629</v>
+        <v>44232.45350694445</v>
       </c>
       <c r="H138" t="n">
-        <v>32</v>
+        <v>151.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3.04</v>
+        <v>5.91</v>
       </c>
       <c r="D139" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4880,19 +4880,19 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Morning Ride</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44230.63672453703</v>
+        <v>44232.41337962963</v>
       </c>
       <c r="H139" t="n">
-        <v>15.2</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4900,10 +4900,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>7.24</v>
+        <v>4.99</v>
       </c>
       <c r="D140" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4912,83 +4912,83 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ile Grande</t>
+          <t>Que de la route, on va plus loin</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44230.53835648148</v>
+        <v>44232.40537037037</v>
       </c>
       <c r="H140" t="n">
-        <v>36.2</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>43.3</v>
       </c>
       <c r="D141" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1ere sortie running avec la petite mamie</t>
+          <t>10-12wk FTP Builder Week 6 Day 4</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44230.45893518518</v>
+        <v>44231.83375</v>
       </c>
       <c r="H141" t="n">
-        <v>40</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>8.85</v>
+        <v>1.87</v>
       </c>
       <c r="D142" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Ensoleillé mais (très) mouillé</t>
+          <t>Evening Hike</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44230.44480324074</v>
+        <v>44231.74266203704</v>
       </c>
       <c r="H142" t="n">
-        <v>88.5</v>
+        <v>9.350000000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4996,31 +4996,31 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="D143" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44230.42997685185</v>
+        <v>44231.60041666667</v>
       </c>
       <c r="H143" t="n">
-        <v>10</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5028,63 +5028,63 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3.75</v>
+        <v>2.99</v>
       </c>
       <c r="D144" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Trebeurden</t>
+          <t>Promenons nous dans les bois ...</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44230.39664351852</v>
+        <v>44231.4877662037</v>
       </c>
       <c r="H144" t="n">
-        <v>18.75</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>9.34</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Satya Wiplier</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Retour de Perros en passant par Trestrignel</t>
+          <t>Activité du matin</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44229.49413194445</v>
+        <v>44231.42361111111</v>
       </c>
       <c r="H145" t="n">
-        <v>46.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>8.59</v>
+        <v>17.36</v>
       </c>
       <c r="D146" t="n">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5104,19 +5104,19 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Aller à Perros</t>
+          <t>Tregastel et vallée du Traouïéro</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44229.37037037037</v>
+        <v>44231.38483796296</v>
       </c>
       <c r="H146" t="n">
-        <v>42.95</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5124,31 +5124,31 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2.87</v>
+        <v>5.03</v>
       </c>
       <c r="D147" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Découverte de Ploumanac'h</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44228.64439814815</v>
+        <v>44231.36285879631</v>
       </c>
       <c r="H147" t="n">
-        <v>14.35</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5156,31 +5156,31 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.29</v>
+        <v>5.03</v>
       </c>
       <c r="D148" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44228.63753472222</v>
+        <v>44231.3628587963</v>
       </c>
       <c r="H148" t="n">
-        <v>6.45</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5188,95 +5188,95 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>16.49</v>
+        <v>3.2</v>
       </c>
       <c r="D149" t="n">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Passage de relai et baptême de la boue</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44227.42353009259</v>
+        <v>44231.24442129629</v>
       </c>
       <c r="H149" t="n">
-        <v>164.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>16.49</v>
+        <v>3.04</v>
       </c>
       <c r="D150" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Passage de relai et baptême de la boue</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44227.42353009258</v>
+        <v>44230.63672453703</v>
       </c>
       <c r="H150" t="n">
-        <v>164.9</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6.44</v>
+        <v>7.24</v>
       </c>
       <c r="D151" t="n">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Marie Leger</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Ile Grande</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44227.41608796296</v>
+        <v>44230.53835648148</v>
       </c>
       <c r="H151" t="n">
-        <v>64.40000000000001</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5284,31 +5284,31 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.88</v>
+        <v>4</v>
       </c>
       <c r="D152" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>1ere sortie running avec la petite mamie</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>44227.36313657407</v>
+        <v>44230.45893518518</v>
       </c>
       <c r="H152" t="n">
-        <v>8.800000000000001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5316,159 +5316,159 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.78</v>
+        <v>8.85</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Ensoleillé mais (très) mouillé</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>44227.34079861111</v>
+        <v>44230.44480324074</v>
       </c>
       <c r="H153" t="n">
-        <v>17.8</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>78.02</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>VCMB 113 GR2</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>44227.33418981481</v>
+        <v>44230.42997685185</v>
       </c>
       <c r="H154" t="n">
-        <v>156.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.47</v>
+        <v>3.75</v>
       </c>
       <c r="D155" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Trebeurden</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44227.33324074074</v>
+        <v>44230.39664351852</v>
       </c>
       <c r="H155" t="n">
-        <v>14.7</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2.01</v>
+        <v>9.34</v>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Retour de Perros en passant par Trestrignel</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>44227.32197916666</v>
+        <v>44229.49413194445</v>
       </c>
       <c r="H156" t="n">
-        <v>20.1</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>9.4</v>
+        <v>8.59</v>
       </c>
       <c r="D157" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sortie à vélo le soir</t>
+          <t>Aller à Perros</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>44226.7087962963</v>
+        <v>44229.37037037037</v>
       </c>
       <c r="H157" t="n">
-        <v>18.8</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5476,10 +5476,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5.22</v>
+        <v>2.87</v>
       </c>
       <c r="D158" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5488,30 +5488,30 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Sous la flotte</t>
+          <t>Découverte de Ploumanac'h</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>44226.62849537037</v>
+        <v>44228.64439814815</v>
       </c>
       <c r="H158" t="n">
-        <v>26.1</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>11.24</v>
+        <v>1.29</v>
       </c>
       <c r="D159" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5520,30 +5520,30 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Afternoon Ride</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44226.61844907407</v>
+        <v>44228.63753472222</v>
       </c>
       <c r="H159" t="n">
-        <v>22.48</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>25.62</v>
+        <v>16.49</v>
       </c>
       <c r="D160" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5552,51 +5552,51 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Velo-conso</t>
+          <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44226.56037037037</v>
+        <v>44227.42353009258</v>
       </c>
       <c r="H160" t="n">
-        <v>51.24</v>
+        <v>164.9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>27.95</v>
+        <v>6.44</v>
       </c>
       <c r="D161" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Marie Leger</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="G161" s="2" t="n">
-        <v>44226.37979166668</v>
+        <v>44227.41608796296</v>
       </c>
       <c r="H161" t="n">
-        <v>55.9</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5604,31 +5604,31 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>8.5</v>
+        <v>0.88</v>
       </c>
       <c r="D162" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Course à pied de nuit</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>44226.37561342592</v>
+        <v>44227.36313657407</v>
       </c>
       <c r="H162" t="n">
-        <v>85</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5636,10 +5636,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5.01</v>
+        <v>1.78</v>
       </c>
       <c r="D163" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5652,111 +5652,111 @@
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44226.26634259259</v>
+        <v>44227.34079861111</v>
       </c>
       <c r="H163" t="n">
-        <v>50.09999999999999</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2.25</v>
+        <v>78.02</v>
       </c>
       <c r="D164" t="n">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>VCMB 113 GR2</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44225.60737268518</v>
+        <v>44227.33418981481</v>
       </c>
       <c r="H164" t="n">
-        <v>11.25</v>
+        <v>156.04</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="D165" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Morning Hike</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
-        <v>44225.34206018518</v>
+        <v>44227.33324074074</v>
       </c>
       <c r="H165" t="n">
-        <v>6.850000000000001</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="D166" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Morning Hike</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
-        <v>44225.32385416667</v>
+        <v>44227.32197916666</v>
       </c>
       <c r="H166" t="n">
-        <v>6.7</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5764,159 +5764,159 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>24.66</v>
+        <v>9.4</v>
       </c>
       <c r="D167" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 8 Day 3</t>
+          <t>Sortie à vélo le soir</t>
         </is>
       </c>
       <c r="G167" s="2" t="n">
-        <v>44223.87483796296</v>
+        <v>44226.7087962963</v>
       </c>
       <c r="H167" t="n">
-        <v>49.32</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>41.82</v>
+        <v>5.22</v>
       </c>
       <c r="D168" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 8 Day 4</t>
+          <t>Sous la flotte</t>
         </is>
       </c>
       <c r="G168" s="2" t="n">
-        <v>44222.87342592593</v>
+        <v>44226.62849537037</v>
       </c>
       <c r="H168" t="n">
-        <v>83.64</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>11.72</v>
+        <v>11.24</v>
       </c>
       <c r="D169" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Bonne bouillasse 😁</t>
+          <t>Afternoon Ride</t>
         </is>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44222.67177083333</v>
+        <v>44226.61844907407</v>
       </c>
       <c r="H169" t="n">
-        <v>117.2</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.33</v>
+        <v>25.62</v>
       </c>
       <c r="D170" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Velo-conso</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44222.63873842593</v>
+        <v>44226.56037037037</v>
       </c>
       <c r="H170" t="n">
-        <v>6.65</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.42</v>
+        <v>27.95</v>
       </c>
       <c r="D171" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Bread run</t>
+          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44222.25640046296</v>
+        <v>44226.37979166668</v>
       </c>
       <c r="H171" t="n">
-        <v>14.2</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5924,63 +5924,63 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2.66</v>
+        <v>8.5</v>
       </c>
       <c r="D172" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1st lap with Raïkô</t>
+          <t>Course à pied de nuit</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44222.23939814815</v>
+        <v>44226.37561342592</v>
       </c>
       <c r="H172" t="n">
-        <v>26.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4.33</v>
+        <v>5.01</v>
       </c>
       <c r="D173" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44220.6040162037</v>
+        <v>44226.26634259259</v>
       </c>
       <c r="H173" t="n">
-        <v>21.65</v>
+        <v>50.09999999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5988,191 +5988,191 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>8.01</v>
+        <v>2.25</v>
       </c>
       <c r="D174" t="n">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44220.59336805555</v>
+        <v>44225.60737268518</v>
       </c>
       <c r="H174" t="n">
-        <v>40.05</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80.28</v>
+        <v>1.37</v>
       </c>
       <c r="D175" t="n">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>VCMB 107 GR2</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44220.3353587963</v>
+        <v>44225.34206018518</v>
       </c>
       <c r="H175" t="n">
-        <v>160.56</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2.05</v>
+        <v>1.34</v>
       </c>
       <c r="D176" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44220.32298611111</v>
+        <v>44225.32385416667</v>
       </c>
       <c r="H176" t="n">
-        <v>20.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>8.109999999999999</v>
+        <v>24.66</v>
       </c>
       <c r="D177" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Zwift - 10-12wk FTP Builder Week 8 Day 3</t>
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44219.60003472222</v>
+        <v>44223.87483796296</v>
       </c>
       <c r="H177" t="n">
-        <v>40.55</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>15.9</v>
+        <v>41.82</v>
       </c>
       <c r="D178" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Zwift - 10-12wk FTP Builder Week 8 Day 4</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44219.38112268518</v>
+        <v>44222.87342592593</v>
       </c>
       <c r="H178" t="n">
-        <v>159</v>
+        <v>83.64</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>38.31</v>
+        <v>11.72</v>
       </c>
       <c r="D179" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 7 Day 3</t>
+          <t>Bonne bouillasse 😁</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44218.74016203704</v>
+        <v>44222.67177083333</v>
       </c>
       <c r="H179" t="n">
-        <v>76.62</v>
+        <v>117.2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6180,63 +6180,63 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>7.26</v>
+        <v>1.33</v>
       </c>
       <c r="D180" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44218.66010416668</v>
+        <v>44222.63873842593</v>
       </c>
       <c r="H180" t="n">
-        <v>36.3</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="D181" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Bread run</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44216.46258101852</v>
+        <v>44222.25640046296</v>
       </c>
       <c r="H181" t="n">
-        <v>8.35</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6244,255 +6244,255 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6.29</v>
+        <v>2.66</v>
       </c>
       <c r="D182" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Même si tu te perds (respire)</t>
+          <t>1st lap with Raïkô</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44216.44635416667</v>
+        <v>44222.23939814815</v>
       </c>
       <c r="H182" t="n">
-        <v>62.9</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>7.34</v>
+        <v>4.33</v>
       </c>
       <c r="D183" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Quand rien n'est facile (respire)</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44215.47685185185</v>
+        <v>44220.6040162037</v>
       </c>
       <c r="H183" t="n">
-        <v>73.40000000000001</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4.55</v>
+        <v>8.01</v>
       </c>
       <c r="D184" t="n">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44215.23921296297</v>
+        <v>44220.59336805555</v>
       </c>
       <c r="H184" t="n">
-        <v>45.5</v>
+        <v>40.05</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>5.46</v>
+        <v>80.28</v>
       </c>
       <c r="D185" t="n">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>VCMB 107 GR2</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44214.42790509259</v>
+        <v>44220.3353587963</v>
       </c>
       <c r="H185" t="n">
-        <v>27.3</v>
+        <v>160.56</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>17.13</v>
+        <v>2.05</v>
       </c>
       <c r="D186" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Courir après l'heure</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44213.67655092593</v>
+        <v>44220.32298611111</v>
       </c>
       <c r="H186" t="n">
-        <v>34.26</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>64.70999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D187" t="n">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Sortie solitaire</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44213.58501157408</v>
+        <v>44219.60003472222</v>
       </c>
       <c r="H187" t="n">
-        <v>129.42</v>
+        <v>40.55</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>8.24</v>
+        <v>15.9</v>
       </c>
       <c r="D188" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44213.56055555555</v>
+        <v>44219.38112268518</v>
       </c>
       <c r="H188" t="n">
-        <v>41.2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>9.83</v>
+        <v>38.31</v>
       </c>
       <c r="D189" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Zwift - 10-12wk FTP Builder Week 7 Day 3</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
-        <v>44213.51118055556</v>
+        <v>44218.74016203704</v>
       </c>
       <c r="H189" t="n">
-        <v>49.15</v>
+        <v>76.62</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6500,31 +6500,31 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2.82</v>
+        <v>7.26</v>
       </c>
       <c r="D190" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G190" s="2" t="n">
-        <v>44213.45940972222</v>
+        <v>44218.66010416668</v>
       </c>
       <c r="H190" t="n">
-        <v>14.1</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6532,31 +6532,31 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="D191" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G191" s="2" t="n">
-        <v>44213.42925925926</v>
+        <v>44216.46258101852</v>
       </c>
       <c r="H191" t="n">
-        <v>7.3</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -6564,31 +6564,31 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.4</v>
+        <v>6.29</v>
       </c>
       <c r="D192" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Même si tu te perds (respire)</t>
         </is>
       </c>
       <c r="G192" s="2" t="n">
-        <v>44213.33986111111</v>
+        <v>44216.44635416667</v>
       </c>
       <c r="H192" t="n">
-        <v>34</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6596,106 +6596,106 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3.42</v>
+        <v>7.34</v>
       </c>
       <c r="D193" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Quand rien n'est facile (respire)</t>
         </is>
       </c>
       <c r="G193" s="2" t="n">
-        <v>44213.31975694445</v>
+        <v>44215.47685185185</v>
       </c>
       <c r="H193" t="n">
-        <v>34.2</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6.01</v>
+        <v>4.55</v>
       </c>
       <c r="D194" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
-        <v>44212.58018518519</v>
+        <v>44215.23921296297</v>
       </c>
       <c r="H194" t="n">
-        <v>30.05</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6.24</v>
+        <v>5.46</v>
       </c>
       <c r="D195" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
-        <v>44212.25228009259</v>
+        <v>44214.42790509259</v>
       </c>
       <c r="H195" t="n">
-        <v>62.40000000000001</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>8.619999999999999</v>
+        <v>17.13</v>
       </c>
       <c r="D196" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -6704,141 +6704,461 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>T'as le souffle court (respire)</t>
+          <t>Courir après l'heure</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
-        <v>44211.45436342592</v>
+        <v>44213.67655092593</v>
       </c>
       <c r="H196" t="n">
-        <v>86.19999999999999</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2.83</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="D197" t="n">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Course à pied l'après-midi</t>
+          <t>Sortie solitaire</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
-        <v>44209.69403935185</v>
+        <v>44213.58501157408</v>
       </c>
       <c r="H197" t="n">
-        <v>28.3</v>
+        <v>129.42</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>9.960000000000001</v>
+        <v>8.24</v>
       </c>
       <c r="D198" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Le corps engourdi, toujours endormi, miroir, salle de bain</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
-        <v>44209.45825231481</v>
+        <v>44213.56055555555</v>
       </c>
       <c r="H198" t="n">
-        <v>99.60000000000001</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>16.35</v>
+        <v>9.83</v>
       </c>
       <c r="D199" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Sortie à vélo l'après-midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
-        <v>44207.60842592592</v>
+        <v>44213.51118055556</v>
       </c>
       <c r="H199" t="n">
-        <v>32.7</v>
+        <v>49.15</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="D200" t="n">
+        <v>39</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Lunch Hike</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>44213.45940972222</v>
+      </c>
+      <c r="H200" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D201" t="n">
+        <v>16</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Cathy BOGNON</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Marche le midi</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>44213.42925925926</v>
+      </c>
+      <c r="H201" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D202" t="n">
+        <v>19</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>44213.33986111111</v>
+      </c>
+      <c r="H202" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D203" t="n">
+        <v>23</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>44213.31975694445</v>
+      </c>
+      <c r="H203" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D204" t="n">
+        <v>53</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Afternoon Hike</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>44212.58018518519</v>
+      </c>
+      <c r="H204" t="n">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="D205" t="n">
+        <v>35</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>44212.25228009259</v>
+      </c>
+      <c r="H205" t="n">
+        <v>62.40000000000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="D206" t="n">
+        <v>42</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Thomas Mrt</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>T'as le souffle court (respire)</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>44211.45436342592</v>
+      </c>
+      <c r="H206" t="n">
+        <v>86.19999999999999</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D207" t="n">
+        <v>22</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Course à pied l'après-midi</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>44209.69403935185</v>
+      </c>
+      <c r="H207" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D208" t="n">
+        <v>50</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Thomas Mrt</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Le corps engourdi, toujours endormi, miroir, salle de bain</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>44209.45825231481</v>
+      </c>
+      <c r="H208" t="n">
+        <v>99.60000000000001</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
           <t>Ride</t>
         </is>
       </c>
-      <c r="C200" t="n">
+      <c r="C209" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D209" t="n">
+        <v>48</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sortie à vélo l'après-midi</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>44207.60842592592</v>
+      </c>
+      <c r="H209" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
         <v>16.23</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D210" t="n">
         <v>47</v>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>Sortie à vélo matinale</t>
         </is>
       </c>
-      <c r="G200" s="2" t="n">
+      <c r="G210" s="2" t="n">
         <v>44207.26508101852</v>
       </c>
-      <c r="H200" t="n">
+      <c r="H210" t="n">
         <v>32.46</v>
       </c>
     </row>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,95 +484,95 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.21</v>
+        <v>2.17</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Balade</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44245.67599537037</v>
+        <v>44246.26677083333</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11.1</v>
+        <v>0.48</v>
       </c>
       <c r="D3" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18/02/21</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44245.63462962963</v>
+        <v>44246.20491898148</v>
       </c>
       <c r="H3" t="n">
-        <v>111</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.6</v>
+        <v>50.24</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Timothee Delauriere</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Afternoon Activity</t>
+          <t>10-12wk FTP Builder Week 9 Day 3</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44245.61016203704</v>
+        <v>44245.86054398148</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>100.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.26</v>
+        <v>2.9</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44245.59697916666</v>
+        <v>44245.68539351852</v>
       </c>
       <c r="H5" t="n">
-        <v>21.3</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -612,223 +612,223 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.99</v>
+        <v>4.21</v>
       </c>
       <c r="D6" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Balade</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44245.58201388889</v>
+        <v>44245.67599537037</v>
       </c>
       <c r="H6" t="n">
-        <v>39.95</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.99</v>
+        <v>11.1</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunch Walk under the rain</t>
+          <t>18/02/21</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44245.48766203703</v>
+        <v>44245.63462962963</v>
       </c>
       <c r="H7" t="n">
-        <v>9.949999999999999</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Timothee Delauriere</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Afternoon Activity</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>44245.61016203704</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Walk</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Trang Tran</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Marche matinale</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>44245.24589120369</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.67</v>
+        <v>4.26</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44245.2287037037</v>
+        <v>44245.59697916666</v>
       </c>
       <c r="H9" t="n">
-        <v>66.7</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.1</v>
+        <v>4.26</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44244.76636574074</v>
+        <v>44245.59697916666</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16.91</v>
+        <v>7.99</v>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Evening Ride</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44244.74456018519</v>
+        <v>44245.58201388889</v>
       </c>
       <c r="H11" t="n">
-        <v>33.82</v>
+        <v>39.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47.23</v>
+        <v>1.99</v>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 9 Day 3</t>
+          <t>Lunch Walk under the rain</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44244.73262731481</v>
+        <v>44245.48766203703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.45999999999999</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -836,191 +836,191 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.41</v>
+        <v>7.8</v>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Timothee Delauriere</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Lunch Activity</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44244.68665509259</v>
+        <v>44245.48703703703</v>
       </c>
       <c r="H13" t="n">
-        <v>17.05</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.98</v>
+        <v>0.55</v>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Marie Leger</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44244.67315972222</v>
+        <v>44245.24589120369</v>
       </c>
       <c r="H14" t="n">
-        <v>69.80000000000001</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.13</v>
+        <v>6.67</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Récupération de mon véhicule</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44244.65820601852</v>
+        <v>44245.2287037037</v>
       </c>
       <c r="H15" t="n">
-        <v>10.65</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.34</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vélo dans l'après-midi</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44244.65657407408</v>
+        <v>44244.76636574074</v>
       </c>
       <c r="H16" t="n">
-        <v>12.68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.1</v>
+        <v>16.91</v>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>17/02/21</t>
+          <t>Evening Ride</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44244.63368055555</v>
+        <v>44244.74456018519</v>
       </c>
       <c r="H17" t="n">
-        <v>30.5</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.7</v>
+        <v>47.23</v>
       </c>
       <c r="D18" t="n">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>10-12wk FTP Builder Week 9 Day 3</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44244.55327546296</v>
+        <v>44244.73262731481</v>
       </c>
       <c r="H18" t="n">
-        <v>38.5</v>
+        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1028,159 +1028,159 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10.2</v>
+        <v>3.41</v>
       </c>
       <c r="D19" t="n">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Découverte de Fécamp !</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44244.54912037037</v>
+        <v>44244.68665509259</v>
       </c>
       <c r="H19" t="n">
-        <v>51</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.23</v>
+        <v>6.98</v>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Marie Leger</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44244.53084490741</v>
+        <v>44244.67315972222</v>
       </c>
       <c r="H20" t="n">
-        <v>16.15</v>
+        <v>69.80000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6</v>
+        <v>2.13</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>600m</t>
+          <t>Récupération de mon véhicule</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44244.51871527778</v>
+        <v>44244.65820601852</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8.01</v>
+        <v>6.34</v>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunch Run with 🐶🐕🐶 (600m manquants 🤣)</t>
+          <t>Vélo dans l'après-midi</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44244.46947916667</v>
+        <v>44244.65657407408</v>
       </c>
       <c r="H22" t="n">
-        <v>80.09999999999999</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.77</v>
+        <v>6.1</v>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>17/02/21</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44244.45858796296</v>
+        <v>44244.63368055555</v>
       </c>
       <c r="H23" t="n">
-        <v>77.69999999999999</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1188,31 +1188,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.16</v>
+        <v>7.7</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Petite marche dans la campagne avec les enfants</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44244.40833333333</v>
+        <v>44244.55327546296</v>
       </c>
       <c r="H24" t="n">
-        <v>5.8</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1220,447 +1220,447 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.68</v>
+        <v>10.2</v>
       </c>
       <c r="D25" t="n">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Découverte de Fécamp !</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44244.40074074074</v>
+        <v>44244.54912037037</v>
       </c>
       <c r="H25" t="n">
-        <v>28.4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50.63</v>
+        <v>3.23</v>
       </c>
       <c r="D26" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 9 Day 2</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44243.82564814815</v>
+        <v>44244.53084490741</v>
       </c>
       <c r="H26" t="n">
-        <v>101.26</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>600m</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44243.78107638889</v>
+        <v>44244.51871527778</v>
       </c>
       <c r="H27" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cardio entre potes !</t>
+          <t>Lunch Run with 🐶🐕🐶 (600m manquants 🤣)</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44243.74561342593</v>
+        <v>44244.46947916667</v>
       </c>
       <c r="H28" t="n">
-        <v>45</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>7.77</v>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Julie Leger</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vélo d'appart</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44243.72920138889</v>
+        <v>44244.45858796296</v>
       </c>
       <c r="H29" t="n">
-        <v>30</v>
+        <v>77.69999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sophie Rollin</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Evening Run</t>
+          <t>Petite marche dans la campagne avec les enfants</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44243.71755787037</v>
+        <v>44244.40833333333</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20.92</v>
+        <v>5.68</v>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vélo dans le salon</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44243.69334490741</v>
+        <v>44244.40074074074</v>
       </c>
       <c r="H31" t="n">
-        <v>41.84</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.01</v>
+        <v>50.63</v>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>10-12wk FTP Builder Week 9 Day 2</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44243.66832175926</v>
+        <v>44243.82564814815</v>
       </c>
       <c r="H32" t="n">
-        <v>30.1</v>
+        <v>101.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.31</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44243.66508101852</v>
+        <v>44243.78107638889</v>
       </c>
       <c r="H33" t="n">
-        <v>36.55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.23</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Cardio entre potes !</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44243.56285879629</v>
+        <v>44243.74561342593</v>
       </c>
       <c r="H34" t="n">
-        <v>36.15000000000001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.07</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Julie Leger</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Vélo d'appart</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44243.52668981482</v>
+        <v>44243.72920138889</v>
       </c>
       <c r="H35" t="n">
-        <v>50.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sophie Rollin</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Evening Run</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44243.50453703704</v>
+        <v>44243.71755787037</v>
       </c>
       <c r="H36" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.529999999999999</v>
+        <v>20.92</v>
       </c>
       <c r="D37" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>Vélo dans le salon</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44243.44688657407</v>
+        <v>44243.69334490741</v>
       </c>
       <c r="H37" t="n">
-        <v>95.3</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.18</v>
+        <v>3.01</v>
       </c>
       <c r="D38" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vélo matinale</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44243.39987268519</v>
+        <v>44243.66832175926</v>
       </c>
       <c r="H38" t="n">
-        <v>8.359999999999999</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1668,191 +1668,191 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.73</v>
+        <v>7.31</v>
       </c>
       <c r="D39" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fort des rousses</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44243.38622685185</v>
+        <v>44243.66508101852</v>
       </c>
       <c r="H39" t="n">
-        <v>13.65</v>
+        <v>36.55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6.74</v>
+        <v>7.23</v>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44243.24097222222</v>
+        <v>44243.56285879629</v>
       </c>
       <c r="H40" t="n">
-        <v>67.40000000000001</v>
+        <v>36.15000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44243.23357638889</v>
+        <v>44243.52668981482</v>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.1</v>
+        <v>1.94</v>
       </c>
       <c r="D42" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44242.78895833333</v>
+        <v>44243.50453703704</v>
       </c>
       <c r="H42" t="n">
-        <v>22</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Timothee Delauriere</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Workout</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44242.78472222222</v>
+        <v>44243.44688657407</v>
       </c>
       <c r="H43" t="n">
-        <v>29</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mac do à pied...😜😜😜</t>
+          <t>Vélo matinale</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44242.76660879629</v>
+        <v>44243.39987268519</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1860,159 +1860,159 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Satya Wiplier</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Marche</t>
+          <t>Fort des rousses</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44242.76658564815</v>
+        <v>44243.38622685185</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17.86</v>
+        <v>6.74</v>
       </c>
       <c r="D46" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vélo salon</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44242.71892361111</v>
+        <v>44243.24097222222</v>
       </c>
       <c r="H46" t="n">
-        <v>35.72</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Afternoon Walk</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44242.68881944445</v>
+        <v>44243.23357638889</v>
       </c>
       <c r="H47" t="n">
-        <v>10.05</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="D48" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Marche le soir</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44242.6565162037</v>
+        <v>44242.78895833333</v>
       </c>
       <c r="H48" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Timothee Delauriere</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Marche en normandie</t>
+          <t>Workout</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44242.643125</v>
+        <v>44242.78472222222</v>
       </c>
       <c r="H49" t="n">
-        <v>14.95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2020,31 +2020,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Mac do à pied...😜😜😜</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44242.62039351852</v>
+        <v>44242.76660879629</v>
       </c>
       <c r="H50" t="n">
-        <v>20.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2052,63 +2052,63 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Satya Wiplier</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Activité dans l'après-midi</t>
+          <t>Marche</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44242.57248842594</v>
+        <v>44242.76658564815</v>
       </c>
       <c r="H51" t="n">
-        <v>32.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.7</v>
+        <v>17.86</v>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunch Walk</t>
+          <t>Vélo salon</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44242.49038194443</v>
+        <v>44242.71892361111</v>
       </c>
       <c r="H52" t="n">
-        <v>8.5</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.53</v>
+        <v>2.01</v>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Afternoon Walk</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44242.42783564814</v>
+        <v>44242.68881944445</v>
       </c>
       <c r="H53" t="n">
-        <v>7.65</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2148,31 +2148,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Il en manque un bout</t>
+          <t>Marche le soir</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44241.65872685185</v>
+        <v>44242.6565162037</v>
       </c>
       <c r="H54" t="n">
-        <v>14.55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2180,31 +2180,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>2.99</v>
       </c>
       <c r="D55" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche en normandie</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44241.65402777777</v>
+        <v>44242.643125</v>
       </c>
       <c r="H55" t="n">
-        <v>30</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5.32</v>
+        <v>4.13</v>
       </c>
       <c r="D56" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2224,34 +2224,34 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Pour éliminer les mojitos 😜</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44241.64487268519</v>
+        <v>44242.62039351852</v>
       </c>
       <c r="H56" t="n">
-        <v>26.6</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>20.8</v>
+        <v>6.57</v>
       </c>
       <c r="D57" t="n">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2260,15 +2260,15 @@
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44241.58082175926</v>
+        <v>44242.57248842594</v>
       </c>
       <c r="H57" t="n">
-        <v>41.6</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2276,127 +2276,127 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Promenade</t>
+          <t>Lunch Walk</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44241.5121875</v>
+        <v>44242.49038194443</v>
       </c>
       <c r="H58" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10.41</v>
+        <v>1.53</v>
       </c>
       <c r="D59" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Course à pied du midi</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44241.49078703704</v>
+        <v>44242.42783564814</v>
       </c>
       <c r="H59" t="n">
-        <v>104.1</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.17</v>
+        <v>2.91</v>
       </c>
       <c r="D60" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mari On</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Minière</t>
+          <t>Il en manque un bout</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44241.48925925926</v>
+        <v>44241.65872685185</v>
       </c>
       <c r="H60" t="n">
-        <v>71.7</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6.67</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>emmanuelle brouder</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Course à pied le midi</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44241.41815972222</v>
+        <v>44241.65402777777</v>
       </c>
       <c r="H61" t="n">
-        <v>66.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2404,63 +2404,63 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.5</v>
+        <v>5.32</v>
       </c>
       <c r="D62" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Pour éliminer les mojitos 😜</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44241.41025462963</v>
+        <v>44241.64487268519</v>
       </c>
       <c r="H62" t="n">
-        <v>12.5</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="D63" t="n">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Activité matinale</t>
+          <t>Activité dans l'après-midi</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44241.375</v>
+        <v>44241.58082175926</v>
       </c>
       <c r="H63" t="n">
-        <v>100</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2468,63 +2468,63 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.42</v>
+        <v>1.5</v>
       </c>
       <c r="D64" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Balade de la meute 🦊🐻🐶</t>
+          <t>Promenade</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44241.36550925926</v>
+        <v>44241.5121875</v>
       </c>
       <c r="H64" t="n">
-        <v>22.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>74.73999999999999</v>
+        <v>10.41</v>
       </c>
       <c r="D65" t="n">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VCMB 109 GR2</t>
+          <t>Course à pied du midi</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44241.34190972222</v>
+        <v>44241.49078703704</v>
       </c>
       <c r="H65" t="n">
-        <v>149.48</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2532,31 +2532,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>7.17</v>
       </c>
       <c r="D66" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Mari On</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Jogg du dimanche</t>
+          <t>Minière</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44241.32162037037</v>
+        <v>44241.48925925926</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2564,63 +2564,63 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7.04</v>
+        <v>6.67</v>
       </c>
       <c r="D67" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>emmanuelle brouder</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Course à pied le midi</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44241.320625</v>
+        <v>44241.41815972222</v>
       </c>
       <c r="H67" t="n">
-        <v>70.40000000000001</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.4</v>
+        <v>2.5</v>
       </c>
       <c r="D68" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>14/02/21</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44241.31958333333</v>
+        <v>44241.41025462963</v>
       </c>
       <c r="H68" t="n">
-        <v>94</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2628,42 +2628,42 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.21</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Activité matinale</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44241.22037037037</v>
+        <v>44241.375</v>
       </c>
       <c r="H69" t="n">
-        <v>6.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4.42</v>
       </c>
       <c r="D70" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2672,51 +2672,51 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Balade de la meute 🦊🐻🐶</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44240.68465277777</v>
+        <v>44241.36550925926</v>
       </c>
       <c r="H70" t="n">
-        <v>30</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4.81</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ballade dans le froid 🥶</t>
+          <t>VCMB 109 GR2</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44240.64438657407</v>
+        <v>44241.34190972222</v>
       </c>
       <c r="H71" t="n">
-        <v>24.05</v>
+        <v>149.48</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2724,95 +2724,95 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.51</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>La montre qui s'arrête alors qu'il reste 3km 🙄</t>
+          <t>Jogg du dimanche</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44240.62813657407</v>
+        <v>44241.32162037037</v>
       </c>
       <c r="H72" t="n">
-        <v>75.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8.15</v>
+        <v>7.04</v>
       </c>
       <c r="D73" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44240.61172453704</v>
+        <v>44241.320625</v>
       </c>
       <c r="H73" t="n">
-        <v>40.75</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>16.8</v>
+        <v>9.4</v>
       </c>
       <c r="D74" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sortie à vélo dans l'après-midi</t>
+          <t>14/02/21</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44240.57457175926</v>
+        <v>44241.31958333333</v>
       </c>
       <c r="H74" t="n">
-        <v>33.6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2820,63 +2820,63 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.77</v>
+        <v>1.21</v>
       </c>
       <c r="D75" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44240.51672453704</v>
+        <v>44241.22037037037</v>
       </c>
       <c r="H75" t="n">
-        <v>38.84999999999999</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5.36</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Enjoy the sun</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44240.46696759259</v>
+        <v>44240.68465277777</v>
       </c>
       <c r="H76" t="n">
-        <v>26.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2884,63 +2884,63 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.07</v>
+        <v>4.81</v>
       </c>
       <c r="D77" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>ballade dans le froid 🥶</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44240.43643518518</v>
+        <v>44240.64438657407</v>
       </c>
       <c r="H77" t="n">
-        <v>20.35</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.86</v>
+        <v>7.51</v>
       </c>
       <c r="D78" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cours sur parcours compact de golf</t>
+          <t>La montre qui s'arrête alors qu'il reste 3km 🙄</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44240.43086805557</v>
+        <v>44240.62813657407</v>
       </c>
       <c r="H78" t="n">
-        <v>9.300000000000001</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2948,63 +2948,63 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>8.15</v>
       </c>
       <c r="D79" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Activité le midi</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44240.41666666666</v>
+        <v>44240.61172453704</v>
       </c>
       <c r="H79" t="n">
-        <v>25</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.15</v>
+        <v>16.8</v>
       </c>
       <c r="D80" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Sortie à vélo dans l'après-midi</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44240.26467592592</v>
+        <v>44240.57457175926</v>
       </c>
       <c r="H80" t="n">
-        <v>41.5</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3012,63 +3012,63 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.74</v>
+        <v>7.77</v>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Trang Tran</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44240.19385416667</v>
+        <v>44240.51672453704</v>
       </c>
       <c r="H81" t="n">
-        <v>3.7</v>
+        <v>38.84999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>Enjoy the sun</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44239.75694444445</v>
+        <v>44240.46696759259</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3076,31 +3076,31 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.9</v>
+        <v>4.07</v>
       </c>
       <c r="D83" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>12/02/21</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44239.63627314815</v>
+        <v>44240.43643518518</v>
       </c>
       <c r="H83" t="n">
-        <v>39.5</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3108,170 +3108,170 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.06</v>
+        <v>1.86</v>
       </c>
       <c r="D84" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Promenade enneigée</t>
+          <t>Cours sur parcours compact de golf</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44239.58208333332</v>
+        <v>44240.43086805557</v>
       </c>
       <c r="H84" t="n">
-        <v>15.3</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6.73</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vent frais, vent du midi 🥶</t>
+          <t>Activité le midi</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44239.45570601852</v>
+        <v>44240.41666666666</v>
       </c>
       <c r="H85" t="n">
-        <v>67.30000000000001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.5</v>
+        <v>4.15</v>
       </c>
       <c r="D86" t="n">
         <v>30</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Activité le midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44239.44210648148</v>
+        <v>44240.26467592592</v>
       </c>
       <c r="H86" t="n">
-        <v>30</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>0.74</v>
       </c>
       <c r="D87" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Trang Tran</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Skating</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44239.35416666666</v>
+        <v>44240.19385416667</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25.91</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>20 min à FTP puis calme</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44238.85311342592</v>
+        <v>44239.75694444445</v>
       </c>
       <c r="H88" t="n">
-        <v>51.82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>11.4</v>
+        <v>7.9</v>
       </c>
       <c r="D89" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3280,19 +3280,19 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>11/02/21</t>
+          <t>12/02/21</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44238.71231481482</v>
+        <v>44239.63627314815</v>
       </c>
       <c r="H89" t="n">
-        <v>45</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3300,191 +3300,191 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.5</v>
+        <v>3.06</v>
       </c>
       <c r="D90" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Balade</t>
+          <t>Promenade enneigée</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44238.68119212963</v>
+        <v>44239.58208333332</v>
       </c>
       <c r="H90" t="n">
-        <v>17.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.31</v>
+        <v>6.73</v>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Vent frais, vent du midi 🥶</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44238.63715277778</v>
+        <v>44239.45570601852</v>
       </c>
       <c r="H91" t="n">
-        <v>6.550000000000001</v>
+        <v>67.30000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>24.54</v>
+        <v>2.5</v>
       </c>
       <c r="D92" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 8 Day 3</t>
+          <t>Activité le midi</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44237.86130787037</v>
+        <v>44239.44210648148</v>
       </c>
       <c r="H92" t="n">
-        <v>49.08</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Activité le soir</t>
+          <t>Skating</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44237.79754629629</v>
+        <v>44239.35416666666</v>
       </c>
       <c r="H93" t="n">
-        <v>26.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>25.91</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tabata</t>
+          <t>20 min à FTP puis calme</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44237.72222222222</v>
+        <v>44238.85311342592</v>
       </c>
       <c r="H94" t="n">
-        <v>8</v>
+        <v>51.82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5.58</v>
+        <v>11.4</v>
       </c>
       <c r="D95" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Footing dans la neige ❄️</t>
+          <t>11/02/21</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44237.67539351852</v>
+        <v>44238.71231481482</v>
       </c>
       <c r="H95" t="n">
-        <v>55.8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3492,127 +3492,127 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3.93</v>
+        <v>3.5</v>
       </c>
       <c r="D96" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ça fait frais ... avec les copines et les enfants</t>
+          <t>Balade</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44237.67486111111</v>
+        <v>44238.68119212963</v>
       </c>
       <c r="H96" t="n">
-        <v>19.65</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>46.71</v>
+        <v>1.31</v>
       </c>
       <c r="D97" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 7 Day 4</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44236.82131944445</v>
+        <v>44238.63715277778</v>
       </c>
       <c r="H97" t="n">
-        <v>93.42</v>
+        <v>6.550000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Pas mieux qu'hier 🧊</t>
+          <t>Skating</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44236.671875</v>
+        <v>44238.41666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>59.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>17</v>
+        <v>24.54</v>
       </c>
       <c r="D99" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>10-12wk FTP Builder Week 8 Day 3</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44236.33333333334</v>
+        <v>44237.86130787037</v>
       </c>
       <c r="H99" t="n">
-        <v>85</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3620,95 +3620,95 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2.24</v>
+        <v>13.3</v>
       </c>
       <c r="D100" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Afternoon Ride</t>
+          <t>Activité le soir</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44235.67065972222</v>
+        <v>44237.79754629629</v>
       </c>
       <c r="H100" t="n">
-        <v>4.48</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6.81</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Frisquet 🥶</t>
+          <t>Tabata</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44235.67013888889</v>
+        <v>44237.72222222222</v>
       </c>
       <c r="H101" t="n">
-        <v>68.09999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.62</v>
+        <v>5.58</v>
       </c>
       <c r="D102" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Footing dans la neige ❄️</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44237.67539351852</v>
       </c>
       <c r="H102" t="n">
-        <v>13.1</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3716,95 +3716,95 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2.62</v>
+        <v>3.93</v>
       </c>
       <c r="D103" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Ça fait frais ... avec les copines et les enfants</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44235.4794675926</v>
+        <v>44237.67486111111</v>
       </c>
       <c r="H103" t="n">
-        <v>13.1</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>46.71</v>
       </c>
       <c r="D104" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Marche nocturne</t>
+          <t>10-12wk FTP Builder Week 7 Day 4</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44234.84722222222</v>
+        <v>44236.82131944445</v>
       </c>
       <c r="H104" t="n">
-        <v>20</v>
+        <v>93.42</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>5.92</v>
       </c>
       <c r="D105" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>jean-charles roussel</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Raffermissement ....abdominal</t>
+          <t>Pas mieux qu'hier 🧊</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44234.70833333334</v>
+        <v>44236.671875</v>
       </c>
       <c r="H105" t="n">
-        <v>45</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3812,159 +3812,159 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5.41</v>
+        <v>17</v>
       </c>
       <c r="D106" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Marche avec les copines</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44234.63688657407</v>
+        <v>44236.33333333334</v>
       </c>
       <c r="H106" t="n">
-        <v>27.05</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2.41</v>
+        <v>2.24</v>
       </c>
       <c r="D107" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Afternoon Ride</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44234.6003587963</v>
+        <v>44235.67065972222</v>
       </c>
       <c r="H107" t="n">
-        <v>12.05</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>6.81</v>
       </c>
       <c r="D108" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Frisquet 🥶</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44234.45177083334</v>
+        <v>44235.67013888889</v>
       </c>
       <c r="H108" t="n">
-        <v>10</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.89</v>
+        <v>2.62</v>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Velo elliptique</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44234.44129629631</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H109" t="n">
-        <v>1.78</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3.64</v>
+        <v>2.62</v>
       </c>
       <c r="D110" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>corentin paya</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44234.38502314815</v>
+        <v>44235.4794675926</v>
       </c>
       <c r="H110" t="n">
-        <v>36.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3972,31 +3972,31 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5.72</v>
+        <v>7</v>
       </c>
       <c r="D111" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Skating</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44234.37035879631</v>
+        <v>44235.375</v>
       </c>
       <c r="H111" t="n">
-        <v>28.6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4004,191 +4004,191 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5.72</v>
+        <v>4</v>
       </c>
       <c r="D112" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Marche nocturne</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44234.3703587963</v>
+        <v>44234.84722222222</v>
       </c>
       <c r="H112" t="n">
-        <v>28.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>75.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>jean-charles roussel</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>VCMB 119 GR2</t>
+          <t>Raffermissement ....abdominal</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44234.33590277778</v>
+        <v>44234.70833333334</v>
       </c>
       <c r="H113" t="n">
-        <v>150.3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>5.41</v>
       </c>
       <c r="D114" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche avec les copines</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44234.33081018519</v>
+        <v>44234.63688657407</v>
       </c>
       <c r="H114" t="n">
-        <v>60</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3.71</v>
+        <v>2.41</v>
       </c>
       <c r="D115" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44234.31880787037</v>
+        <v>44234.6003587963</v>
       </c>
       <c r="H115" t="n">
-        <v>37.1</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07/02/21</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44234.29206018519</v>
+        <v>44234.45177083334</v>
       </c>
       <c r="H116" t="n">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5.22</v>
+        <v>0.89</v>
       </c>
       <c r="D117" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Christophe Dehillotte</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Velo elliptique</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44233.67482638889</v>
+        <v>44234.44129629631</v>
       </c>
       <c r="H117" t="n">
-        <v>26.1</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4196,63 +4196,63 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10.07</v>
+        <v>3.64</v>
       </c>
       <c r="D118" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Frederic Zaugg</t>
+          <t>corentin paya</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Course à pied dans l'après-midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44233.62342592593</v>
+        <v>44234.38502314815</v>
       </c>
       <c r="H118" t="n">
-        <v>100.7</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.25</v>
+        <v>5.72</v>
       </c>
       <c r="D119" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Entraînement Foot sous la pluie</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44233.60083333333</v>
+        <v>44234.37035879631</v>
       </c>
       <c r="H119" t="n">
-        <v>22.5</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4260,159 +4260,159 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2.5</v>
+        <v>5.72</v>
       </c>
       <c r="D120" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Loïc Le Gal</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44233.58560185185</v>
+        <v>44234.3703587963</v>
       </c>
       <c r="H120" t="n">
-        <v>12.5</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.61</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>VCMB 119 GR2</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44233.47493055555</v>
+        <v>44234.33590277778</v>
       </c>
       <c r="H121" t="n">
-        <v>3.05</v>
+        <v>150.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>33.71</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Temps idéal (c'est faux)</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44233.44824074074</v>
+        <v>44234.33081018519</v>
       </c>
       <c r="H122" t="n">
-        <v>67.42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.37</v>
+        <v>3.71</v>
       </c>
       <c r="D123" t="n">
         <v>23</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Alain Seguy</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44233.4447337963</v>
+        <v>44234.31880787037</v>
       </c>
       <c r="H123" t="n">
-        <v>6.850000000000001</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>28.63</v>
+        <v>10.8</v>
       </c>
       <c r="D124" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 7 Day 3</t>
+          <t>07/02/21</t>
         </is>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44233.41396990741</v>
+        <v>44234.29206018519</v>
       </c>
       <c r="H124" t="n">
-        <v>57.26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4420,127 +4420,127 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>5.22</v>
       </c>
       <c r="D125" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sylvain Wiplier</t>
+          <t>Christophe Dehillotte</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44233.4012037037</v>
+        <v>44233.67482638889</v>
       </c>
       <c r="H125" t="n">
-        <v>10</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4.92</v>
+        <v>10.07</v>
       </c>
       <c r="D126" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Frederic Zaugg</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Course à pied dans l'après-midi</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44233.32486111111</v>
+        <v>44233.62342592593</v>
       </c>
       <c r="H126" t="n">
-        <v>24.6</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4.9</v>
+        <v>2.25</v>
       </c>
       <c r="D127" t="n">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Balade de toutous</t>
+          <t>Entraînement Foot sous la pluie</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44233.31291666667</v>
+        <v>44233.60083333333</v>
       </c>
       <c r="H127" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6.31</v>
+        <v>2.5</v>
       </c>
       <c r="D128" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Loïc Le Gal</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44233.25414351852</v>
+        <v>44233.58560185185</v>
       </c>
       <c r="H128" t="n">
-        <v>63.09999999999999</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4548,63 +4548,63 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6.01</v>
+        <v>0.61</v>
       </c>
       <c r="D129" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44232.66780092593</v>
+        <v>44233.47493055555</v>
       </c>
       <c r="H129" t="n">
-        <v>30.05</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>10.6</v>
+        <v>33.71</v>
       </c>
       <c r="D130" t="n">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Marie L</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>05/02/21</t>
+          <t>Temps idéal (c'est faux)</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44232.64491898148</v>
+        <v>44233.44824074074</v>
       </c>
       <c r="H130" t="n">
-        <v>53</v>
+        <v>67.42</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4612,63 +4612,63 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="D131" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Alain Seguy</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44232.63561342594</v>
+        <v>44233.4447337963</v>
       </c>
       <c r="H131" t="n">
-        <v>6.5</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2.86</v>
+        <v>28.63</v>
       </c>
       <c r="D132" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>10-12wk FTP Builder Week 7 Day 3</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44233.41396990741</v>
       </c>
       <c r="H132" t="n">
-        <v>14.3</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4676,31 +4676,31 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sylvain Wiplier</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ZzzzZzz ça avance pas vite 🐕</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44232.63219907408</v>
+        <v>44233.4012037037</v>
       </c>
       <c r="H133" t="n">
-        <v>14.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4708,31 +4708,31 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.28</v>
+        <v>4.92</v>
       </c>
       <c r="D134" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Je vous en mets un peu plus</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44232.62511574074</v>
+        <v>44233.32486111111</v>
       </c>
       <c r="H134" t="n">
-        <v>6.4</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4740,63 +4740,63 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7.34</v>
+        <v>4.9</v>
       </c>
       <c r="D135" t="n">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Retour à Trégastel : un vrai plaisir</t>
+          <t>Balade de toutous</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44232.51474537037</v>
+        <v>44233.31291666667</v>
       </c>
       <c r="H135" t="n">
-        <v>36.7</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5.59</v>
+        <v>6.31</v>
       </c>
       <c r="D136" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Lunch Ride</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44232.47916666666</v>
+        <v>44233.25414351852</v>
       </c>
       <c r="H136" t="n">
-        <v>11.18</v>
+        <v>63.09999999999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4804,74 +4804,74 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.44</v>
+        <v>6.01</v>
       </c>
       <c r="D137" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bof</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44232.47024305557</v>
+        <v>44232.66780092593</v>
       </c>
       <c r="H137" t="n">
-        <v>7.199999999999999</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>15.14</v>
+        <v>10.6</v>
       </c>
       <c r="D138" t="n">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Marie L</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>La routourne va tourner</t>
+          <t>05/02/21</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44232.45350694445</v>
+        <v>44232.64491898148</v>
       </c>
       <c r="H138" t="n">
-        <v>151.4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5.91</v>
+        <v>1.3</v>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4880,19 +4880,19 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Morning Ride</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44232.41337962963</v>
+        <v>44232.63561342594</v>
       </c>
       <c r="H139" t="n">
-        <v>11.82</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4900,63 +4900,63 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4.99</v>
+        <v>2.86</v>
       </c>
       <c r="D140" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Que de la route, on va plus loin</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44232.40537037037</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H140" t="n">
-        <v>24.95</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>43.3</v>
+        <v>2.86</v>
       </c>
       <c r="D141" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>10-12wk FTP Builder Week 6 Day 4</t>
+          <t>ZzzzZzz ça avance pas vite 🐕</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44231.83375</v>
+        <v>44232.63219907408</v>
       </c>
       <c r="H141" t="n">
-        <v>86.59999999999999</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4964,31 +4964,31 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.87</v>
+        <v>1.28</v>
       </c>
       <c r="D142" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Evening Hike</t>
+          <t>Je vous en mets un peu plus</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44231.74266203704</v>
+        <v>44232.62511574074</v>
       </c>
       <c r="H142" t="n">
-        <v>9.350000000000001</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4996,159 +4996,159 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2.45</v>
+        <v>7.34</v>
       </c>
       <c r="D143" t="n">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Retour à Trégastel : un vrai plaisir</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44231.60041666667</v>
+        <v>44232.51474537037</v>
       </c>
       <c r="H143" t="n">
-        <v>12.25</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2.99</v>
+        <v>5.59</v>
       </c>
       <c r="D144" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Promenons nous dans les bois ...</t>
+          <t>Lunch Ride</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44231.4877662037</v>
+        <v>44232.47916666666</v>
       </c>
       <c r="H144" t="n">
-        <v>14.95</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cardio</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Satya Wiplier</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Activité du matin</t>
+          <t>Bof</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44231.42361111111</v>
+        <v>44232.47024305557</v>
       </c>
       <c r="H145" t="n">
-        <v>10</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>17.36</v>
+        <v>15.14</v>
       </c>
       <c r="D146" t="n">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Tregastel et vallée du Traouïéro</t>
+          <t>La routourne va tourner</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44231.38483796296</v>
+        <v>44232.45350694445</v>
       </c>
       <c r="H146" t="n">
-        <v>86.8</v>
+        <v>151.4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5.03</v>
+        <v>5.91</v>
       </c>
       <c r="D147" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Morning Ride</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44231.36285879631</v>
+        <v>44232.41337962963</v>
       </c>
       <c r="H147" t="n">
-        <v>25.15</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5156,63 +5156,63 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5.03</v>
+        <v>4.99</v>
       </c>
       <c r="D148" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Marche matinale</t>
+          <t>Que de la route, on va plus loin</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44231.3628587963</v>
+        <v>44232.40537037037</v>
       </c>
       <c r="H148" t="n">
-        <v>25.15</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3.2</v>
+        <v>43.3</v>
       </c>
       <c r="D149" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>10-12wk FTP Builder Week 6 Day 4</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44231.24442129629</v>
+        <v>44231.83375</v>
       </c>
       <c r="H149" t="n">
-        <v>32</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3.04</v>
+        <v>1.87</v>
       </c>
       <c r="D150" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5232,19 +5232,19 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Evening Hike</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44230.63672453703</v>
+        <v>44231.74266203704</v>
       </c>
       <c r="H150" t="n">
-        <v>15.2</v>
+        <v>9.350000000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5252,42 +5252,42 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7.24</v>
+        <v>2.45</v>
       </c>
       <c r="D151" t="n">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ile Grande</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44230.53835648148</v>
+        <v>44231.60041666667</v>
       </c>
       <c r="H151" t="n">
-        <v>36.2</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>2.99</v>
       </c>
       <c r="D152" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5296,51 +5296,51 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1ere sortie running avec la petite mamie</t>
+          <t>Promenons nous dans les bois ...</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>44230.45893518518</v>
+        <v>44231.4877662037</v>
       </c>
       <c r="H152" t="n">
-        <v>40</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Cardio</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Satya Wiplier</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Ensoleillé mais (très) mouillé</t>
+          <t>Activité du matin</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>44230.44480324074</v>
+        <v>44231.42361111111</v>
       </c>
       <c r="H153" t="n">
-        <v>88.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5348,31 +5348,31 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>17.36</v>
       </c>
       <c r="D154" t="n">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Tregastel et vallée du Traouïéro</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>44230.42997685185</v>
+        <v>44231.38483796296</v>
       </c>
       <c r="H154" t="n">
-        <v>10</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5380,63 +5380,63 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3.75</v>
+        <v>5.03</v>
       </c>
       <c r="D155" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Trebeurden</t>
+          <t>Marche matinale</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44230.39664351852</v>
+        <v>44231.36285879631</v>
       </c>
       <c r="H155" t="n">
-        <v>18.75</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9.34</v>
+        <v>3.2</v>
       </c>
       <c r="D156" t="n">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Retour de Perros en passant par Trestrignel</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>44229.49413194445</v>
+        <v>44231.24442129629</v>
       </c>
       <c r="H156" t="n">
-        <v>46.7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5444,31 +5444,31 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8.59</v>
+        <v>3.04</v>
       </c>
       <c r="D157" t="n">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Aller à Perros</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>44229.37037037037</v>
+        <v>44230.63672453703</v>
       </c>
       <c r="H157" t="n">
-        <v>42.95</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5476,10 +5476,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2.87</v>
+        <v>7.24</v>
       </c>
       <c r="D158" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5488,51 +5488,51 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Découverte de Ploumanac'h</t>
+          <t>Ile Grande</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>44228.64439814815</v>
+        <v>44230.53835648148</v>
       </c>
       <c r="H158" t="n">
-        <v>14.35</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.29</v>
+        <v>4</v>
       </c>
       <c r="D159" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>1ere sortie running avec la petite mamie</t>
         </is>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44228.63753472222</v>
+        <v>44230.45893518518</v>
       </c>
       <c r="H159" t="n">
-        <v>6.45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5540,10 +5540,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>16.49</v>
+        <v>8.85</v>
       </c>
       <c r="D160" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5552,339 +5552,339 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Passage de relai et baptême de la boue</t>
+          <t>Ensoleillé mais (très) mouillé</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44227.42353009258</v>
+        <v>44230.44480324074</v>
       </c>
       <c r="H160" t="n">
-        <v>164.9</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6.44</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Marie Leger</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G161" s="2" t="n">
-        <v>44227.41608796296</v>
+        <v>44230.42997685185</v>
       </c>
       <c r="H161" t="n">
-        <v>64.40000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.88</v>
+        <v>3.75</v>
       </c>
       <c r="D162" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Trebeurden</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>44227.36313657407</v>
+        <v>44230.39664351852</v>
       </c>
       <c r="H162" t="n">
-        <v>8.800000000000001</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.78</v>
+        <v>9.34</v>
       </c>
       <c r="D163" t="n">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Retour de Perros en passant par Trestrignel</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44227.34079861111</v>
+        <v>44229.49413194445</v>
       </c>
       <c r="H163" t="n">
-        <v>17.8</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>78.02</v>
+        <v>8.59</v>
       </c>
       <c r="D164" t="n">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>VCMB 113 GR2</t>
+          <t>Aller à Perros</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44227.33418981481</v>
+        <v>44229.37037037037</v>
       </c>
       <c r="H164" t="n">
-        <v>156.04</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.47</v>
+        <v>2.87</v>
       </c>
       <c r="D165" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Découverte de Ploumanac'h</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
-        <v>44227.33324074074</v>
+        <v>44228.64439814815</v>
       </c>
       <c r="H165" t="n">
-        <v>14.7</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2.01</v>
+        <v>1.29</v>
       </c>
       <c r="D166" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
-        <v>44227.32197916666</v>
+        <v>44228.63753472222</v>
       </c>
       <c r="H166" t="n">
-        <v>20.1</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>9.4</v>
+        <v>16.49</v>
       </c>
       <c r="D167" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>virginy pilloud</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Sortie à vélo le soir</t>
+          <t>Passage de relai et baptême de la boue</t>
         </is>
       </c>
       <c r="G167" s="2" t="n">
-        <v>44226.7087962963</v>
+        <v>44227.42353009258</v>
       </c>
       <c r="H167" t="n">
-        <v>18.8</v>
+        <v>164.9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5.22</v>
+        <v>6.44</v>
       </c>
       <c r="D168" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Marie Leger</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sous la flotte</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="G168" s="2" t="n">
-        <v>44226.62849537037</v>
+        <v>44227.41608796296</v>
       </c>
       <c r="H168" t="n">
-        <v>26.1</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>11.24</v>
+        <v>0.88</v>
       </c>
       <c r="D169" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Afternoon Ride</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44226.61844907407</v>
+        <v>44227.36313657407</v>
       </c>
       <c r="H169" t="n">
-        <v>22.48</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>25.62</v>
+        <v>1.78</v>
       </c>
       <c r="D170" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Velo-conso</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44226.56037037037</v>
+        <v>44227.34079861111</v>
       </c>
       <c r="H170" t="n">
-        <v>51.24</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>27.95</v>
+        <v>78.02</v>
       </c>
       <c r="D171" t="n">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -5904,19 +5904,19 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
+          <t>VCMB 113 GR2</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44226.37979166668</v>
+        <v>44227.33418981481</v>
       </c>
       <c r="H171" t="n">
-        <v>55.9</v>
+        <v>156.04</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5924,31 +5924,31 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>8.5</v>
+        <v>1.47</v>
       </c>
       <c r="D172" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aurore Meresse</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Course à pied de nuit</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44226.37561342592</v>
+        <v>44227.33324074074</v>
       </c>
       <c r="H172" t="n">
-        <v>85</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5.01</v>
+        <v>2.01</v>
       </c>
       <c r="D173" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -5972,47 +5972,47 @@
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44226.26634259259</v>
+        <v>44227.32197916666</v>
       </c>
       <c r="H173" t="n">
-        <v>50.09999999999999</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2.25</v>
+        <v>9.4</v>
       </c>
       <c r="D174" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>virginy pilloud</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Sortie à vélo le soir</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44225.60737268518</v>
+        <v>44226.7087962963</v>
       </c>
       <c r="H174" t="n">
-        <v>11.25</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6020,42 +6020,42 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.37</v>
+        <v>5.22</v>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Morning Hike</t>
+          <t>Sous la flotte</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44225.34206018518</v>
+        <v>44226.62849537037</v>
       </c>
       <c r="H175" t="n">
-        <v>6.850000000000001</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.34</v>
+        <v>11.24</v>
       </c>
       <c r="D176" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6064,19 +6064,19 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Morning Hike</t>
+          <t>Afternoon Ride</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44225.32385416667</v>
+        <v>44226.61844907407</v>
       </c>
       <c r="H176" t="n">
-        <v>6.7</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6084,31 +6084,31 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>24.66</v>
+        <v>25.62</v>
       </c>
       <c r="D177" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 8 Day 3</t>
+          <t>Velo-conso</t>
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44223.87483796296</v>
+        <v>44226.56037037037</v>
       </c>
       <c r="H177" t="n">
-        <v>49.32</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>41.82</v>
+        <v>27.95</v>
       </c>
       <c r="D178" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6128,19 +6128,19 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 8 Day 4</t>
+          <t>Zwift - 10-12wk FTP Builder Week 6 Day 3</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44222.87342592593</v>
+        <v>44226.37979166668</v>
       </c>
       <c r="H178" t="n">
-        <v>83.64</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6148,127 +6148,127 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>11.72</v>
+        <v>8.5</v>
       </c>
       <c r="D179" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Aurore Meresse</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Bonne bouillasse 😁</t>
+          <t>Course à pied de nuit</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44222.67177083333</v>
+        <v>44226.37561342592</v>
       </c>
       <c r="H179" t="n">
-        <v>117.2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.33</v>
+        <v>5.01</v>
       </c>
       <c r="D180" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44222.63873842593</v>
+        <v>44226.26634259259</v>
       </c>
       <c r="H180" t="n">
-        <v>6.65</v>
+        <v>50.09999999999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="D181" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Bread run</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44222.25640046296</v>
+        <v>44225.60737268518</v>
       </c>
       <c r="H181" t="n">
-        <v>14.2</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2.66</v>
+        <v>1.37</v>
       </c>
       <c r="D182" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1st lap with Raïkô</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44222.23939814815</v>
+        <v>44225.34206018518</v>
       </c>
       <c r="H182" t="n">
-        <v>26.6</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6276,63 +6276,63 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4.33</v>
+        <v>1.34</v>
       </c>
       <c r="D183" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Marche l'après-midi</t>
+          <t>Morning Hike</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44220.6040162037</v>
+        <v>44225.32385416667</v>
       </c>
       <c r="H183" t="n">
-        <v>21.65</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>8.01</v>
+        <v>24.66</v>
       </c>
       <c r="D184" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Zwift - 10-12wk FTP Builder Week 8 Day 3</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44220.59336805555</v>
+        <v>44223.87483796296</v>
       </c>
       <c r="H184" t="n">
-        <v>40.05</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>80.28</v>
+        <v>41.82</v>
       </c>
       <c r="D185" t="n">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -6352,19 +6352,19 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>VCMB 107 GR2</t>
+          <t>Zwift - 10-12wk FTP Builder Week 8 Day 4</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44220.3353587963</v>
+        <v>44222.87342592593</v>
       </c>
       <c r="H185" t="n">
-        <v>160.56</v>
+        <v>83.64</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6372,31 +6372,31 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2.05</v>
+        <v>11.72</v>
       </c>
       <c r="D186" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Bonne bouillasse 😁</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44220.32298611111</v>
+        <v>44222.67177083333</v>
       </c>
       <c r="H186" t="n">
-        <v>20.5</v>
+        <v>117.2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6404,31 +6404,31 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>8.109999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="D187" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44219.60003472222</v>
+        <v>44222.63873842593</v>
       </c>
       <c r="H187" t="n">
-        <v>40.55</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6436,63 +6436,63 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>15.9</v>
+        <v>1.42</v>
       </c>
       <c r="D188" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Bread run</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44219.38112268518</v>
+        <v>44222.25640046296</v>
       </c>
       <c r="H188" t="n">
-        <v>159</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>38.31</v>
+        <v>2.66</v>
       </c>
       <c r="D189" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Zwift - 10-12wk FTP Builder Week 7 Day 3</t>
+          <t>1st lap with Raïkô</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
-        <v>44218.74016203704</v>
+        <v>44222.23939814815</v>
       </c>
       <c r="H189" t="n">
-        <v>76.62</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6500,31 +6500,31 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7.26</v>
+        <v>4.33</v>
       </c>
       <c r="D190" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Marche l'après-midi</t>
         </is>
       </c>
       <c r="G190" s="2" t="n">
-        <v>44218.66010416668</v>
+        <v>44220.6040162037</v>
       </c>
       <c r="H190" t="n">
-        <v>36.3</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6532,63 +6532,63 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.67</v>
+        <v>8.01</v>
       </c>
       <c r="D191" t="n">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G191" s="2" t="n">
-        <v>44216.46258101852</v>
+        <v>44220.59336805555</v>
       </c>
       <c r="H191" t="n">
-        <v>8.35</v>
+        <v>40.05</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>6.29</v>
+        <v>80.28</v>
       </c>
       <c r="D192" t="n">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Même si tu te perds (respire)</t>
+          <t>VCMB 107 GR2</t>
         </is>
       </c>
       <c r="G192" s="2" t="n">
-        <v>44216.44635416667</v>
+        <v>44220.3353587963</v>
       </c>
       <c r="H192" t="n">
-        <v>62.9</v>
+        <v>160.56</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6596,95 +6596,95 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>7.34</v>
+        <v>2.05</v>
       </c>
       <c r="D193" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Quand rien n'est facile (respire)</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G193" s="2" t="n">
-        <v>44215.47685185185</v>
+        <v>44220.32298611111</v>
       </c>
       <c r="H193" t="n">
-        <v>73.40000000000001</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4.55</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
-        <v>44215.23921296297</v>
+        <v>44219.60003472222</v>
       </c>
       <c r="H194" t="n">
-        <v>45.5</v>
+        <v>40.55</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>5.46</v>
+        <v>15.9</v>
       </c>
       <c r="D195" t="n">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
-        <v>44214.42790509259</v>
+        <v>44219.38112268518</v>
       </c>
       <c r="H195" t="n">
-        <v>27.3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -6692,63 +6692,63 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>17.13</v>
+        <v>38.31</v>
       </c>
       <c r="D196" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Courir après l'heure</t>
+          <t>Zwift - 10-12wk FTP Builder Week 7 Day 3</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
-        <v>44213.67655092593</v>
+        <v>44218.74016203704</v>
       </c>
       <c r="H196" t="n">
-        <v>34.26</v>
+        <v>76.62</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>64.70999999999999</v>
+        <v>7.26</v>
       </c>
       <c r="D197" t="n">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sébastien Buczynski</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sortie solitaire</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
-        <v>44213.58501157408</v>
+        <v>44218.66010416668</v>
       </c>
       <c r="H197" t="n">
-        <v>129.42</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -6756,362 +6756,362 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>8.24</v>
+        <v>1.67</v>
       </c>
       <c r="D198" t="n">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Colette VAUCHEL</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Marche dans l'après-midi</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
-        <v>44213.56055555555</v>
+        <v>44216.46258101852</v>
       </c>
       <c r="H198" t="n">
-        <v>41.2</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>9.83</v>
+        <v>6.29</v>
       </c>
       <c r="D199" t="n">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Même si tu te perds (respire)</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
-        <v>44213.51118055556</v>
+        <v>44216.44635416667</v>
       </c>
       <c r="H199" t="n">
-        <v>49.15</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2.82</v>
+        <v>7.34</v>
       </c>
       <c r="D200" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Lunch Hike</t>
+          <t>Quand rien n'est facile (respire)</t>
         </is>
       </c>
       <c r="G200" s="2" t="n">
-        <v>44213.45940972222</v>
+        <v>44215.47685185185</v>
       </c>
       <c r="H200" t="n">
-        <v>14.1</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1.46</v>
+        <v>4.55</v>
       </c>
       <c r="D201" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Cathy BOGNON</t>
+          <t>Bryan Simpson</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Marche le midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G201" s="2" t="n">
-        <v>44213.42925925926</v>
+        <v>44215.23921296297</v>
       </c>
       <c r="H201" t="n">
-        <v>7.3</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3.4</v>
+        <v>5.46</v>
       </c>
       <c r="D202" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G202" s="2" t="n">
-        <v>44213.33986111111</v>
+        <v>44214.42790509259</v>
       </c>
       <c r="H202" t="n">
-        <v>34</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3.42</v>
+        <v>17.13</v>
       </c>
       <c r="D203" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Thomas Mrt</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Courir après l'heure</t>
         </is>
       </c>
       <c r="G203" s="2" t="n">
-        <v>44213.31975694445</v>
+        <v>44213.67655092593</v>
       </c>
       <c r="H203" t="n">
-        <v>34.2</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Walk</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6.01</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="D204" t="n">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sébastien .</t>
+          <t>Sébastien Buczynski</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Afternoon Hike</t>
+          <t>Sortie solitaire</t>
         </is>
       </c>
       <c r="G204" s="2" t="n">
-        <v>44212.58018518519</v>
+        <v>44213.58501157408</v>
       </c>
       <c r="H204" t="n">
-        <v>30.05</v>
+        <v>129.42</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6.24</v>
+        <v>8.24</v>
       </c>
       <c r="D205" t="n">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Colette VAUCHEL</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Course à pied matinale</t>
+          <t>Marche dans l'après-midi</t>
         </is>
       </c>
       <c r="G205" s="2" t="n">
-        <v>44212.25228009259</v>
+        <v>44213.56055555555</v>
       </c>
       <c r="H205" t="n">
-        <v>62.40000000000001</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>8.619999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="D206" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>T'as le souffle court (respire)</t>
+          <t>Afternoon Hike</t>
         </is>
       </c>
       <c r="G206" s="2" t="n">
-        <v>44211.45436342592</v>
+        <v>44213.51118055556</v>
       </c>
       <c r="H206" t="n">
-        <v>86.19999999999999</v>
+        <v>49.15</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="D207" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Bryan Simpson</t>
+          <t>Sébastien .</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Course à pied l'après-midi</t>
+          <t>Lunch Hike</t>
         </is>
       </c>
       <c r="G207" s="2" t="n">
-        <v>44209.69403935185</v>
+        <v>44213.45940972222</v>
       </c>
       <c r="H207" t="n">
-        <v>28.3</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Walk</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>9.960000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="D208" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Thomas Mrt</t>
+          <t>Cathy BOGNON</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Le corps engourdi, toujours endormi, miroir, salle de bain</t>
+          <t>Marche le midi</t>
         </is>
       </c>
       <c r="G208" s="2" t="n">
-        <v>44209.45825231481</v>
+        <v>44213.42925925926</v>
       </c>
       <c r="H208" t="n">
-        <v>99.60000000000001</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Run</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>16.35</v>
+        <v>3.4</v>
       </c>
       <c r="D209" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -7120,45 +7120,269 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Sortie à vélo l'après-midi</t>
+          <t>Course à pied matinale</t>
         </is>
       </c>
       <c r="G209" s="2" t="n">
-        <v>44207.60842592592</v>
+        <v>44213.33986111111</v>
       </c>
       <c r="H209" t="n">
-        <v>32.7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D210" t="n">
+        <v>23</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>44213.31975694445</v>
+      </c>
+      <c r="H210" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D211" t="n">
+        <v>53</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Afternoon Hike</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="n">
+        <v>44212.58018518519</v>
+      </c>
+      <c r="H211" t="n">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="D212" t="n">
+        <v>35</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Course à pied matinale</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>44212.25228009259</v>
+      </c>
+      <c r="H212" t="n">
+        <v>62.40000000000001</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>42</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Thomas Mrt</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>T'as le souffle court (respire)</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>44211.45436342592</v>
+      </c>
+      <c r="H213" t="n">
+        <v>86.19999999999999</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D214" t="n">
+        <v>22</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Course à pied l'après-midi</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>44209.69403935185</v>
+      </c>
+      <c r="H214" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D215" t="n">
+        <v>50</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Thomas Mrt</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Le corps engourdi, toujours endormi, miroir, salle de bain</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="n">
+        <v>44209.45825231481</v>
+      </c>
+      <c r="H215" t="n">
+        <v>99.60000000000001</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
           <t>Ride</t>
         </is>
       </c>
-      <c r="C210" t="n">
+      <c r="C216" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D216" t="n">
+        <v>48</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sortie à vélo l'après-midi</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>44207.60842592592</v>
+      </c>
+      <c r="H216" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
         <v>16.23</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D217" t="n">
         <v>47</v>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>Sortie à vélo matinale</t>
         </is>
       </c>
-      <c r="G210" s="2" t="n">
+      <c r="G217" s="2" t="n">
         <v>44207.26508101852</v>
       </c>
-      <c r="H210" t="n">
+      <c r="H217" t="n">
         <v>32.46</v>
       </c>
     </row>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1924,31 +1924,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6.42</v>
+        <v>5.14</v>
       </c>
       <c r="D47" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sophie Rollin</t>
+          <t>Elodie Lefèvre</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunch Walk</t>
+          <t>Dernière balade normande à Honfleur</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
         <v>44247.45506944445</v>
       </c>
       <c r="H47" t="n">
-        <v>32.1</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1956,31 +1956,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.14</v>
+        <v>6.42</v>
       </c>
       <c r="D48" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Elodie Lefèvre</t>
+          <t>Sophie Rollin</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Dernière balade normande à Honfleur</t>
+          <t>Lunch Walk</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
         <v>44247.45506944445</v>
       </c>
       <c r="H48" t="n">
-        <v>25.7</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2455,12 +2455,12 @@
         <v>44246.59590277778</v>
       </c>
       <c r="H63" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>234</v>
+        <v>5</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>259</v>
+        <v>112</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>

--- a/defi/saved_activities.xlsx
+++ b/defi/saved_activities.xlsx
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
